--- a/planejamento/cronograma/2021-1S-2D-cronograma.xlsx
+++ b/planejamento/cronograma/2021-1S-2D-cronograma.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulo.santos\Downloads\SENAI\CT\2021-1S-2D\senai-dev-1s2021-alunos\planejamento\cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7FCF84-B63C-40B1-8D53-B1CD8C8EEB40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22366A32-477B-4127-9919-A8737597E2F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VISÃO GERAL" sheetId="15" r:id="rId1"/>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId2"/>
     <sheet name="CRONOGRAMA" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="99">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -53,9 +53,6 @@
     <t>3. Utilizar tipos de dados para definição dos atributos do banco de dados</t>
   </si>
   <si>
-    <t>4. Elaborar diagramas de modelagem do banco de dados de acordo com a arquitetura definida (3)</t>
-  </si>
-  <si>
     <t>5. Utilizar relacionamentos entre as tabelas do banco de dados</t>
   </si>
   <si>
@@ -191,15 +188,6 @@
     <t>Sprint 5</t>
   </si>
   <si>
-    <t>EFCore</t>
-  </si>
-  <si>
-    <t>Transversal</t>
-  </si>
-  <si>
-    <t>EFCore, JWT</t>
-  </si>
-  <si>
     <t>Max - 15</t>
   </si>
   <si>
@@ -212,24 +200,12 @@
     <t>Design</t>
   </si>
   <si>
-    <t>ADO.NET, Repository</t>
-  </si>
-  <si>
     <t>JS</t>
   </si>
   <si>
-    <t>REACT</t>
-  </si>
-  <si>
     <t>JWT</t>
   </si>
   <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>, Postman, Swagger</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALINHAMENTO </t>
   </si>
   <si>
@@ -257,9 +233,6 @@
     <t xml:space="preserve">7. Trabalhar em equipe </t>
   </si>
   <si>
-    <t xml:space="preserve">3. Demonstrar raciocínio lógico na organização das informações </t>
-  </si>
-  <si>
     <t>5. Seguir método de trabalho</t>
   </si>
   <si>
@@ -287,9 +260,6 @@
     <t>4. Demonstrar visão sistêmica</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Demonstrar capacidade de organização </t>
-  </si>
-  <si>
     <t>PROJETO S6</t>
   </si>
   <si>
@@ -309,6 +279,51 @@
   </si>
   <si>
     <t>HROADS</t>
+  </si>
+  <si>
+    <t>Max - 25</t>
+  </si>
+  <si>
+    <t>UI / UX</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>4. Elaborar diagramas de modelagem do banco de dados de acordo com a arquitetura definida</t>
+  </si>
+  <si>
+    <t>3. Demonstrar raciocínio lógico na organização das informações</t>
+  </si>
+  <si>
+    <t>2. Demonstrar capacidade de organização</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Invertida</t>
+  </si>
+  <si>
+    <t>ADO.NET</t>
+  </si>
+  <si>
+    <t>EF Core</t>
+  </si>
+  <si>
+    <t>InLock</t>
+  </si>
+  <si>
+    <t>ReactJs</t>
+  </si>
+  <si>
+    <t>Desafio</t>
+  </si>
+  <si>
+    <t>WishList</t>
+  </si>
+  <si>
+    <t>Roman</t>
   </si>
 </sst>
 </file>
@@ -482,12 +497,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -516,8 +525,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -724,19 +739,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -974,11 +976,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1044,57 +1070,40 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1111,87 +1120,103 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,7 +1225,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1236,13 +1282,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>73343</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>56194</xdr:rowOff>
+      <xdr:rowOff>60004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>54974</xdr:colOff>
+      <xdr:colOff>55925</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>149546</xdr:rowOff>
     </xdr:to>
@@ -1273,8 +1319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="68580" y="56194"/>
-          <a:ext cx="15835994" cy="4474852"/>
+          <a:off x="73343" y="60004"/>
+          <a:ext cx="15832182" cy="4471042"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1585,11 +1631,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41537EB-D492-4302-88EF-5E854D108BA5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1600,384 +1646,384 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="90" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="91" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="91" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1990,455 +2036,455 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FD55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CR50" sqref="CR50"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="97.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="72"/>
-    <col min="3" max="6" width="8.28515625" style="10"/>
-    <col min="7" max="7" width="8.28515625" style="74"/>
-    <col min="8" max="16" width="8.28515625" style="10"/>
-    <col min="17" max="17" width="8.28515625" style="74"/>
-    <col min="18" max="23" width="8.28515625" style="10"/>
-    <col min="24" max="24" width="8.28515625" style="74"/>
-    <col min="25" max="28" width="8.28515625" style="10"/>
-    <col min="29" max="29" width="8.28515625" style="74" customWidth="1"/>
-    <col min="30" max="43" width="8.28515625" style="10"/>
-    <col min="44" max="44" width="8.28515625" style="74"/>
-    <col min="45" max="60" width="8.28515625" style="10"/>
-    <col min="61" max="61" width="8.28515625" style="74"/>
-    <col min="62" max="65" width="8.28515625" style="10"/>
-    <col min="66" max="66" width="8.28515625" style="74"/>
-    <col min="67" max="74" width="8.28515625" style="10"/>
-    <col min="75" max="75" width="8.28515625" style="74"/>
-    <col min="76" max="89" width="8.28515625" style="10"/>
-    <col min="90" max="90" width="8.28515625" style="74"/>
-    <col min="91" max="97" width="8.28515625" style="10"/>
-    <col min="98" max="98" width="8.28515625" style="74"/>
-    <col min="99" max="99" width="8.28515625" style="10"/>
-    <col min="100" max="100" width="8.28515625" style="73"/>
-    <col min="161" max="16384" width="8.28515625" style="10"/>
+    <col min="1" max="1" width="97.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="63"/>
+    <col min="3" max="6" width="8.33203125" style="10"/>
+    <col min="7" max="7" width="8.33203125" style="65"/>
+    <col min="8" max="16" width="8.33203125" style="10"/>
+    <col min="17" max="17" width="8.33203125" style="65"/>
+    <col min="18" max="23" width="8.33203125" style="10"/>
+    <col min="24" max="24" width="8.33203125" style="65"/>
+    <col min="25" max="28" width="8.33203125" style="10"/>
+    <col min="29" max="29" width="8.33203125" style="65" customWidth="1"/>
+    <col min="30" max="43" width="8.33203125" style="10"/>
+    <col min="44" max="44" width="8.33203125" style="65"/>
+    <col min="45" max="60" width="8.33203125" style="10"/>
+    <col min="61" max="61" width="8.33203125" style="65"/>
+    <col min="62" max="65" width="8.33203125" style="10"/>
+    <col min="66" max="66" width="8.33203125" style="65"/>
+    <col min="67" max="74" width="8.33203125" style="10"/>
+    <col min="75" max="75" width="8.33203125" style="65"/>
+    <col min="76" max="89" width="8.33203125" style="10"/>
+    <col min="90" max="90" width="8.33203125" style="65"/>
+    <col min="91" max="97" width="8.33203125" style="10"/>
+    <col min="98" max="98" width="8.33203125" style="65"/>
+    <col min="99" max="99" width="8.33203125" style="10"/>
+    <col min="100" max="100" width="8.33203125" style="64"/>
+    <col min="161" max="16384" width="8.33203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A1" s="107"/>
-      <c r="B1" s="145" t="s">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.3">
+      <c r="A1" s="96"/>
+      <c r="B1" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="148" t="s">
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="156"/>
+      <c r="AJ1" s="156"/>
+      <c r="AK1" s="156"/>
+      <c r="AL1" s="156"/>
+      <c r="AM1" s="156"/>
+      <c r="AN1" s="156"/>
+      <c r="AO1" s="157"/>
+      <c r="AP1" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="148"/>
-      <c r="AO1" s="148"/>
-      <c r="AP1" s="148"/>
-      <c r="AQ1" s="148"/>
-      <c r="AR1" s="149"/>
-      <c r="AS1" s="142" t="s">
+      <c r="AQ1" s="162"/>
+      <c r="AR1" s="162"/>
+      <c r="AS1" s="163"/>
+      <c r="AT1" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="144"/>
-      <c r="AX1" s="142" t="s">
+      <c r="AU1" s="162"/>
+      <c r="AV1" s="162"/>
+      <c r="AW1" s="162"/>
+      <c r="AX1" s="162"/>
+      <c r="AY1" s="162"/>
+      <c r="AZ1" s="162"/>
+      <c r="BA1" s="162"/>
+      <c r="BB1" s="162"/>
+      <c r="BC1" s="162"/>
+      <c r="BD1" s="162"/>
+      <c r="BE1" s="162"/>
+      <c r="BF1" s="162"/>
+      <c r="BG1" s="162"/>
+      <c r="BH1" s="162"/>
+      <c r="BI1" s="162"/>
+      <c r="BJ1" s="162"/>
+      <c r="BK1" s="162"/>
+      <c r="BL1" s="162"/>
+      <c r="BM1" s="162"/>
+      <c r="BN1" s="163"/>
+      <c r="BO1" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="143"/>
-      <c r="AZ1" s="143"/>
-      <c r="BA1" s="143"/>
-      <c r="BB1" s="143"/>
-      <c r="BC1" s="143"/>
-      <c r="BD1" s="143"/>
-      <c r="BE1" s="143"/>
-      <c r="BF1" s="143"/>
-      <c r="BG1" s="143"/>
-      <c r="BH1" s="143"/>
-      <c r="BI1" s="143"/>
-      <c r="BJ1" s="143"/>
-      <c r="BK1" s="143"/>
-      <c r="BL1" s="143"/>
-      <c r="BM1" s="143"/>
-      <c r="BN1" s="143"/>
-      <c r="BO1" s="143"/>
-      <c r="BP1" s="143"/>
-      <c r="BQ1" s="144"/>
-      <c r="BR1" s="136" t="s">
-        <v>53</v>
-      </c>
-      <c r="BS1" s="137"/>
-      <c r="BT1" s="137"/>
-      <c r="BU1" s="137"/>
-      <c r="BV1" s="137"/>
-      <c r="BW1" s="137"/>
-      <c r="BX1" s="137"/>
-      <c r="BY1" s="137"/>
-      <c r="BZ1" s="137"/>
-      <c r="CA1" s="137"/>
-      <c r="CB1" s="137"/>
-      <c r="CC1" s="137"/>
-      <c r="CD1" s="137"/>
-      <c r="CE1" s="137"/>
-      <c r="CF1" s="137"/>
-      <c r="CG1" s="138"/>
-      <c r="CH1" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="CI1" s="140"/>
-      <c r="CJ1" s="140"/>
-      <c r="CK1" s="140"/>
-      <c r="CL1" s="140"/>
-      <c r="CM1" s="140"/>
-      <c r="CN1" s="140"/>
-      <c r="CO1" s="140"/>
-      <c r="CP1" s="140"/>
-      <c r="CQ1" s="140"/>
-      <c r="CR1" s="140"/>
-      <c r="CS1" s="140"/>
-      <c r="CT1" s="140"/>
-      <c r="CU1" s="140"/>
-      <c r="CV1" s="141"/>
-    </row>
-    <row r="2" spans="1:160" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="82">
+      <c r="BP1" s="159"/>
+      <c r="BQ1" s="159"/>
+      <c r="BR1" s="159"/>
+      <c r="BS1" s="159"/>
+      <c r="BT1" s="159"/>
+      <c r="BU1" s="159"/>
+      <c r="BV1" s="159"/>
+      <c r="BW1" s="159"/>
+      <c r="BX1" s="159"/>
+      <c r="BY1" s="159"/>
+      <c r="BZ1" s="159"/>
+      <c r="CA1" s="159"/>
+      <c r="CB1" s="159"/>
+      <c r="CC1" s="159"/>
+      <c r="CD1" s="159"/>
+      <c r="CE1" s="159"/>
+      <c r="CF1" s="159"/>
+      <c r="CG1" s="159"/>
+      <c r="CH1" s="160"/>
+      <c r="CI1" s="150" t="s">
+        <v>78</v>
+      </c>
+      <c r="CJ1" s="150"/>
+      <c r="CK1" s="150"/>
+      <c r="CL1" s="150"/>
+      <c r="CM1" s="150"/>
+      <c r="CN1" s="150"/>
+      <c r="CO1" s="150"/>
+      <c r="CP1" s="150"/>
+      <c r="CQ1" s="150"/>
+      <c r="CR1" s="150"/>
+      <c r="CS1" s="150"/>
+      <c r="CT1" s="150"/>
+      <c r="CU1" s="150"/>
+      <c r="CV1" s="151"/>
+    </row>
+    <row r="2" spans="1:160" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="71">
         <v>44245</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="72">
         <v>44246</v>
       </c>
-      <c r="D2" s="83">
+      <c r="D2" s="72">
         <v>44249</v>
       </c>
-      <c r="E2" s="83">
+      <c r="E2" s="72">
         <v>44250</v>
       </c>
-      <c r="F2" s="83">
+      <c r="F2" s="72">
         <v>44251</v>
       </c>
-      <c r="G2" s="83">
+      <c r="G2" s="72">
         <v>44252</v>
       </c>
-      <c r="H2" s="83">
+      <c r="H2" s="72">
         <v>44253</v>
       </c>
-      <c r="I2" s="83">
+      <c r="I2" s="72">
         <v>44256</v>
       </c>
-      <c r="J2" s="83">
+      <c r="J2" s="72">
         <v>44257</v>
       </c>
-      <c r="K2" s="83">
+      <c r="K2" s="72">
         <v>44258</v>
       </c>
-      <c r="L2" s="83">
+      <c r="L2" s="72">
         <v>44259</v>
       </c>
-      <c r="M2" s="83">
+      <c r="M2" s="72">
         <v>44260</v>
       </c>
-      <c r="N2" s="83">
+      <c r="N2" s="72">
         <v>44263</v>
       </c>
-      <c r="O2" s="83">
+      <c r="O2" s="72">
         <v>44264</v>
       </c>
-      <c r="P2" s="83">
+      <c r="P2" s="72">
         <v>44265</v>
       </c>
-      <c r="Q2" s="128">
+      <c r="Q2" s="113">
         <v>44266</v>
       </c>
-      <c r="R2" s="84">
+      <c r="R2" s="73">
         <v>44267</v>
       </c>
-      <c r="S2" s="84">
+      <c r="S2" s="73">
         <v>44270</v>
       </c>
-      <c r="T2" s="84">
+      <c r="T2" s="73">
         <v>44271</v>
       </c>
-      <c r="U2" s="84">
+      <c r="U2" s="73">
         <v>44272</v>
       </c>
-      <c r="V2" s="84">
+      <c r="V2" s="73">
         <v>44273</v>
       </c>
-      <c r="W2" s="84">
+      <c r="W2" s="73">
         <v>44274</v>
       </c>
-      <c r="X2" s="84">
+      <c r="X2" s="73">
         <v>44277</v>
       </c>
-      <c r="Y2" s="84">
+      <c r="Y2" s="73">
         <v>44278</v>
       </c>
-      <c r="Z2" s="84">
+      <c r="Z2" s="73">
         <v>44279</v>
       </c>
-      <c r="AA2" s="84">
+      <c r="AA2" s="73">
         <v>44280</v>
       </c>
-      <c r="AB2" s="84">
+      <c r="AB2" s="73">
         <v>44281</v>
       </c>
-      <c r="AC2" s="85">
+      <c r="AC2" s="74">
         <v>44284</v>
       </c>
-      <c r="AD2" s="85">
+      <c r="AD2" s="74">
         <v>44285</v>
       </c>
-      <c r="AE2" s="85">
+      <c r="AE2" s="74">
         <v>44286</v>
       </c>
-      <c r="AF2" s="84">
+      <c r="AF2" s="73">
         <v>44287</v>
       </c>
-      <c r="AG2" s="84">
+      <c r="AG2" s="73">
         <v>44291</v>
       </c>
-      <c r="AH2" s="84">
+      <c r="AH2" s="73">
         <v>44292</v>
       </c>
-      <c r="AI2" s="84">
+      <c r="AI2" s="73">
         <v>44293</v>
       </c>
-      <c r="AJ2" s="84">
+      <c r="AJ2" s="73">
         <v>44294</v>
       </c>
-      <c r="AK2" s="84">
+      <c r="AK2" s="73">
         <v>44295</v>
       </c>
-      <c r="AL2" s="84">
+      <c r="AL2" s="73">
         <v>44298</v>
       </c>
-      <c r="AM2" s="84">
+      <c r="AM2" s="73">
         <v>44299</v>
       </c>
-      <c r="AN2" s="84">
+      <c r="AN2" s="73">
         <v>44300</v>
       </c>
-      <c r="AO2" s="84">
+      <c r="AO2" s="120">
         <v>44301</v>
       </c>
-      <c r="AP2" s="84">
+      <c r="AP2" s="75">
         <v>44302</v>
       </c>
-      <c r="AQ2" s="84">
+      <c r="AQ2" s="75">
         <v>44305</v>
       </c>
-      <c r="AR2" s="84">
+      <c r="AR2" s="75">
         <v>44306</v>
       </c>
-      <c r="AS2" s="86">
+      <c r="AS2" s="122">
         <v>44308</v>
       </c>
-      <c r="AT2" s="86">
+      <c r="AT2" s="126">
         <v>44309</v>
       </c>
-      <c r="AU2" s="86">
+      <c r="AU2" s="75">
         <v>44312</v>
       </c>
-      <c r="AV2" s="86">
+      <c r="AV2" s="75">
         <v>44313</v>
       </c>
-      <c r="AW2" s="86">
+      <c r="AW2" s="75">
         <v>44314</v>
       </c>
-      <c r="AX2" s="86">
+      <c r="AX2" s="75">
         <v>44315</v>
       </c>
-      <c r="AY2" s="86">
+      <c r="AY2" s="75">
         <v>44316</v>
       </c>
-      <c r="AZ2" s="86">
+      <c r="AZ2" s="75">
         <v>44319</v>
       </c>
-      <c r="BA2" s="86">
+      <c r="BA2" s="75">
         <v>44320</v>
       </c>
-      <c r="BB2" s="86">
+      <c r="BB2" s="75">
         <v>44321</v>
       </c>
-      <c r="BC2" s="86">
+      <c r="BC2" s="75">
         <v>44322</v>
       </c>
-      <c r="BD2" s="86">
+      <c r="BD2" s="75">
         <v>44323</v>
       </c>
-      <c r="BE2" s="86">
+      <c r="BE2" s="75">
         <v>44326</v>
       </c>
-      <c r="BF2" s="86">
+      <c r="BF2" s="75">
         <v>44327</v>
       </c>
-      <c r="BG2" s="86">
+      <c r="BG2" s="75">
         <v>44328</v>
       </c>
-      <c r="BH2" s="86">
+      <c r="BH2" s="75">
         <v>44329</v>
       </c>
-      <c r="BI2" s="86">
+      <c r="BI2" s="75">
         <v>44330</v>
       </c>
-      <c r="BJ2" s="86">
+      <c r="BJ2" s="75">
         <v>44333</v>
       </c>
-      <c r="BK2" s="86">
+      <c r="BK2" s="75">
         <v>44334</v>
       </c>
-      <c r="BL2" s="86">
+      <c r="BL2" s="75">
         <v>44335</v>
       </c>
-      <c r="BM2" s="86">
+      <c r="BM2" s="75">
         <v>44336</v>
       </c>
-      <c r="BN2" s="86">
+      <c r="BN2" s="122">
         <v>44337</v>
       </c>
-      <c r="BO2" s="86">
+      <c r="BO2" s="118">
         <v>44340</v>
       </c>
-      <c r="BP2" s="86">
+      <c r="BP2" s="118">
         <v>44341</v>
       </c>
-      <c r="BQ2" s="86">
+      <c r="BQ2" s="118">
         <v>44342</v>
       </c>
-      <c r="BR2" s="133">
+      <c r="BR2" s="118">
         <v>44343</v>
       </c>
-      <c r="BS2" s="133">
+      <c r="BS2" s="118">
         <v>44344</v>
       </c>
-      <c r="BT2" s="133">
+      <c r="BT2" s="118">
         <v>44347</v>
       </c>
-      <c r="BU2" s="133">
+      <c r="BU2" s="118">
         <v>44348</v>
       </c>
-      <c r="BV2" s="133">
+      <c r="BV2" s="118">
         <v>44349</v>
       </c>
-      <c r="BW2" s="133">
+      <c r="BW2" s="118">
         <v>44354</v>
       </c>
-      <c r="BX2" s="133">
+      <c r="BX2" s="118">
         <v>44355</v>
       </c>
-      <c r="BY2" s="133">
+      <c r="BY2" s="118">
         <v>44356</v>
       </c>
-      <c r="BZ2" s="133">
+      <c r="BZ2" s="118">
         <v>44357</v>
       </c>
-      <c r="CA2" s="133">
+      <c r="CA2" s="118">
         <v>44358</v>
       </c>
-      <c r="CB2" s="133">
+      <c r="CB2" s="118">
         <v>44361</v>
       </c>
-      <c r="CC2" s="133">
+      <c r="CC2" s="118">
         <v>44362</v>
       </c>
-      <c r="CD2" s="133">
+      <c r="CD2" s="118">
         <v>44363</v>
       </c>
-      <c r="CE2" s="133">
+      <c r="CE2" s="118">
         <v>44364</v>
       </c>
-      <c r="CF2" s="133">
+      <c r="CF2" s="118">
         <v>44365</v>
       </c>
-      <c r="CG2" s="133">
+      <c r="CG2" s="118">
         <v>44368</v>
       </c>
-      <c r="CH2" s="87">
+      <c r="CH2" s="123">
         <v>44369</v>
       </c>
-      <c r="CI2" s="87">
+      <c r="CI2" s="76">
         <v>44370</v>
       </c>
-      <c r="CJ2" s="87">
+      <c r="CJ2" s="76">
         <v>44371</v>
       </c>
-      <c r="CK2" s="87">
+      <c r="CK2" s="76">
         <v>44372</v>
       </c>
-      <c r="CL2" s="87">
+      <c r="CL2" s="76">
         <v>44375</v>
       </c>
-      <c r="CM2" s="87">
+      <c r="CM2" s="76">
         <v>44376</v>
       </c>
-      <c r="CN2" s="87">
+      <c r="CN2" s="76">
         <v>44377</v>
       </c>
-      <c r="CO2" s="87">
+      <c r="CO2" s="76">
         <v>44378</v>
       </c>
-      <c r="CP2" s="87">
+      <c r="CP2" s="76">
         <v>44379</v>
       </c>
-      <c r="CQ2" s="87">
+      <c r="CQ2" s="76">
         <v>44382</v>
       </c>
-      <c r="CR2" s="87">
+      <c r="CR2" s="76">
         <v>44383</v>
       </c>
-      <c r="CS2" s="87">
+      <c r="CS2" s="76">
         <v>44384</v>
       </c>
-      <c r="CT2" s="87">
+      <c r="CT2" s="76">
         <v>44385</v>
       </c>
-      <c r="CU2" s="87">
+      <c r="CU2" s="76">
         <v>44389</v>
       </c>
-      <c r="CV2" s="134">
+      <c r="CV2" s="119">
         <v>44390</v>
       </c>
       <c r="CW2"/>
@@ -2502,18 +2548,18 @@
       <c r="FC2"/>
       <c r="FD2"/>
     </row>
-    <row r="3" spans="1:160" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:160" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="52"/>
+        <v>39</v>
+      </c>
+      <c r="B3" s="43"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
-      <c r="H3" s="51"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="51"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
@@ -2602,7 +2648,7 @@
       <c r="CS3" s="22"/>
       <c r="CT3" s="22"/>
       <c r="CU3" s="22"/>
-      <c r="CV3" s="80"/>
+      <c r="CV3" s="69"/>
       <c r="CW3"/>
       <c r="CX3"/>
       <c r="CY3"/>
@@ -2664,21 +2710,21 @@
       <c r="FC3"/>
       <c r="FD3"/>
     </row>
-    <row r="4" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="127"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="112"/>
       <c r="H4" s="16"/>
       <c r="J4" s="16"/>
-      <c r="L4" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="CV4" s="54"/>
+      <c r="L4" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="CV4" s="45"/>
       <c r="CW4"/>
       <c r="CX4"/>
       <c r="CY4"/>
@@ -2740,16 +2786,16 @@
       <c r="FC4"/>
       <c r="FD4"/>
     </row>
-    <row r="5" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="127"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="112"/>
       <c r="H5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="L5" s="131"/>
-      <c r="CV5" s="54"/>
+      <c r="L5" s="116"/>
+      <c r="CV5" s="45"/>
       <c r="CW5"/>
       <c r="CX5"/>
       <c r="CY5"/>
@@ -2811,24 +2857,24 @@
       <c r="FC5"/>
       <c r="FD5"/>
     </row>
-    <row r="6" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="55"/>
+        <v>87</v>
+      </c>
+      <c r="B6" s="46"/>
       <c r="C6" s="16"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="129" t="s">
-        <v>93</v>
+      <c r="I6" s="114" t="s">
+        <v>83</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="L6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="CV6" s="54"/>
+      <c r="L6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="CV6" s="45"/>
       <c r="CW6"/>
       <c r="CX6"/>
       <c r="CY6"/>
@@ -2890,21 +2936,21 @@
       <c r="FC6"/>
       <c r="FD6"/>
     </row>
-    <row r="7" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="55"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="46"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="127"/>
+      <c r="F7" s="112"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="127"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="16"/>
-      <c r="L7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="CV7" s="54"/>
+      <c r="L7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="CV7" s="45"/>
       <c r="CW7"/>
       <c r="CX7"/>
       <c r="CY7"/>
@@ -2966,21 +3012,21 @@
       <c r="FC7"/>
       <c r="FD7"/>
     </row>
-    <row r="8" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="46"/>
       <c r="E8" s="16"/>
       <c r="F8" s="40"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="127"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="16"/>
-      <c r="L8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="CV8" s="54"/>
+      <c r="L8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="CV8" s="45"/>
       <c r="CW8"/>
       <c r="CX8"/>
       <c r="CY8"/>
@@ -3042,25 +3088,25 @@
       <c r="FC8"/>
       <c r="FD8"/>
     </row>
-    <row r="9" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="40"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="127"/>
+      <c r="I9" s="112"/>
       <c r="J9" s="16"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="CV9" s="54"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="CV9" s="45"/>
       <c r="CW9"/>
       <c r="CX9"/>
       <c r="CY9"/>
@@ -3122,20 +3168,20 @@
       <c r="FC9"/>
       <c r="FD9"/>
     </row>
-    <row r="10" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="55"/>
+        <v>12</v>
+      </c>
+      <c r="B10" s="46"/>
       <c r="F10" s="40"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="127"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="16"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="CV10" s="54"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="CV10" s="45"/>
       <c r="CW10"/>
       <c r="CX10"/>
       <c r="CY10"/>
@@ -3197,24 +3243,24 @@
       <c r="FC10"/>
       <c r="FD10"/>
     </row>
-    <row r="11" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="G11" s="129" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="132" t="s">
-        <v>92</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="G11" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="117" t="s">
+        <v>82</v>
       </c>
       <c r="I11" s="40"/>
       <c r="J11" s="16"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="CV11" s="54"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="CV11" s="45"/>
       <c r="CW11"/>
       <c r="CX11"/>
       <c r="CY11"/>
@@ -3276,20 +3322,22 @@
       <c r="FC11"/>
       <c r="FD11"/>
     </row>
-    <row r="12" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="H12" s="16"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="CV12" s="54"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="CV12" s="45"/>
       <c r="CW12"/>
       <c r="CX12"/>
       <c r="CY12"/>
@@ -3351,20 +3399,24 @@
       <c r="FC12"/>
       <c r="FD12"/>
     </row>
-    <row r="13" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="55"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="46"/>
       <c r="H13" s="16"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="J13" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="117" t="s">
+        <v>91</v>
+      </c>
       <c r="L13" s="16"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="CV13" s="54"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="CV13" s="45"/>
       <c r="CW13"/>
       <c r="CX13"/>
       <c r="CY13"/>
@@ -3426,20 +3478,20 @@
       <c r="FC13"/>
       <c r="FD13"/>
     </row>
-    <row r="14" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="46"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="CV14" s="54"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="CV14" s="45"/>
       <c r="CW14"/>
       <c r="CX14"/>
       <c r="CY14"/>
@@ -3501,20 +3553,20 @@
       <c r="FC14"/>
       <c r="FD14"/>
     </row>
-    <row r="15" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="55"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="46"/>
       <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="CV15" s="54"/>
+      <c r="K15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="CV15" s="45"/>
       <c r="CW15"/>
       <c r="CX15"/>
       <c r="CY15"/>
@@ -3576,23 +3628,20 @@
       <c r="FC15"/>
       <c r="FD15"/>
     </row>
-    <row r="16" spans="1:160" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="CV16" s="57"/>
+    <row r="16" spans="1:160" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="H16" s="16"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="CV16" s="45"/>
       <c r="CW16"/>
       <c r="CX16"/>
       <c r="CY16"/>
@@ -3654,15 +3703,23 @@
       <c r="FC16"/>
       <c r="FD16"/>
     </row>
-    <row r="17" spans="1:160" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="94"/>
-      <c r="Z17" s="96"/>
-      <c r="AE17" s="97"/>
-      <c r="AJ17" s="97"/>
-      <c r="CV17" s="98"/>
+    <row r="17" spans="1:160" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="CV17" s="48"/>
       <c r="CW17"/>
       <c r="CX17"/>
       <c r="CY17"/>
@@ -3724,109 +3781,15 @@
       <c r="FC17"/>
       <c r="FD17"/>
     </row>
-    <row r="18" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="97"/>
-      <c r="AI18" s="97"/>
-      <c r="AJ18" s="43"/>
-      <c r="AK18" s="97"/>
-      <c r="AL18" s="97"/>
-      <c r="AM18" s="97"/>
-      <c r="AN18" s="97"/>
-      <c r="AO18" s="97"/>
-      <c r="AP18" s="97"/>
-      <c r="AQ18" s="97"/>
-      <c r="AR18" s="97"/>
-      <c r="AS18" s="97"/>
-      <c r="AT18" s="97"/>
-      <c r="AU18" s="97"/>
-      <c r="AV18" s="97"/>
-      <c r="AW18" s="97"/>
-      <c r="AX18" s="97"/>
-      <c r="AY18" s="97"/>
-      <c r="AZ18" s="97"/>
-      <c r="BA18" s="97"/>
-      <c r="BB18" s="97"/>
-      <c r="BC18" s="97"/>
-      <c r="BD18" s="97"/>
-      <c r="BE18" s="97"/>
-      <c r="BF18" s="97"/>
-      <c r="BG18" s="97"/>
-      <c r="BH18" s="97"/>
-      <c r="BI18" s="97"/>
-      <c r="BJ18" s="97"/>
-      <c r="BK18" s="97"/>
-      <c r="BL18" s="97"/>
-      <c r="BM18" s="97"/>
-      <c r="BN18" s="97"/>
-      <c r="BO18" s="97"/>
-      <c r="BP18" s="97"/>
-      <c r="BQ18" s="97"/>
-      <c r="BR18" s="97"/>
-      <c r="BS18" s="97"/>
-      <c r="BT18" s="97"/>
-      <c r="BU18" s="97"/>
-      <c r="BV18" s="97"/>
-      <c r="BW18" s="97"/>
-      <c r="BX18" s="97"/>
-      <c r="BY18" s="97"/>
-      <c r="BZ18" s="97"/>
-      <c r="CA18" s="97"/>
-      <c r="CB18" s="97"/>
-      <c r="CC18" s="97"/>
-      <c r="CD18" s="97"/>
-      <c r="CE18" s="97"/>
-      <c r="CF18" s="97"/>
-      <c r="CG18" s="97"/>
-      <c r="CH18" s="97"/>
-      <c r="CI18" s="97"/>
-      <c r="CJ18" s="97"/>
-      <c r="CK18" s="97"/>
-      <c r="CL18" s="97"/>
-      <c r="CM18" s="97"/>
-      <c r="CN18" s="97"/>
-      <c r="CO18" s="97"/>
-      <c r="CP18" s="97"/>
-      <c r="CQ18" s="97"/>
-      <c r="CR18" s="97"/>
-      <c r="CS18" s="97"/>
-      <c r="CT18" s="97"/>
-      <c r="CU18" s="97"/>
-      <c r="CV18" s="105"/>
+    <row r="18" spans="1:160" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="83"/>
+      <c r="Z18" s="85"/>
+      <c r="AE18" s="86"/>
+      <c r="AJ18" s="86"/>
+      <c r="CV18" s="87"/>
       <c r="CW18"/>
       <c r="CX18"/>
       <c r="CY18"/>
@@ -3888,109 +3851,115 @@
       <c r="FC18"/>
       <c r="FD18"/>
     </row>
-    <row r="19" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="97"/>
-      <c r="AH19" s="97"/>
-      <c r="AI19" s="97"/>
-      <c r="AJ19" s="43"/>
-      <c r="AK19" s="97"/>
-      <c r="AL19" s="97"/>
-      <c r="AM19" s="97"/>
-      <c r="AN19" s="97"/>
-      <c r="AO19" s="97"/>
-      <c r="AP19" s="97"/>
-      <c r="AQ19" s="97"/>
-      <c r="AR19" s="97"/>
-      <c r="AS19" s="97"/>
-      <c r="AT19" s="97"/>
-      <c r="AU19" s="97"/>
-      <c r="AV19" s="97"/>
-      <c r="AW19" s="97"/>
-      <c r="AX19" s="97"/>
-      <c r="AY19" s="97"/>
-      <c r="AZ19" s="97"/>
-      <c r="BA19" s="97"/>
-      <c r="BB19" s="97"/>
-      <c r="BC19" s="97"/>
-      <c r="BD19" s="97"/>
-      <c r="BE19" s="97"/>
-      <c r="BF19" s="97"/>
-      <c r="BG19" s="97"/>
-      <c r="BH19" s="97"/>
-      <c r="BI19" s="97"/>
-      <c r="BJ19" s="97"/>
-      <c r="BK19" s="97"/>
-      <c r="BL19" s="97"/>
-      <c r="BM19" s="97"/>
-      <c r="BN19" s="97"/>
-      <c r="BO19" s="97"/>
-      <c r="BP19" s="97"/>
-      <c r="BQ19" s="97"/>
-      <c r="BR19" s="97"/>
-      <c r="BS19" s="97"/>
-      <c r="BT19" s="97"/>
-      <c r="BU19" s="97"/>
-      <c r="BV19" s="97"/>
-      <c r="BW19" s="97"/>
-      <c r="BX19" s="97"/>
-      <c r="BY19" s="97"/>
-      <c r="BZ19" s="97"/>
-      <c r="CA19" s="97"/>
-      <c r="CB19" s="97"/>
-      <c r="CC19" s="97"/>
-      <c r="CD19" s="97"/>
-      <c r="CE19" s="97"/>
-      <c r="CF19" s="97"/>
-      <c r="CG19" s="97"/>
-      <c r="CH19" s="97"/>
-      <c r="CI19" s="97"/>
-      <c r="CJ19" s="97"/>
-      <c r="CK19" s="97"/>
-      <c r="CL19" s="97"/>
-      <c r="CM19" s="97"/>
-      <c r="CN19" s="97"/>
-      <c r="CO19" s="97"/>
-      <c r="CP19" s="97"/>
-      <c r="CQ19" s="97"/>
-      <c r="CR19" s="97"/>
-      <c r="CS19" s="97"/>
-      <c r="CT19" s="97"/>
-      <c r="CU19" s="97"/>
-      <c r="CV19" s="105"/>
+    <row r="19" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="125"/>
+      <c r="AH19" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI19" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ19" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK19" s="132"/>
+      <c r="AL19" s="132"/>
+      <c r="AM19" s="132"/>
+      <c r="AN19" s="132"/>
+      <c r="AO19" s="132"/>
+      <c r="AP19" s="86"/>
+      <c r="AQ19" s="86"/>
+      <c r="AR19" s="86"/>
+      <c r="AS19" s="86"/>
+      <c r="AT19" s="86"/>
+      <c r="AU19" s="86"/>
+      <c r="AV19" s="86"/>
+      <c r="AW19" s="86"/>
+      <c r="AX19" s="86"/>
+      <c r="AY19" s="86"/>
+      <c r="AZ19" s="86"/>
+      <c r="BA19" s="86"/>
+      <c r="BB19" s="86"/>
+      <c r="BC19" s="86"/>
+      <c r="BD19" s="86"/>
+      <c r="BE19" s="86"/>
+      <c r="BF19" s="86"/>
+      <c r="BG19" s="86"/>
+      <c r="BH19" s="86"/>
+      <c r="BI19" s="86"/>
+      <c r="BJ19" s="86"/>
+      <c r="BK19" s="86"/>
+      <c r="BL19" s="86"/>
+      <c r="BM19" s="86"/>
+      <c r="BN19" s="86"/>
+      <c r="BO19" s="86"/>
+      <c r="BP19" s="86"/>
+      <c r="BQ19" s="86"/>
+      <c r="BR19" s="86"/>
+      <c r="BS19" s="86"/>
+      <c r="BT19" s="86"/>
+      <c r="BU19" s="86"/>
+      <c r="BV19" s="86"/>
+      <c r="BW19" s="86"/>
+      <c r="BX19" s="86"/>
+      <c r="BY19" s="86"/>
+      <c r="BZ19" s="86"/>
+      <c r="CA19" s="86"/>
+      <c r="CB19" s="86"/>
+      <c r="CC19" s="86"/>
+      <c r="CD19" s="86"/>
+      <c r="CE19" s="86"/>
+      <c r="CF19" s="86"/>
+      <c r="CG19" s="86"/>
+      <c r="CH19" s="86"/>
+      <c r="CI19" s="86"/>
+      <c r="CJ19" s="86"/>
+      <c r="CK19" s="86"/>
+      <c r="CL19" s="86"/>
+      <c r="CM19" s="86"/>
+      <c r="CN19" s="86"/>
+      <c r="CO19" s="86"/>
+      <c r="CP19" s="86"/>
+      <c r="CQ19" s="86"/>
+      <c r="CR19" s="86"/>
+      <c r="CS19" s="86"/>
+      <c r="CT19" s="86"/>
+      <c r="CU19" s="86"/>
+      <c r="CV19" s="94"/>
       <c r="CW19"/>
       <c r="CX19"/>
       <c r="CY19"/>
@@ -4052,111 +4021,109 @@
       <c r="FC19"/>
       <c r="FD19"/>
     </row>
-    <row r="20" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="97"/>
-      <c r="AJ20" s="43"/>
-      <c r="AK20" s="97"/>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="97"/>
-      <c r="AN20" s="97"/>
-      <c r="AO20" s="97"/>
-      <c r="AP20" s="97"/>
-      <c r="AQ20" s="97"/>
-      <c r="AR20" s="97"/>
-      <c r="AS20" s="97"/>
-      <c r="AT20" s="97"/>
-      <c r="AU20" s="97"/>
-      <c r="AV20" s="97"/>
-      <c r="AW20" s="97"/>
-      <c r="AX20" s="97"/>
-      <c r="AY20" s="97"/>
-      <c r="AZ20" s="97"/>
-      <c r="BA20" s="97"/>
-      <c r="BB20" s="97"/>
-      <c r="BC20" s="97"/>
-      <c r="BD20" s="97"/>
-      <c r="BE20" s="97"/>
-      <c r="BF20" s="97"/>
-      <c r="BG20" s="97"/>
-      <c r="BH20" s="97"/>
-      <c r="BI20" s="97"/>
-      <c r="BJ20" s="97"/>
-      <c r="BK20" s="97"/>
-      <c r="BL20" s="97"/>
-      <c r="BM20" s="97"/>
-      <c r="BN20" s="97"/>
-      <c r="BO20" s="97"/>
-      <c r="BP20" s="97"/>
-      <c r="BQ20" s="97"/>
-      <c r="BR20" s="97"/>
-      <c r="BS20" s="97"/>
-      <c r="BT20" s="97"/>
-      <c r="BU20" s="97"/>
-      <c r="BV20" s="97"/>
-      <c r="BW20" s="97"/>
-      <c r="BX20" s="97"/>
-      <c r="BY20" s="97"/>
-      <c r="BZ20" s="97"/>
-      <c r="CA20" s="97"/>
-      <c r="CB20" s="97"/>
-      <c r="CC20" s="97"/>
-      <c r="CD20" s="97"/>
-      <c r="CE20" s="97"/>
-      <c r="CF20" s="97"/>
-      <c r="CG20" s="97"/>
-      <c r="CH20" s="97"/>
-      <c r="CI20" s="97"/>
-      <c r="CJ20" s="97"/>
-      <c r="CK20" s="97"/>
-      <c r="CL20" s="97"/>
-      <c r="CM20" s="97"/>
-      <c r="CN20" s="97"/>
-      <c r="CO20" s="97"/>
-      <c r="CP20" s="97"/>
-      <c r="CQ20" s="97"/>
-      <c r="CR20" s="97"/>
-      <c r="CS20" s="97"/>
-      <c r="CT20" s="97"/>
-      <c r="CU20" s="97"/>
-      <c r="CV20" s="105"/>
+    <row r="20" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="89"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="86"/>
+      <c r="AP20" s="86"/>
+      <c r="AQ20" s="86"/>
+      <c r="AR20" s="86"/>
+      <c r="AS20" s="86"/>
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="86"/>
+      <c r="AV20" s="86"/>
+      <c r="AW20" s="86"/>
+      <c r="AX20" s="86"/>
+      <c r="AY20" s="86"/>
+      <c r="AZ20" s="86"/>
+      <c r="BA20" s="86"/>
+      <c r="BB20" s="86"/>
+      <c r="BC20" s="86"/>
+      <c r="BD20" s="86"/>
+      <c r="BE20" s="86"/>
+      <c r="BF20" s="86"/>
+      <c r="BG20" s="86"/>
+      <c r="BH20" s="86"/>
+      <c r="BI20" s="86"/>
+      <c r="BJ20" s="86"/>
+      <c r="BK20" s="86"/>
+      <c r="BL20" s="86"/>
+      <c r="BM20" s="86"/>
+      <c r="BN20" s="86"/>
+      <c r="BO20" s="86"/>
+      <c r="BP20" s="86"/>
+      <c r="BQ20" s="86"/>
+      <c r="BR20" s="86"/>
+      <c r="BS20" s="86"/>
+      <c r="BT20" s="86"/>
+      <c r="BU20" s="86"/>
+      <c r="BV20" s="86"/>
+      <c r="BW20" s="86"/>
+      <c r="BX20" s="86"/>
+      <c r="BY20" s="86"/>
+      <c r="BZ20" s="86"/>
+      <c r="CA20" s="86"/>
+      <c r="CB20" s="86"/>
+      <c r="CC20" s="86"/>
+      <c r="CD20" s="86"/>
+      <c r="CE20" s="86"/>
+      <c r="CF20" s="86"/>
+      <c r="CG20" s="86"/>
+      <c r="CH20" s="86"/>
+      <c r="CI20" s="86"/>
+      <c r="CJ20" s="86"/>
+      <c r="CK20" s="86"/>
+      <c r="CL20" s="86"/>
+      <c r="CM20" s="86"/>
+      <c r="CN20" s="86"/>
+      <c r="CO20" s="86"/>
+      <c r="CP20" s="86"/>
+      <c r="CQ20" s="86"/>
+      <c r="CR20" s="86"/>
+      <c r="CS20" s="86"/>
+      <c r="CT20" s="86"/>
+      <c r="CU20" s="86"/>
+      <c r="CV20" s="94"/>
       <c r="CW20"/>
       <c r="CX20"/>
       <c r="CY20"/>
@@ -4218,111 +4185,117 @@
       <c r="FC20"/>
       <c r="FD20"/>
     </row>
-    <row r="21" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="97"/>
-      <c r="AI21" s="97"/>
-      <c r="AJ21" s="43"/>
-      <c r="AK21" s="97"/>
-      <c r="AL21" s="97"/>
-      <c r="AM21" s="97"/>
-      <c r="AN21" s="97"/>
-      <c r="AO21" s="97"/>
-      <c r="AP21" s="97"/>
-      <c r="AQ21" s="97"/>
-      <c r="AR21" s="97"/>
-      <c r="AS21" s="97"/>
-      <c r="AT21" s="97"/>
-      <c r="AU21" s="97"/>
-      <c r="AV21" s="97"/>
-      <c r="AW21" s="97"/>
-      <c r="AX21" s="97"/>
-      <c r="AY21" s="97"/>
-      <c r="AZ21" s="97"/>
-      <c r="BA21" s="97"/>
-      <c r="BB21" s="97"/>
-      <c r="BC21" s="97"/>
-      <c r="BD21" s="97"/>
-      <c r="BE21" s="97"/>
-      <c r="BF21" s="97"/>
-      <c r="BG21" s="97"/>
-      <c r="BH21" s="97"/>
-      <c r="BI21" s="97"/>
-      <c r="BJ21" s="97"/>
-      <c r="BK21" s="97"/>
-      <c r="BL21" s="97"/>
-      <c r="BM21" s="97"/>
-      <c r="BN21" s="97"/>
-      <c r="BO21" s="97"/>
-      <c r="BP21" s="97"/>
-      <c r="BQ21" s="97"/>
-      <c r="BR21" s="97"/>
-      <c r="BS21" s="97"/>
-      <c r="BT21" s="97"/>
-      <c r="BU21" s="97"/>
-      <c r="BV21" s="97"/>
-      <c r="BW21" s="97"/>
-      <c r="BX21" s="97"/>
-      <c r="BY21" s="97"/>
-      <c r="BZ21" s="97"/>
-      <c r="CA21" s="97"/>
-      <c r="CB21" s="97"/>
-      <c r="CC21" s="97"/>
-      <c r="CD21" s="97"/>
-      <c r="CE21" s="97"/>
-      <c r="CF21" s="97"/>
-      <c r="CG21" s="97"/>
-      <c r="CH21" s="97"/>
-      <c r="CI21" s="97"/>
-      <c r="CJ21" s="97"/>
-      <c r="CK21" s="97"/>
-      <c r="CL21" s="97"/>
-      <c r="CM21" s="97"/>
-      <c r="CN21" s="97"/>
-      <c r="CO21" s="97"/>
-      <c r="CP21" s="97"/>
-      <c r="CQ21" s="97"/>
-      <c r="CR21" s="97"/>
-      <c r="CS21" s="97"/>
-      <c r="CT21" s="97"/>
-      <c r="CU21" s="97"/>
-      <c r="CV21" s="105"/>
+    <row r="21" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="89"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="142" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA21" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="124"/>
+      <c r="AF21" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG21" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="124"/>
+      <c r="AJ21" s="124"/>
+      <c r="AK21" s="132"/>
+      <c r="AL21" s="132"/>
+      <c r="AM21" s="132"/>
+      <c r="AN21" s="132"/>
+      <c r="AO21" s="132"/>
+      <c r="AP21" s="86"/>
+      <c r="AQ21" s="86"/>
+      <c r="AR21" s="86"/>
+      <c r="AS21" s="86"/>
+      <c r="AT21" s="86"/>
+      <c r="AU21" s="86"/>
+      <c r="AV21" s="86"/>
+      <c r="AW21" s="86"/>
+      <c r="AX21" s="86"/>
+      <c r="AY21" s="86"/>
+      <c r="AZ21" s="86"/>
+      <c r="BA21" s="86"/>
+      <c r="BB21" s="86"/>
+      <c r="BC21" s="86"/>
+      <c r="BD21" s="86"/>
+      <c r="BE21" s="86"/>
+      <c r="BF21" s="86"/>
+      <c r="BG21" s="86"/>
+      <c r="BH21" s="86"/>
+      <c r="BI21" s="86"/>
+      <c r="BJ21" s="86"/>
+      <c r="BK21" s="86"/>
+      <c r="BL21" s="86"/>
+      <c r="BM21" s="86"/>
+      <c r="BN21" s="86"/>
+      <c r="BO21" s="86"/>
+      <c r="BP21" s="86"/>
+      <c r="BQ21" s="86"/>
+      <c r="BR21" s="86"/>
+      <c r="BS21" s="86"/>
+      <c r="BT21" s="86"/>
+      <c r="BU21" s="86"/>
+      <c r="BV21" s="86"/>
+      <c r="BW21" s="86"/>
+      <c r="BX21" s="86"/>
+      <c r="BY21" s="86"/>
+      <c r="BZ21" s="86"/>
+      <c r="CA21" s="86"/>
+      <c r="CB21" s="86"/>
+      <c r="CC21" s="86"/>
+      <c r="CD21" s="86"/>
+      <c r="CE21" s="86"/>
+      <c r="CF21" s="86"/>
+      <c r="CG21" s="86"/>
+      <c r="CH21" s="86"/>
+      <c r="CI21" s="86"/>
+      <c r="CJ21" s="86"/>
+      <c r="CK21" s="86"/>
+      <c r="CL21" s="86"/>
+      <c r="CM21" s="86"/>
+      <c r="CN21" s="86"/>
+      <c r="CO21" s="86"/>
+      <c r="CP21" s="86"/>
+      <c r="CQ21" s="86"/>
+      <c r="CR21" s="86"/>
+      <c r="CS21" s="86"/>
+      <c r="CT21" s="86"/>
+      <c r="CU21" s="86"/>
+      <c r="CV21" s="94"/>
       <c r="CW21"/>
       <c r="CX21"/>
       <c r="CY21"/>
@@ -4384,111 +4357,111 @@
       <c r="FC21"/>
       <c r="FD21"/>
     </row>
-    <row r="22" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="97"/>
-      <c r="AH22" s="97"/>
-      <c r="AI22" s="97"/>
-      <c r="AJ22" s="43"/>
-      <c r="AK22" s="97"/>
-      <c r="AL22" s="97"/>
-      <c r="AM22" s="97"/>
-      <c r="AN22" s="97"/>
-      <c r="AO22" s="97"/>
-      <c r="AP22" s="97"/>
-      <c r="AQ22" s="97"/>
-      <c r="AR22" s="97"/>
-      <c r="AS22" s="97"/>
-      <c r="AT22" s="97"/>
-      <c r="AU22" s="97"/>
-      <c r="AV22" s="97"/>
-      <c r="AW22" s="97"/>
-      <c r="AX22" s="97"/>
-      <c r="AY22" s="97"/>
-      <c r="AZ22" s="97"/>
-      <c r="BA22" s="97"/>
-      <c r="BB22" s="97"/>
-      <c r="BC22" s="97"/>
-      <c r="BD22" s="97"/>
-      <c r="BE22" s="97"/>
-      <c r="BF22" s="97"/>
-      <c r="BG22" s="97"/>
-      <c r="BH22" s="97"/>
-      <c r="BI22" s="97"/>
-      <c r="BJ22" s="97"/>
-      <c r="BK22" s="97"/>
-      <c r="BL22" s="97"/>
-      <c r="BM22" s="97"/>
-      <c r="BN22" s="97"/>
-      <c r="BO22" s="97"/>
-      <c r="BP22" s="97"/>
-      <c r="BQ22" s="97"/>
-      <c r="BR22" s="97"/>
-      <c r="BS22" s="97"/>
-      <c r="BT22" s="97"/>
-      <c r="BU22" s="97"/>
-      <c r="BV22" s="97"/>
-      <c r="BW22" s="97"/>
-      <c r="BX22" s="97"/>
-      <c r="BY22" s="97"/>
-      <c r="BZ22" s="97"/>
-      <c r="CA22" s="97"/>
-      <c r="CB22" s="97"/>
-      <c r="CC22" s="97"/>
-      <c r="CD22" s="97"/>
-      <c r="CE22" s="97"/>
-      <c r="CF22" s="97"/>
-      <c r="CG22" s="97"/>
-      <c r="CH22" s="97"/>
-      <c r="CI22" s="97"/>
-      <c r="CJ22" s="97"/>
-      <c r="CK22" s="97"/>
-      <c r="CL22" s="97"/>
-      <c r="CM22" s="97"/>
-      <c r="CN22" s="97"/>
-      <c r="CO22" s="97"/>
-      <c r="CP22" s="97"/>
-      <c r="CQ22" s="97"/>
-      <c r="CR22" s="97"/>
-      <c r="CS22" s="97"/>
-      <c r="CT22" s="97"/>
-      <c r="CU22" s="97"/>
-      <c r="CV22" s="105"/>
+    <row r="22" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="124"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="124"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="124"/>
+      <c r="AJ22" s="124"/>
+      <c r="AK22" s="132"/>
+      <c r="AL22" s="132"/>
+      <c r="AM22" s="132"/>
+      <c r="AN22" s="132"/>
+      <c r="AO22" s="132"/>
+      <c r="AP22" s="86"/>
+      <c r="AQ22" s="86"/>
+      <c r="AR22" s="86"/>
+      <c r="AS22" s="86"/>
+      <c r="AT22" s="86"/>
+      <c r="AU22" s="86"/>
+      <c r="AV22" s="86"/>
+      <c r="AW22" s="86"/>
+      <c r="AX22" s="86"/>
+      <c r="AY22" s="86"/>
+      <c r="AZ22" s="86"/>
+      <c r="BA22" s="86"/>
+      <c r="BB22" s="86"/>
+      <c r="BC22" s="86"/>
+      <c r="BD22" s="86"/>
+      <c r="BE22" s="86"/>
+      <c r="BF22" s="86"/>
+      <c r="BG22" s="86"/>
+      <c r="BH22" s="86"/>
+      <c r="BI22" s="86"/>
+      <c r="BJ22" s="86"/>
+      <c r="BK22" s="86"/>
+      <c r="BL22" s="86"/>
+      <c r="BM22" s="86"/>
+      <c r="BN22" s="86"/>
+      <c r="BO22" s="86"/>
+      <c r="BP22" s="86"/>
+      <c r="BQ22" s="86"/>
+      <c r="BR22" s="86"/>
+      <c r="BS22" s="86"/>
+      <c r="BT22" s="86"/>
+      <c r="BU22" s="86"/>
+      <c r="BV22" s="86"/>
+      <c r="BW22" s="86"/>
+      <c r="BX22" s="86"/>
+      <c r="BY22" s="86"/>
+      <c r="BZ22" s="86"/>
+      <c r="CA22" s="86"/>
+      <c r="CB22" s="86"/>
+      <c r="CC22" s="86"/>
+      <c r="CD22" s="86"/>
+      <c r="CE22" s="86"/>
+      <c r="CF22" s="86"/>
+      <c r="CG22" s="86"/>
+      <c r="CH22" s="86"/>
+      <c r="CI22" s="86"/>
+      <c r="CJ22" s="86"/>
+      <c r="CK22" s="86"/>
+      <c r="CL22" s="86"/>
+      <c r="CM22" s="86"/>
+      <c r="CN22" s="86"/>
+      <c r="CO22" s="86"/>
+      <c r="CP22" s="86"/>
+      <c r="CQ22" s="86"/>
+      <c r="CR22" s="86"/>
+      <c r="CS22" s="86"/>
+      <c r="CT22" s="86"/>
+      <c r="CU22" s="86"/>
+      <c r="CV22" s="94"/>
       <c r="CW22"/>
       <c r="CX22"/>
       <c r="CY22"/>
@@ -4550,115 +4523,113 @@
       <c r="FC22"/>
       <c r="FD22"/>
     </row>
-    <row r="23" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="S23" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="T23" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="97"/>
-      <c r="AH23" s="97"/>
-      <c r="AI23" s="97"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="97"/>
-      <c r="AL23" s="97"/>
-      <c r="AM23" s="97"/>
-      <c r="AN23" s="97"/>
-      <c r="AO23" s="97"/>
-      <c r="AP23" s="97"/>
-      <c r="AQ23" s="97"/>
-      <c r="AR23" s="97"/>
-      <c r="AS23" s="97"/>
-      <c r="AT23" s="97"/>
-      <c r="AU23" s="97"/>
-      <c r="AV23" s="97"/>
-      <c r="AW23" s="97"/>
-      <c r="AX23" s="97"/>
-      <c r="AY23" s="97"/>
-      <c r="AZ23" s="97"/>
-      <c r="BA23" s="97"/>
-      <c r="BB23" s="97"/>
-      <c r="BC23" s="97"/>
-      <c r="BD23" s="97"/>
-      <c r="BE23" s="97"/>
-      <c r="BF23" s="97"/>
-      <c r="BG23" s="97"/>
-      <c r="BH23" s="97"/>
-      <c r="BI23" s="97"/>
-      <c r="BJ23" s="97"/>
-      <c r="BK23" s="97"/>
-      <c r="BL23" s="97"/>
-      <c r="BM23" s="97"/>
-      <c r="BN23" s="97"/>
-      <c r="BO23" s="97"/>
-      <c r="BP23" s="97"/>
-      <c r="BQ23" s="97"/>
-      <c r="BR23" s="97"/>
-      <c r="BS23" s="97"/>
-      <c r="BT23" s="97"/>
-      <c r="BU23" s="97"/>
-      <c r="BV23" s="97"/>
-      <c r="BW23" s="97"/>
-      <c r="BX23" s="97"/>
-      <c r="BY23" s="97"/>
-      <c r="BZ23" s="97"/>
-      <c r="CA23" s="97"/>
-      <c r="CB23" s="97"/>
-      <c r="CC23" s="97"/>
-      <c r="CD23" s="97"/>
-      <c r="CE23" s="97"/>
-      <c r="CF23" s="97"/>
-      <c r="CG23" s="97"/>
-      <c r="CH23" s="97"/>
-      <c r="CI23" s="97"/>
-      <c r="CJ23" s="97"/>
-      <c r="CK23" s="97"/>
-      <c r="CL23" s="97"/>
-      <c r="CM23" s="97"/>
-      <c r="CN23" s="97"/>
-      <c r="CO23" s="97"/>
-      <c r="CP23" s="97"/>
-      <c r="CQ23" s="97"/>
-      <c r="CR23" s="97"/>
-      <c r="CS23" s="97"/>
-      <c r="CT23" s="97"/>
-      <c r="CU23" s="97"/>
-      <c r="CV23" s="105"/>
+    <row r="23" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="89"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="132" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="124"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="124"/>
+      <c r="AJ23" s="124"/>
+      <c r="AK23" s="132"/>
+      <c r="AL23" s="132"/>
+      <c r="AM23" s="132"/>
+      <c r="AN23" s="132"/>
+      <c r="AO23" s="132"/>
+      <c r="AP23" s="86"/>
+      <c r="AQ23" s="86"/>
+      <c r="AR23" s="86"/>
+      <c r="AS23" s="86"/>
+      <c r="AT23" s="86"/>
+      <c r="AU23" s="86"/>
+      <c r="AV23" s="86"/>
+      <c r="AW23" s="86"/>
+      <c r="AX23" s="86"/>
+      <c r="AY23" s="86"/>
+      <c r="AZ23" s="86"/>
+      <c r="BA23" s="86"/>
+      <c r="BB23" s="86"/>
+      <c r="BC23" s="86"/>
+      <c r="BD23" s="86"/>
+      <c r="BE23" s="86"/>
+      <c r="BF23" s="86"/>
+      <c r="BG23" s="86"/>
+      <c r="BH23" s="86"/>
+      <c r="BI23" s="86"/>
+      <c r="BJ23" s="86"/>
+      <c r="BK23" s="86"/>
+      <c r="BL23" s="86"/>
+      <c r="BM23" s="86"/>
+      <c r="BN23" s="86"/>
+      <c r="BO23" s="86"/>
+      <c r="BP23" s="86"/>
+      <c r="BQ23" s="86"/>
+      <c r="BR23" s="86"/>
+      <c r="BS23" s="86"/>
+      <c r="BT23" s="86"/>
+      <c r="BU23" s="86"/>
+      <c r="BV23" s="86"/>
+      <c r="BW23" s="86"/>
+      <c r="BX23" s="86"/>
+      <c r="BY23" s="86"/>
+      <c r="BZ23" s="86"/>
+      <c r="CA23" s="86"/>
+      <c r="CB23" s="86"/>
+      <c r="CC23" s="86"/>
+      <c r="CD23" s="86"/>
+      <c r="CE23" s="86"/>
+      <c r="CF23" s="86"/>
+      <c r="CG23" s="86"/>
+      <c r="CH23" s="86"/>
+      <c r="CI23" s="86"/>
+      <c r="CJ23" s="86"/>
+      <c r="CK23" s="86"/>
+      <c r="CL23" s="86"/>
+      <c r="CM23" s="86"/>
+      <c r="CN23" s="86"/>
+      <c r="CO23" s="86"/>
+      <c r="CP23" s="86"/>
+      <c r="CQ23" s="86"/>
+      <c r="CR23" s="86"/>
+      <c r="CS23" s="86"/>
+      <c r="CT23" s="86"/>
+      <c r="CU23" s="86"/>
+      <c r="CV23" s="94"/>
       <c r="CW23"/>
       <c r="CX23"/>
       <c r="CY23"/>
@@ -4720,115 +4691,109 @@
       <c r="FC23"/>
       <c r="FD23"/>
     </row>
-    <row r="24" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB24" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="97"/>
-      <c r="AL24" s="97"/>
-      <c r="AM24" s="97"/>
-      <c r="AN24" s="97"/>
-      <c r="AO24" s="97"/>
-      <c r="AP24" s="97"/>
-      <c r="AQ24" s="97"/>
-      <c r="AR24" s="97"/>
-      <c r="AS24" s="97"/>
-      <c r="AT24" s="97"/>
-      <c r="AU24" s="97"/>
-      <c r="AV24" s="97"/>
-      <c r="AW24" s="97"/>
-      <c r="AX24" s="97"/>
-      <c r="AY24" s="97"/>
-      <c r="AZ24" s="97"/>
-      <c r="BA24" s="97"/>
-      <c r="BB24" s="97"/>
-      <c r="BC24" s="97"/>
-      <c r="BD24" s="97"/>
-      <c r="BE24" s="97"/>
-      <c r="BF24" s="97"/>
-      <c r="BG24" s="97"/>
-      <c r="BH24" s="97"/>
-      <c r="BI24" s="97"/>
-      <c r="BJ24" s="97"/>
-      <c r="BK24" s="97"/>
-      <c r="BL24" s="97"/>
-      <c r="BM24" s="97"/>
-      <c r="BN24" s="97"/>
-      <c r="BO24" s="97"/>
-      <c r="BP24" s="97"/>
-      <c r="BQ24" s="97"/>
-      <c r="BR24" s="97"/>
-      <c r="BS24" s="97"/>
-      <c r="BT24" s="97"/>
-      <c r="BU24" s="97"/>
-      <c r="BV24" s="97"/>
-      <c r="BW24" s="97"/>
-      <c r="BX24" s="97"/>
-      <c r="BY24" s="97"/>
-      <c r="BZ24" s="97"/>
-      <c r="CA24" s="97"/>
-      <c r="CB24" s="97"/>
-      <c r="CC24" s="97"/>
-      <c r="CD24" s="97"/>
-      <c r="CE24" s="97"/>
-      <c r="CF24" s="97"/>
-      <c r="CG24" s="97"/>
-      <c r="CH24" s="97"/>
-      <c r="CI24" s="97"/>
-      <c r="CJ24" s="97"/>
-      <c r="CK24" s="97"/>
-      <c r="CL24" s="97"/>
-      <c r="CM24" s="97"/>
-      <c r="CN24" s="97"/>
-      <c r="CO24" s="97"/>
-      <c r="CP24" s="97"/>
-      <c r="CQ24" s="97"/>
-      <c r="CR24" s="97"/>
-      <c r="CS24" s="97"/>
-      <c r="CT24" s="97"/>
-      <c r="CU24" s="97"/>
-      <c r="CV24" s="105"/>
+    <row r="24" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="89"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="138"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="124"/>
+      <c r="AE24" s="124"/>
+      <c r="AF24" s="124"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="124"/>
+      <c r="AJ24" s="124"/>
+      <c r="AK24" s="132"/>
+      <c r="AL24" s="132"/>
+      <c r="AM24" s="132"/>
+      <c r="AN24" s="132"/>
+      <c r="AO24" s="132"/>
+      <c r="AP24" s="86"/>
+      <c r="AQ24" s="86"/>
+      <c r="AR24" s="86"/>
+      <c r="AS24" s="86"/>
+      <c r="AT24" s="86"/>
+      <c r="AU24" s="86"/>
+      <c r="AV24" s="86"/>
+      <c r="AW24" s="86"/>
+      <c r="AX24" s="86"/>
+      <c r="AY24" s="86"/>
+      <c r="AZ24" s="86"/>
+      <c r="BA24" s="86"/>
+      <c r="BB24" s="86"/>
+      <c r="BC24" s="86"/>
+      <c r="BD24" s="86"/>
+      <c r="BE24" s="86"/>
+      <c r="BF24" s="86"/>
+      <c r="BG24" s="86"/>
+      <c r="BH24" s="86"/>
+      <c r="BI24" s="86"/>
+      <c r="BJ24" s="86"/>
+      <c r="BK24" s="86"/>
+      <c r="BL24" s="86"/>
+      <c r="BM24" s="86"/>
+      <c r="BN24" s="86"/>
+      <c r="BO24" s="86"/>
+      <c r="BP24" s="86"/>
+      <c r="BQ24" s="86"/>
+      <c r="BR24" s="86"/>
+      <c r="BS24" s="86"/>
+      <c r="BT24" s="86"/>
+      <c r="BU24" s="86"/>
+      <c r="BV24" s="86"/>
+      <c r="BW24" s="86"/>
+      <c r="BX24" s="86"/>
+      <c r="BY24" s="86"/>
+      <c r="BZ24" s="86"/>
+      <c r="CA24" s="86"/>
+      <c r="CB24" s="86"/>
+      <c r="CC24" s="86"/>
+      <c r="CD24" s="86"/>
+      <c r="CE24" s="86"/>
+      <c r="CF24" s="86"/>
+      <c r="CG24" s="86"/>
+      <c r="CH24" s="86"/>
+      <c r="CI24" s="86"/>
+      <c r="CJ24" s="86"/>
+      <c r="CK24" s="86"/>
+      <c r="CL24" s="86"/>
+      <c r="CM24" s="86"/>
+      <c r="CN24" s="86"/>
+      <c r="CO24" s="86"/>
+      <c r="CP24" s="86"/>
+      <c r="CQ24" s="86"/>
+      <c r="CR24" s="86"/>
+      <c r="CS24" s="86"/>
+      <c r="CT24" s="86"/>
+      <c r="CU24" s="86"/>
+      <c r="CV24" s="94"/>
       <c r="CW24"/>
       <c r="CX24"/>
       <c r="CY24"/>
@@ -4890,111 +4855,109 @@
       <c r="FC24"/>
       <c r="FD24"/>
     </row>
-    <row r="25" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="97"/>
-      <c r="AG25" s="97"/>
-      <c r="AH25" s="97"/>
-      <c r="AI25" s="97"/>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="97"/>
-      <c r="AL25" s="97"/>
-      <c r="AM25" s="97"/>
-      <c r="AN25" s="97"/>
-      <c r="AO25" s="97"/>
-      <c r="AP25" s="97"/>
-      <c r="AQ25" s="97"/>
-      <c r="AR25" s="97"/>
-      <c r="AS25" s="97"/>
-      <c r="AT25" s="97"/>
-      <c r="AU25" s="97"/>
-      <c r="AV25" s="97"/>
-      <c r="AW25" s="97"/>
-      <c r="AX25" s="97"/>
-      <c r="AY25" s="97"/>
-      <c r="AZ25" s="97"/>
-      <c r="BA25" s="97"/>
-      <c r="BB25" s="97"/>
-      <c r="BC25" s="97"/>
-      <c r="BD25" s="97"/>
-      <c r="BE25" s="97"/>
-      <c r="BF25" s="97"/>
-      <c r="BG25" s="97"/>
-      <c r="BH25" s="97"/>
-      <c r="BI25" s="97"/>
-      <c r="BJ25" s="97"/>
-      <c r="BK25" s="97"/>
-      <c r="BL25" s="97"/>
-      <c r="BM25" s="97"/>
-      <c r="BN25" s="97"/>
-      <c r="BO25" s="97"/>
-      <c r="BP25" s="97"/>
-      <c r="BQ25" s="97"/>
-      <c r="BR25" s="97"/>
-      <c r="BS25" s="97"/>
-      <c r="BT25" s="97"/>
-      <c r="BU25" s="97"/>
-      <c r="BV25" s="97"/>
-      <c r="BW25" s="97"/>
-      <c r="BX25" s="97"/>
-      <c r="BY25" s="97"/>
-      <c r="BZ25" s="97"/>
-      <c r="CA25" s="97"/>
-      <c r="CB25" s="97"/>
-      <c r="CC25" s="97"/>
-      <c r="CD25" s="97"/>
-      <c r="CE25" s="97"/>
-      <c r="CF25" s="97"/>
-      <c r="CG25" s="97"/>
-      <c r="CH25" s="97"/>
-      <c r="CI25" s="97"/>
-      <c r="CJ25" s="97"/>
-      <c r="CK25" s="97"/>
-      <c r="CL25" s="97"/>
-      <c r="CM25" s="97"/>
-      <c r="CN25" s="97"/>
-      <c r="CO25" s="97"/>
-      <c r="CP25" s="97"/>
-      <c r="CQ25" s="97"/>
-      <c r="CR25" s="97"/>
-      <c r="CS25" s="97"/>
-      <c r="CT25" s="97"/>
-      <c r="CU25" s="97"/>
-      <c r="CV25" s="105"/>
+    <row r="25" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="89"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="140"/>
+      <c r="AB25" s="140"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="141"/>
+      <c r="AE25" s="124"/>
+      <c r="AF25" s="132"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="132"/>
+      <c r="AL25" s="132"/>
+      <c r="AM25" s="132"/>
+      <c r="AN25" s="132"/>
+      <c r="AO25" s="132"/>
+      <c r="AP25" s="86"/>
+      <c r="AQ25" s="86"/>
+      <c r="AR25" s="86"/>
+      <c r="AS25" s="86"/>
+      <c r="AT25" s="86"/>
+      <c r="AU25" s="86"/>
+      <c r="AV25" s="86"/>
+      <c r="AW25" s="86"/>
+      <c r="AX25" s="86"/>
+      <c r="AY25" s="86"/>
+      <c r="AZ25" s="86"/>
+      <c r="BA25" s="86"/>
+      <c r="BB25" s="86"/>
+      <c r="BC25" s="86"/>
+      <c r="BD25" s="86"/>
+      <c r="BE25" s="86"/>
+      <c r="BF25" s="86"/>
+      <c r="BG25" s="86"/>
+      <c r="BH25" s="86"/>
+      <c r="BI25" s="86"/>
+      <c r="BJ25" s="86"/>
+      <c r="BK25" s="86"/>
+      <c r="BL25" s="86"/>
+      <c r="BM25" s="86"/>
+      <c r="BN25" s="86"/>
+      <c r="BO25" s="86"/>
+      <c r="BP25" s="86"/>
+      <c r="BQ25" s="86"/>
+      <c r="BR25" s="86"/>
+      <c r="BS25" s="86"/>
+      <c r="BT25" s="86"/>
+      <c r="BU25" s="86"/>
+      <c r="BV25" s="86"/>
+      <c r="BW25" s="86"/>
+      <c r="BX25" s="86"/>
+      <c r="BY25" s="86"/>
+      <c r="BZ25" s="86"/>
+      <c r="CA25" s="86"/>
+      <c r="CB25" s="86"/>
+      <c r="CC25" s="86"/>
+      <c r="CD25" s="86"/>
+      <c r="CE25" s="86"/>
+      <c r="CF25" s="86"/>
+      <c r="CG25" s="86"/>
+      <c r="CH25" s="86"/>
+      <c r="CI25" s="86"/>
+      <c r="CJ25" s="86"/>
+      <c r="CK25" s="86"/>
+      <c r="CL25" s="86"/>
+      <c r="CM25" s="86"/>
+      <c r="CN25" s="86"/>
+      <c r="CO25" s="86"/>
+      <c r="CP25" s="86"/>
+      <c r="CQ25" s="86"/>
+      <c r="CR25" s="86"/>
+      <c r="CS25" s="86"/>
+      <c r="CT25" s="86"/>
+      <c r="CU25" s="86"/>
+      <c r="CV25" s="94"/>
       <c r="CW25"/>
       <c r="CX25"/>
       <c r="CY25"/>
@@ -5056,109 +5019,109 @@
       <c r="FC25"/>
       <c r="FD25"/>
     </row>
-    <row r="26" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="99" t="s">
+    <row r="26" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="97"/>
-      <c r="AH26" s="97"/>
-      <c r="AI26" s="97"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="97"/>
-      <c r="AL26" s="97"/>
-      <c r="AM26" s="97"/>
-      <c r="AN26" s="97"/>
-      <c r="AO26" s="97"/>
-      <c r="AP26" s="97"/>
-      <c r="AQ26" s="97"/>
-      <c r="AR26" s="97"/>
-      <c r="AS26" s="97"/>
-      <c r="AT26" s="97"/>
-      <c r="AU26" s="97"/>
-      <c r="AV26" s="97"/>
-      <c r="AW26" s="97"/>
-      <c r="AX26" s="97"/>
-      <c r="AY26" s="97"/>
-      <c r="AZ26" s="97"/>
-      <c r="BA26" s="97"/>
-      <c r="BB26" s="97"/>
-      <c r="BC26" s="97"/>
-      <c r="BD26" s="97"/>
-      <c r="BE26" s="97"/>
-      <c r="BF26" s="97"/>
-      <c r="BG26" s="97"/>
-      <c r="BH26" s="97"/>
-      <c r="BI26" s="97"/>
-      <c r="BJ26" s="97"/>
-      <c r="BK26" s="97"/>
-      <c r="BL26" s="97"/>
-      <c r="BM26" s="97"/>
-      <c r="BN26" s="97"/>
-      <c r="BO26" s="97"/>
-      <c r="BP26" s="97"/>
-      <c r="BQ26" s="97"/>
-      <c r="BR26" s="97"/>
-      <c r="BS26" s="97"/>
-      <c r="BT26" s="97"/>
-      <c r="BU26" s="97"/>
-      <c r="BV26" s="97"/>
-      <c r="BW26" s="97"/>
-      <c r="BX26" s="97"/>
-      <c r="BY26" s="97"/>
-      <c r="BZ26" s="97"/>
-      <c r="CA26" s="97"/>
-      <c r="CB26" s="97"/>
-      <c r="CC26" s="97"/>
-      <c r="CD26" s="97"/>
-      <c r="CE26" s="97"/>
-      <c r="CF26" s="97"/>
-      <c r="CG26" s="97"/>
-      <c r="CH26" s="97"/>
-      <c r="CI26" s="97"/>
-      <c r="CJ26" s="97"/>
-      <c r="CK26" s="97"/>
-      <c r="CL26" s="97"/>
-      <c r="CM26" s="97"/>
-      <c r="CN26" s="97"/>
-      <c r="CO26" s="97"/>
-      <c r="CP26" s="97"/>
-      <c r="CQ26" s="97"/>
-      <c r="CR26" s="97"/>
-      <c r="CS26" s="97"/>
-      <c r="CT26" s="97"/>
-      <c r="CU26" s="97"/>
-      <c r="CV26" s="105"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="124"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="140"/>
+      <c r="AB26" s="140"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="141"/>
+      <c r="AE26" s="124"/>
+      <c r="AF26" s="132"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="124"/>
+      <c r="AJ26" s="124"/>
+      <c r="AK26" s="132"/>
+      <c r="AL26" s="132"/>
+      <c r="AM26" s="132"/>
+      <c r="AN26" s="132"/>
+      <c r="AO26" s="132"/>
+      <c r="AP26" s="86"/>
+      <c r="AQ26" s="86"/>
+      <c r="AR26" s="86"/>
+      <c r="AS26" s="86"/>
+      <c r="AT26" s="86"/>
+      <c r="AU26" s="86"/>
+      <c r="AV26" s="86"/>
+      <c r="AW26" s="86"/>
+      <c r="AX26" s="86"/>
+      <c r="AY26" s="86"/>
+      <c r="AZ26" s="86"/>
+      <c r="BA26" s="86"/>
+      <c r="BB26" s="86"/>
+      <c r="BC26" s="86"/>
+      <c r="BD26" s="86"/>
+      <c r="BE26" s="86"/>
+      <c r="BF26" s="86"/>
+      <c r="BG26" s="86"/>
+      <c r="BH26" s="86"/>
+      <c r="BI26" s="86"/>
+      <c r="BJ26" s="86"/>
+      <c r="BK26" s="86"/>
+      <c r="BL26" s="86"/>
+      <c r="BM26" s="86"/>
+      <c r="BN26" s="86"/>
+      <c r="BO26" s="86"/>
+      <c r="BP26" s="86"/>
+      <c r="BQ26" s="86"/>
+      <c r="BR26" s="86"/>
+      <c r="BS26" s="86"/>
+      <c r="BT26" s="86"/>
+      <c r="BU26" s="86"/>
+      <c r="BV26" s="86"/>
+      <c r="BW26" s="86"/>
+      <c r="BX26" s="86"/>
+      <c r="BY26" s="86"/>
+      <c r="BZ26" s="86"/>
+      <c r="CA26" s="86"/>
+      <c r="CB26" s="86"/>
+      <c r="CC26" s="86"/>
+      <c r="CD26" s="86"/>
+      <c r="CE26" s="86"/>
+      <c r="CF26" s="86"/>
+      <c r="CG26" s="86"/>
+      <c r="CH26" s="86"/>
+      <c r="CI26" s="86"/>
+      <c r="CJ26" s="86"/>
+      <c r="CK26" s="86"/>
+      <c r="CL26" s="86"/>
+      <c r="CM26" s="86"/>
+      <c r="CN26" s="86"/>
+      <c r="CO26" s="86"/>
+      <c r="CP26" s="86"/>
+      <c r="CQ26" s="86"/>
+      <c r="CR26" s="86"/>
+      <c r="CS26" s="86"/>
+      <c r="CT26" s="86"/>
+      <c r="CU26" s="86"/>
+      <c r="CV26" s="94"/>
       <c r="CW26"/>
       <c r="CX26"/>
       <c r="CY26"/>
@@ -5220,109 +5183,109 @@
       <c r="FC26"/>
       <c r="FD26"/>
     </row>
-    <row r="27" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="97"/>
-      <c r="AG27" s="97"/>
-      <c r="AH27" s="97"/>
-      <c r="AI27" s="97"/>
-      <c r="AJ27" s="43"/>
-      <c r="AK27" s="97"/>
-      <c r="AL27" s="97"/>
-      <c r="AM27" s="97"/>
-      <c r="AN27" s="97"/>
-      <c r="AO27" s="97"/>
-      <c r="AP27" s="97"/>
-      <c r="AQ27" s="97"/>
-      <c r="AR27" s="97"/>
-      <c r="AS27" s="97"/>
-      <c r="AT27" s="97"/>
-      <c r="AU27" s="97"/>
-      <c r="AV27" s="97"/>
-      <c r="AW27" s="97"/>
-      <c r="AX27" s="97"/>
-      <c r="AY27" s="97"/>
-      <c r="AZ27" s="97"/>
-      <c r="BA27" s="97"/>
-      <c r="BB27" s="97"/>
-      <c r="BC27" s="97"/>
-      <c r="BD27" s="97"/>
-      <c r="BE27" s="97"/>
-      <c r="BF27" s="97"/>
-      <c r="BG27" s="97"/>
-      <c r="BH27" s="97"/>
-      <c r="BI27" s="97"/>
-      <c r="BJ27" s="97"/>
-      <c r="BK27" s="97"/>
-      <c r="BL27" s="97"/>
-      <c r="BM27" s="97"/>
-      <c r="BN27" s="97"/>
-      <c r="BO27" s="97"/>
-      <c r="BP27" s="97"/>
-      <c r="BQ27" s="97"/>
-      <c r="BR27" s="97"/>
-      <c r="BS27" s="97"/>
-      <c r="BT27" s="97"/>
-      <c r="BU27" s="97"/>
-      <c r="BV27" s="97"/>
-      <c r="BW27" s="97"/>
-      <c r="BX27" s="97"/>
-      <c r="BY27" s="97"/>
-      <c r="BZ27" s="97"/>
-      <c r="CA27" s="97"/>
-      <c r="CB27" s="97"/>
-      <c r="CC27" s="97"/>
-      <c r="CD27" s="97"/>
-      <c r="CE27" s="97"/>
-      <c r="CF27" s="97"/>
-      <c r="CG27" s="97"/>
-      <c r="CH27" s="97"/>
-      <c r="CI27" s="97"/>
-      <c r="CJ27" s="97"/>
-      <c r="CK27" s="97"/>
-      <c r="CL27" s="97"/>
-      <c r="CM27" s="97"/>
-      <c r="CN27" s="97"/>
-      <c r="CO27" s="97"/>
-      <c r="CP27" s="97"/>
-      <c r="CQ27" s="97"/>
-      <c r="CR27" s="97"/>
-      <c r="CS27" s="97"/>
-      <c r="CT27" s="97"/>
-      <c r="CU27" s="97"/>
-      <c r="CV27" s="105"/>
+    <row r="27" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="89"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="124"/>
+      <c r="T27" s="124"/>
+      <c r="U27" s="124"/>
+      <c r="V27" s="124"/>
+      <c r="W27" s="124"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="124"/>
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="124"/>
+      <c r="AE27" s="124"/>
+      <c r="AF27" s="124"/>
+      <c r="AG27" s="124"/>
+      <c r="AH27" s="124"/>
+      <c r="AI27" s="124"/>
+      <c r="AJ27" s="124"/>
+      <c r="AK27" s="132"/>
+      <c r="AL27" s="132"/>
+      <c r="AM27" s="132"/>
+      <c r="AN27" s="132"/>
+      <c r="AO27" s="132"/>
+      <c r="AP27" s="86"/>
+      <c r="AQ27" s="86"/>
+      <c r="AR27" s="86"/>
+      <c r="AS27" s="86"/>
+      <c r="AT27" s="86"/>
+      <c r="AU27" s="86"/>
+      <c r="AV27" s="86"/>
+      <c r="AW27" s="86"/>
+      <c r="AX27" s="86"/>
+      <c r="AY27" s="86"/>
+      <c r="AZ27" s="86"/>
+      <c r="BA27" s="86"/>
+      <c r="BB27" s="86"/>
+      <c r="BC27" s="86"/>
+      <c r="BD27" s="86"/>
+      <c r="BE27" s="86"/>
+      <c r="BF27" s="86"/>
+      <c r="BG27" s="86"/>
+      <c r="BH27" s="86"/>
+      <c r="BI27" s="86"/>
+      <c r="BJ27" s="86"/>
+      <c r="BK27" s="86"/>
+      <c r="BL27" s="86"/>
+      <c r="BM27" s="86"/>
+      <c r="BN27" s="86"/>
+      <c r="BO27" s="86"/>
+      <c r="BP27" s="86"/>
+      <c r="BQ27" s="86"/>
+      <c r="BR27" s="86"/>
+      <c r="BS27" s="86"/>
+      <c r="BT27" s="86"/>
+      <c r="BU27" s="86"/>
+      <c r="BV27" s="86"/>
+      <c r="BW27" s="86"/>
+      <c r="BX27" s="86"/>
+      <c r="BY27" s="86"/>
+      <c r="BZ27" s="86"/>
+      <c r="CA27" s="86"/>
+      <c r="CB27" s="86"/>
+      <c r="CC27" s="86"/>
+      <c r="CD27" s="86"/>
+      <c r="CE27" s="86"/>
+      <c r="CF27" s="86"/>
+      <c r="CG27" s="86"/>
+      <c r="CH27" s="86"/>
+      <c r="CI27" s="86"/>
+      <c r="CJ27" s="86"/>
+      <c r="CK27" s="86"/>
+      <c r="CL27" s="86"/>
+      <c r="CM27" s="86"/>
+      <c r="CN27" s="86"/>
+      <c r="CO27" s="86"/>
+      <c r="CP27" s="86"/>
+      <c r="CQ27" s="86"/>
+      <c r="CR27" s="86"/>
+      <c r="CS27" s="86"/>
+      <c r="CT27" s="86"/>
+      <c r="CU27" s="86"/>
+      <c r="CV27" s="94"/>
       <c r="CW27"/>
       <c r="CX27"/>
       <c r="CY27"/>
@@ -5384,111 +5347,109 @@
       <c r="FC27"/>
       <c r="FD27"/>
     </row>
-    <row r="28" spans="1:160" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="103"/>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="103"/>
-      <c r="AD28" s="103"/>
-      <c r="AE28" s="103"/>
-      <c r="AF28" s="103"/>
-      <c r="AG28" s="103"/>
-      <c r="AH28" s="103"/>
-      <c r="AI28" s="103"/>
-      <c r="AJ28" s="103"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="48"/>
-      <c r="AS28" s="103"/>
-      <c r="AT28" s="103"/>
-      <c r="AU28" s="103"/>
-      <c r="AV28" s="103"/>
-      <c r="AW28" s="103"/>
-      <c r="AX28" s="103"/>
-      <c r="AY28" s="103"/>
-      <c r="AZ28" s="103"/>
-      <c r="BA28" s="103"/>
-      <c r="BB28" s="103"/>
-      <c r="BC28" s="103"/>
-      <c r="BD28" s="103"/>
-      <c r="BE28" s="103"/>
-      <c r="BF28" s="103"/>
-      <c r="BG28" s="103"/>
-      <c r="BH28" s="103"/>
-      <c r="BI28" s="103"/>
-      <c r="BJ28" s="103"/>
-      <c r="BK28" s="103"/>
-      <c r="BL28" s="103"/>
-      <c r="BM28" s="103"/>
-      <c r="BN28" s="103"/>
-      <c r="BO28" s="103"/>
-      <c r="BP28" s="103"/>
-      <c r="BQ28" s="103"/>
-      <c r="BR28" s="103"/>
-      <c r="BS28" s="103"/>
-      <c r="BT28" s="103"/>
-      <c r="BU28" s="103"/>
-      <c r="BV28" s="103"/>
-      <c r="BW28" s="103"/>
-      <c r="BX28" s="103"/>
-      <c r="BY28" s="103"/>
-      <c r="BZ28" s="103"/>
-      <c r="CA28" s="103"/>
-      <c r="CB28" s="103"/>
-      <c r="CC28" s="103"/>
-      <c r="CD28" s="103"/>
-      <c r="CE28" s="103"/>
-      <c r="CF28" s="103"/>
-      <c r="CG28" s="103"/>
-      <c r="CH28" s="103"/>
-      <c r="CI28" s="103"/>
-      <c r="CJ28" s="103"/>
-      <c r="CK28" s="103"/>
-      <c r="CL28" s="103"/>
-      <c r="CM28" s="103"/>
-      <c r="CN28" s="103"/>
-      <c r="CO28" s="103"/>
-      <c r="CP28" s="103"/>
-      <c r="CQ28" s="103"/>
-      <c r="CR28" s="103"/>
-      <c r="CS28" s="103"/>
-      <c r="CT28" s="103"/>
-      <c r="CU28" s="103"/>
-      <c r="CV28" s="104"/>
+    <row r="28" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="89"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="86"/>
+      <c r="AE28" s="86"/>
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="124"/>
+      <c r="AI28" s="124"/>
+      <c r="AJ28" s="124"/>
+      <c r="AK28" s="132"/>
+      <c r="AL28" s="132"/>
+      <c r="AM28" s="132"/>
+      <c r="AN28" s="132"/>
+      <c r="AO28" s="132"/>
+      <c r="AP28" s="86"/>
+      <c r="AQ28" s="86"/>
+      <c r="AR28" s="86"/>
+      <c r="AS28" s="86"/>
+      <c r="AT28" s="86"/>
+      <c r="AU28" s="86"/>
+      <c r="AV28" s="86"/>
+      <c r="AW28" s="86"/>
+      <c r="AX28" s="86"/>
+      <c r="AY28" s="86"/>
+      <c r="AZ28" s="86"/>
+      <c r="BA28" s="86"/>
+      <c r="BB28" s="86"/>
+      <c r="BC28" s="86"/>
+      <c r="BD28" s="86"/>
+      <c r="BE28" s="86"/>
+      <c r="BF28" s="86"/>
+      <c r="BG28" s="86"/>
+      <c r="BH28" s="86"/>
+      <c r="BI28" s="86"/>
+      <c r="BJ28" s="86"/>
+      <c r="BK28" s="86"/>
+      <c r="BL28" s="86"/>
+      <c r="BM28" s="86"/>
+      <c r="BN28" s="86"/>
+      <c r="BO28" s="86"/>
+      <c r="BP28" s="86"/>
+      <c r="BQ28" s="86"/>
+      <c r="BR28" s="86"/>
+      <c r="BS28" s="86"/>
+      <c r="BT28" s="86"/>
+      <c r="BU28" s="86"/>
+      <c r="BV28" s="86"/>
+      <c r="BW28" s="86"/>
+      <c r="BX28" s="86"/>
+      <c r="BY28" s="86"/>
+      <c r="BZ28" s="86"/>
+      <c r="CA28" s="86"/>
+      <c r="CB28" s="86"/>
+      <c r="CC28" s="86"/>
+      <c r="CD28" s="86"/>
+      <c r="CE28" s="86"/>
+      <c r="CF28" s="86"/>
+      <c r="CG28" s="86"/>
+      <c r="CH28" s="86"/>
+      <c r="CI28" s="86"/>
+      <c r="CJ28" s="86"/>
+      <c r="CK28" s="86"/>
+      <c r="CL28" s="86"/>
+      <c r="CM28" s="86"/>
+      <c r="CN28" s="86"/>
+      <c r="CO28" s="86"/>
+      <c r="CP28" s="86"/>
+      <c r="CQ28" s="86"/>
+      <c r="CR28" s="86"/>
+      <c r="CS28" s="86"/>
+      <c r="CT28" s="86"/>
+      <c r="CU28" s="86"/>
+      <c r="CV28" s="94"/>
       <c r="CW28"/>
       <c r="CX28"/>
       <c r="CY28"/>
@@ -5550,14 +5511,109 @@
       <c r="FC28"/>
       <c r="FD28"/>
     </row>
-    <row r="29" spans="1:160" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="AV29" s="49"/>
-      <c r="AW29" s="13"/>
-      <c r="CV29" s="59"/>
+    <row r="29" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="89"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="86"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="124"/>
+      <c r="AJ29" s="124"/>
+      <c r="AK29" s="132"/>
+      <c r="AL29" s="132"/>
+      <c r="AM29" s="132"/>
+      <c r="AN29" s="132"/>
+      <c r="AO29" s="132"/>
+      <c r="AP29" s="86"/>
+      <c r="AQ29" s="86"/>
+      <c r="AR29" s="86"/>
+      <c r="AS29" s="86"/>
+      <c r="AT29" s="86"/>
+      <c r="AU29" s="86"/>
+      <c r="AV29" s="86"/>
+      <c r="AW29" s="86"/>
+      <c r="AX29" s="86"/>
+      <c r="AY29" s="86"/>
+      <c r="AZ29" s="86"/>
+      <c r="BA29" s="86"/>
+      <c r="BB29" s="86"/>
+      <c r="BC29" s="86"/>
+      <c r="BD29" s="86"/>
+      <c r="BE29" s="86"/>
+      <c r="BF29" s="86"/>
+      <c r="BG29" s="86"/>
+      <c r="BH29" s="86"/>
+      <c r="BI29" s="86"/>
+      <c r="BJ29" s="86"/>
+      <c r="BK29" s="86"/>
+      <c r="BL29" s="86"/>
+      <c r="BM29" s="86"/>
+      <c r="BN29" s="86"/>
+      <c r="BO29" s="86"/>
+      <c r="BP29" s="86"/>
+      <c r="BQ29" s="86"/>
+      <c r="BR29" s="86"/>
+      <c r="BS29" s="86"/>
+      <c r="BT29" s="86"/>
+      <c r="BU29" s="86"/>
+      <c r="BV29" s="86"/>
+      <c r="BW29" s="86"/>
+      <c r="BX29" s="86"/>
+      <c r="BY29" s="86"/>
+      <c r="BZ29" s="86"/>
+      <c r="CA29" s="86"/>
+      <c r="CB29" s="86"/>
+      <c r="CC29" s="86"/>
+      <c r="CD29" s="86"/>
+      <c r="CE29" s="86"/>
+      <c r="CF29" s="86"/>
+      <c r="CG29" s="86"/>
+      <c r="CH29" s="86"/>
+      <c r="CI29" s="86"/>
+      <c r="CJ29" s="86"/>
+      <c r="CK29" s="86"/>
+      <c r="CL29" s="86"/>
+      <c r="CM29" s="86"/>
+      <c r="CN29" s="86"/>
+      <c r="CO29" s="86"/>
+      <c r="CP29" s="86"/>
+      <c r="CQ29" s="86"/>
+      <c r="CR29" s="86"/>
+      <c r="CS29" s="86"/>
+      <c r="CT29" s="86"/>
+      <c r="CU29" s="86"/>
+      <c r="CV29" s="94"/>
       <c r="CW29"/>
       <c r="CX29"/>
       <c r="CY29"/>
@@ -5619,14 +5675,121 @@
       <c r="FC29"/>
       <c r="FD29"/>
     </row>
-    <row r="30" spans="1:160" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="60"/>
-      <c r="AS30" s="49"/>
-      <c r="AV30" s="49"/>
-      <c r="CV30" s="61"/>
+    <row r="30" spans="1:160" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="144"/>
+      <c r="AK30" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL30" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM30" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN30" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO30" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP30" s="92"/>
+      <c r="AQ30" s="92"/>
+      <c r="AR30" s="92"/>
+      <c r="AS30" s="92"/>
+      <c r="AT30" s="92"/>
+      <c r="AU30" s="92"/>
+      <c r="AV30" s="92"/>
+      <c r="AW30" s="92"/>
+      <c r="AX30" s="92"/>
+      <c r="AY30" s="92"/>
+      <c r="AZ30" s="92"/>
+      <c r="BA30" s="92"/>
+      <c r="BB30" s="92"/>
+      <c r="BC30" s="92"/>
+      <c r="BD30" s="92"/>
+      <c r="BE30" s="92"/>
+      <c r="BF30" s="92"/>
+      <c r="BG30" s="92"/>
+      <c r="BH30" s="92"/>
+      <c r="BI30" s="92"/>
+      <c r="BJ30" s="92"/>
+      <c r="BK30" s="92"/>
+      <c r="BL30" s="92"/>
+      <c r="BM30" s="92"/>
+      <c r="BN30" s="92"/>
+      <c r="BO30" s="92"/>
+      <c r="BP30" s="92"/>
+      <c r="BQ30" s="92"/>
+      <c r="BR30" s="92"/>
+      <c r="BS30" s="92"/>
+      <c r="BT30" s="92"/>
+      <c r="BU30" s="92"/>
+      <c r="BV30" s="92"/>
+      <c r="BW30" s="92"/>
+      <c r="BX30" s="92"/>
+      <c r="BY30" s="92"/>
+      <c r="BZ30" s="92"/>
+      <c r="CA30" s="92"/>
+      <c r="CB30" s="92"/>
+      <c r="CC30" s="92"/>
+      <c r="CD30" s="92"/>
+      <c r="CE30" s="92"/>
+      <c r="CF30" s="92"/>
+      <c r="CG30" s="92"/>
+      <c r="CH30" s="92"/>
+      <c r="CI30" s="92"/>
+      <c r="CJ30" s="92"/>
+      <c r="CK30" s="92"/>
+      <c r="CL30" s="92"/>
+      <c r="CM30" s="92"/>
+      <c r="CN30" s="92"/>
+      <c r="CO30" s="92"/>
+      <c r="CP30" s="92"/>
+      <c r="CQ30" s="92"/>
+      <c r="CR30" s="92"/>
+      <c r="CS30" s="92"/>
+      <c r="CT30" s="92"/>
+      <c r="CU30" s="92"/>
+      <c r="CV30" s="93"/>
       <c r="CW30"/>
       <c r="CX30"/>
       <c r="CY30"/>
@@ -5688,19 +5851,14 @@
       <c r="FC30"/>
       <c r="FD30"/>
     </row>
-    <row r="31" spans="1:160" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="AS31" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="CV31" s="61"/>
+    <row r="31" spans="1:160" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="49"/>
+      <c r="AV31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="CV31" s="50"/>
       <c r="CW31"/>
       <c r="CX31"/>
       <c r="CY31"/>
@@ -5762,24 +5920,47 @@
       <c r="FC31"/>
       <c r="FD31"/>
     </row>
-    <row r="32" spans="1:160" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:160" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="60"/>
-      <c r="AV32" s="49"/>
-      <c r="AX32" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY32" s="49"/>
-      <c r="AZ32" s="49"/>
-      <c r="BA32" s="49"/>
-      <c r="BB32" s="49"/>
-      <c r="BC32" s="49"/>
-      <c r="BD32" s="49"/>
-      <c r="BE32" s="49"/>
-      <c r="BF32" s="49"/>
-      <c r="CV32" s="61"/>
+        <v>2</v>
+      </c>
+      <c r="B32" s="51"/>
+      <c r="AP32" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX32" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY32" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ32" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA32" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB32" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC32" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD32" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE32" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF32" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG32" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH32" s="127"/>
+      <c r="BI32" s="127"/>
+      <c r="CV32" s="52"/>
       <c r="CW32"/>
       <c r="CX32"/>
       <c r="CY32"/>
@@ -5841,22 +6022,34 @@
       <c r="FC32"/>
       <c r="FD32"/>
     </row>
-    <row r="33" spans="1:160" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:160" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="AV33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="49"/>
-      <c r="BE33" s="49"/>
-      <c r="BF33" s="49"/>
-      <c r="CV33" s="61"/>
+        <v>3</v>
+      </c>
+      <c r="B33" s="51"/>
+      <c r="AP33" s="41"/>
+      <c r="AS33" s="127"/>
+      <c r="AT33" s="127"/>
+      <c r="AU33" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV33" s="41"/>
+      <c r="AW33" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX33" s="67"/>
+      <c r="AY33" s="67"/>
+      <c r="AZ33" s="67"/>
+      <c r="BA33" s="67"/>
+      <c r="BB33" s="67"/>
+      <c r="BC33" s="67"/>
+      <c r="BD33" s="67"/>
+      <c r="BE33" s="67"/>
+      <c r="BF33" s="67"/>
+      <c r="BG33" s="67"/>
+      <c r="BH33" s="127"/>
+      <c r="BI33" s="127"/>
+      <c r="CV33" s="52"/>
       <c r="CW33"/>
       <c r="CX33"/>
       <c r="CY33"/>
@@ -5918,13 +6111,25 @@
       <c r="FC33"/>
       <c r="FD33"/>
     </row>
-    <row r="34" spans="1:160" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:160" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="60"/>
-      <c r="AV34" s="49"/>
-      <c r="CV34" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="AP34" s="41"/>
+      <c r="AX34" s="67"/>
+      <c r="AY34" s="67"/>
+      <c r="AZ34" s="67"/>
+      <c r="BA34" s="67"/>
+      <c r="BB34" s="67"/>
+      <c r="BC34" s="67"/>
+      <c r="BD34" s="67"/>
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="67"/>
+      <c r="BG34" s="67"/>
+      <c r="BH34" s="127"/>
+      <c r="BI34" s="127"/>
+      <c r="CV34" s="52"/>
       <c r="CW34"/>
       <c r="CX34"/>
       <c r="CY34"/>
@@ -5986,29 +6191,26 @@
       <c r="FC34"/>
       <c r="FD34"/>
     </row>
-    <row r="35" spans="1:160" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG35" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH35" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI35" s="41"/>
-      <c r="BJ35" s="41"/>
-      <c r="BK35" s="41"/>
-      <c r="BL35" s="41"/>
-      <c r="BM35" s="41"/>
-      <c r="BN35" s="49"/>
-      <c r="BO35" s="41"/>
-      <c r="BP35" s="41"/>
-      <c r="BQ35" s="41"/>
-      <c r="CV35" s="63"/>
+    <row r="35" spans="1:160" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="51"/>
+      <c r="AP35" s="41"/>
+      <c r="AW35" s="41"/>
+      <c r="AX35" s="67"/>
+      <c r="AY35" s="67"/>
+      <c r="AZ35" s="67"/>
+      <c r="BA35" s="67"/>
+      <c r="BB35" s="67"/>
+      <c r="BC35" s="67"/>
+      <c r="BD35" s="67"/>
+      <c r="BE35" s="67"/>
+      <c r="BF35" s="67"/>
+      <c r="BG35" s="67"/>
+      <c r="BH35" s="127"/>
+      <c r="BI35" s="127"/>
+      <c r="CV35" s="52"/>
       <c r="CW35"/>
       <c r="CX35"/>
       <c r="CY35"/>
@@ -6070,109 +6272,25 @@
       <c r="FC35"/>
       <c r="FD35"/>
     </row>
-    <row r="36" spans="1:160" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="116"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="117"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="117"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="117"/>
-      <c r="W36" s="117"/>
-      <c r="X36" s="117"/>
-      <c r="Y36" s="117"/>
-      <c r="Z36" s="117"/>
-      <c r="AA36" s="117"/>
-      <c r="AB36" s="117"/>
-      <c r="AC36" s="117"/>
-      <c r="AD36" s="117"/>
-      <c r="AE36" s="117"/>
-      <c r="AF36" s="117"/>
-      <c r="AG36" s="117"/>
-      <c r="AH36" s="117"/>
-      <c r="AI36" s="117"/>
-      <c r="AJ36" s="117"/>
-      <c r="AK36" s="117"/>
-      <c r="AL36" s="117"/>
-      <c r="AM36" s="117"/>
-      <c r="AN36" s="117"/>
-      <c r="AO36" s="117"/>
-      <c r="AP36" s="117"/>
-      <c r="AQ36" s="117"/>
-      <c r="AR36" s="117"/>
-      <c r="AS36" s="117"/>
-      <c r="AT36" s="117"/>
-      <c r="AU36" s="117"/>
-      <c r="AV36" s="117"/>
-      <c r="AW36" s="117"/>
-      <c r="AX36" s="117"/>
-      <c r="AY36" s="117"/>
-      <c r="AZ36" s="117"/>
-      <c r="BA36" s="117"/>
-      <c r="BB36" s="117"/>
-      <c r="BC36" s="117"/>
-      <c r="BD36" s="117"/>
-      <c r="BE36" s="117"/>
-      <c r="BF36" s="117"/>
-      <c r="BG36" s="117"/>
-      <c r="BH36" s="117"/>
-      <c r="BI36" s="117"/>
-      <c r="BJ36" s="117"/>
-      <c r="BK36" s="117"/>
-      <c r="BL36" s="117"/>
-      <c r="BM36" s="117"/>
-      <c r="BN36" s="117"/>
-      <c r="BO36" s="117"/>
-      <c r="BP36" s="117"/>
-      <c r="BQ36" s="118"/>
-      <c r="BR36" s="118"/>
-      <c r="BS36" s="118"/>
-      <c r="BT36" s="118"/>
-      <c r="BU36" s="118"/>
-      <c r="BV36" s="118"/>
-      <c r="BW36" s="120"/>
-      <c r="BX36" s="118"/>
-      <c r="BY36" s="118"/>
-      <c r="BZ36" s="117"/>
-      <c r="CA36" s="117"/>
-      <c r="CB36" s="117"/>
-      <c r="CC36" s="117"/>
-      <c r="CD36" s="117"/>
-      <c r="CE36" s="117"/>
-      <c r="CF36" s="117"/>
-      <c r="CG36" s="117"/>
-      <c r="CH36" s="117"/>
-      <c r="CI36" s="117"/>
-      <c r="CJ36" s="117"/>
-      <c r="CK36" s="117"/>
-      <c r="CL36" s="117"/>
-      <c r="CM36" s="117"/>
-      <c r="CN36" s="117"/>
-      <c r="CO36" s="117"/>
-      <c r="CP36" s="117"/>
-      <c r="CQ36" s="117"/>
-      <c r="CR36" s="117"/>
-      <c r="CS36" s="117"/>
-      <c r="CT36" s="117"/>
-      <c r="CU36" s="117"/>
-      <c r="CV36" s="122"/>
+    <row r="36" spans="1:160" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="51"/>
+      <c r="AP36" s="41"/>
+      <c r="AX36" s="67"/>
+      <c r="AY36" s="67"/>
+      <c r="AZ36" s="67"/>
+      <c r="BA36" s="67"/>
+      <c r="BB36" s="67"/>
+      <c r="BC36" s="67"/>
+      <c r="BD36" s="67"/>
+      <c r="BE36" s="67"/>
+      <c r="BF36" s="67"/>
+      <c r="BG36" s="67"/>
+      <c r="BH36" s="127"/>
+      <c r="BI36" s="127"/>
+      <c r="CV36" s="52"/>
       <c r="CW36"/>
       <c r="CX36"/>
       <c r="CY36"/>
@@ -6234,109 +6352,48 @@
       <c r="FC36"/>
       <c r="FD36"/>
     </row>
-    <row r="37" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
-      <c r="P37" s="118"/>
-      <c r="Q37" s="118"/>
-      <c r="R37" s="118"/>
-      <c r="S37" s="118"/>
-      <c r="T37" s="118"/>
-      <c r="U37" s="118"/>
-      <c r="V37" s="118"/>
-      <c r="W37" s="118"/>
-      <c r="X37" s="118"/>
-      <c r="Y37" s="118"/>
-      <c r="Z37" s="118"/>
-      <c r="AA37" s="118"/>
-      <c r="AB37" s="118"/>
-      <c r="AC37" s="118"/>
-      <c r="AD37" s="118"/>
-      <c r="AE37" s="118"/>
-      <c r="AF37" s="118"/>
-      <c r="AG37" s="118"/>
-      <c r="AH37" s="118"/>
-      <c r="AI37" s="118"/>
-      <c r="AJ37" s="118"/>
-      <c r="AK37" s="118"/>
-      <c r="AL37" s="118"/>
-      <c r="AM37" s="118"/>
-      <c r="AN37" s="118"/>
-      <c r="AO37" s="118"/>
-      <c r="AP37" s="118"/>
-      <c r="AQ37" s="118"/>
-      <c r="AR37" s="118"/>
-      <c r="AS37" s="118"/>
-      <c r="AT37" s="118"/>
-      <c r="AU37" s="118"/>
-      <c r="AV37" s="118"/>
-      <c r="AW37" s="118"/>
-      <c r="AX37" s="118"/>
-      <c r="AY37" s="118"/>
-      <c r="AZ37" s="118"/>
-      <c r="BA37" s="118"/>
-      <c r="BB37" s="118"/>
-      <c r="BC37" s="118"/>
-      <c r="BD37" s="118"/>
-      <c r="BE37" s="118"/>
-      <c r="BF37" s="118"/>
-      <c r="BG37" s="118"/>
-      <c r="BH37" s="118"/>
-      <c r="BI37" s="118"/>
-      <c r="BJ37" s="118"/>
-      <c r="BK37" s="118"/>
-      <c r="BL37" s="118"/>
-      <c r="BM37" s="118"/>
-      <c r="BN37" s="118"/>
-      <c r="BO37" s="118"/>
-      <c r="BP37" s="118"/>
-      <c r="BQ37" s="120"/>
-      <c r="BR37" s="120"/>
-      <c r="BS37" s="120"/>
-      <c r="BT37" s="120"/>
-      <c r="BU37" s="120"/>
-      <c r="BV37" s="120"/>
-      <c r="BW37" s="120"/>
-      <c r="BX37" s="120"/>
-      <c r="BY37" s="120"/>
-      <c r="BZ37" s="118"/>
-      <c r="CA37" s="118"/>
-      <c r="CB37" s="118"/>
-      <c r="CC37" s="118"/>
-      <c r="CD37" s="118"/>
-      <c r="CE37" s="118"/>
-      <c r="CF37" s="118"/>
-      <c r="CG37" s="118"/>
-      <c r="CH37" s="118"/>
-      <c r="CI37" s="118"/>
-      <c r="CJ37" s="118"/>
-      <c r="CK37" s="118"/>
-      <c r="CL37" s="118"/>
-      <c r="CM37" s="118"/>
-      <c r="CN37" s="118"/>
-      <c r="CO37" s="118"/>
-      <c r="CP37" s="118"/>
-      <c r="CQ37" s="118"/>
-      <c r="CR37" s="118"/>
-      <c r="CS37" s="118"/>
-      <c r="CT37" s="118"/>
-      <c r="CU37" s="118"/>
-      <c r="CV37" s="123"/>
+    <row r="37" spans="1:160" s="30" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ37" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR37" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS37" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT37" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG37" s="129"/>
+      <c r="BH37" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI37" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ37" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK37" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL37" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM37" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN37" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="CV37" s="54"/>
       <c r="CW37"/>
       <c r="CX37"/>
       <c r="CY37"/>
@@ -6398,109 +6455,109 @@
       <c r="FC37"/>
       <c r="FD37"/>
     </row>
-    <row r="38" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="118"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="118"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="118"/>
-      <c r="U38" s="118"/>
-      <c r="V38" s="118"/>
-      <c r="W38" s="118"/>
-      <c r="X38" s="118"/>
-      <c r="Y38" s="118"/>
-      <c r="Z38" s="118"/>
-      <c r="AA38" s="118"/>
-      <c r="AB38" s="118"/>
-      <c r="AC38" s="118"/>
-      <c r="AD38" s="118"/>
-      <c r="AE38" s="118"/>
-      <c r="AF38" s="118"/>
-      <c r="AG38" s="118"/>
-      <c r="AH38" s="118"/>
-      <c r="AI38" s="118"/>
-      <c r="AJ38" s="118"/>
-      <c r="AK38" s="118"/>
-      <c r="AL38" s="118"/>
-      <c r="AM38" s="118"/>
-      <c r="AN38" s="118"/>
-      <c r="AO38" s="118"/>
-      <c r="AP38" s="118"/>
-      <c r="AQ38" s="118"/>
-      <c r="AR38" s="118"/>
-      <c r="AS38" s="118"/>
-      <c r="AT38" s="118"/>
-      <c r="AU38" s="118"/>
-      <c r="AV38" s="118"/>
-      <c r="AW38" s="118"/>
-      <c r="AX38" s="118"/>
-      <c r="AY38" s="118"/>
-      <c r="AZ38" s="118"/>
-      <c r="BA38" s="118"/>
-      <c r="BB38" s="118"/>
-      <c r="BC38" s="118"/>
-      <c r="BD38" s="118"/>
-      <c r="BE38" s="118"/>
-      <c r="BF38" s="118"/>
-      <c r="BG38" s="118"/>
-      <c r="BH38" s="118"/>
-      <c r="BI38" s="118"/>
-      <c r="BJ38" s="118"/>
-      <c r="BK38" s="118"/>
-      <c r="BL38" s="118"/>
-      <c r="BM38" s="118"/>
-      <c r="BN38" s="118"/>
-      <c r="BO38" s="118"/>
-      <c r="BP38" s="118"/>
-      <c r="BQ38" s="118"/>
-      <c r="BR38" s="121"/>
-      <c r="BS38" s="118"/>
-      <c r="BT38" s="118"/>
-      <c r="BU38" s="118"/>
-      <c r="BV38" s="118"/>
-      <c r="BW38" s="118"/>
-      <c r="BX38" s="118"/>
-      <c r="BY38" s="118"/>
-      <c r="BZ38" s="118"/>
-      <c r="CA38" s="118"/>
-      <c r="CB38" s="118"/>
-      <c r="CC38" s="118"/>
-      <c r="CD38" s="118"/>
-      <c r="CE38" s="118"/>
-      <c r="CF38" s="118"/>
-      <c r="CG38" s="118"/>
-      <c r="CH38" s="118"/>
-      <c r="CI38" s="118"/>
-      <c r="CJ38" s="118"/>
-      <c r="CK38" s="118"/>
-      <c r="CL38" s="118"/>
-      <c r="CM38" s="118"/>
-      <c r="CN38" s="118"/>
-      <c r="CO38" s="118"/>
-      <c r="CP38" s="118"/>
-      <c r="CQ38" s="118"/>
-      <c r="CR38" s="118"/>
-      <c r="CS38" s="118"/>
-      <c r="CT38" s="118"/>
-      <c r="CU38" s="118"/>
-      <c r="CV38" s="123"/>
+    <row r="38" spans="1:160" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="104"/>
+      <c r="W38" s="104"/>
+      <c r="X38" s="104"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="104"/>
+      <c r="AD38" s="104"/>
+      <c r="AE38" s="104"/>
+      <c r="AF38" s="104"/>
+      <c r="AG38" s="104"/>
+      <c r="AH38" s="104"/>
+      <c r="AI38" s="104"/>
+      <c r="AJ38" s="104"/>
+      <c r="AK38" s="104"/>
+      <c r="AL38" s="104"/>
+      <c r="AM38" s="104"/>
+      <c r="AN38" s="104"/>
+      <c r="AO38" s="104"/>
+      <c r="AP38" s="104"/>
+      <c r="AQ38" s="104"/>
+      <c r="AR38" s="104"/>
+      <c r="AS38" s="104"/>
+      <c r="AT38" s="104"/>
+      <c r="AU38" s="104"/>
+      <c r="AV38" s="104"/>
+      <c r="AW38" s="104"/>
+      <c r="AX38" s="104"/>
+      <c r="AY38" s="104"/>
+      <c r="AZ38" s="104"/>
+      <c r="BA38" s="104"/>
+      <c r="BB38" s="104"/>
+      <c r="BC38" s="104"/>
+      <c r="BD38" s="104"/>
+      <c r="BE38" s="104"/>
+      <c r="BF38" s="104"/>
+      <c r="BG38" s="104"/>
+      <c r="BH38" s="104"/>
+      <c r="BI38" s="104"/>
+      <c r="BJ38" s="104"/>
+      <c r="BK38" s="104"/>
+      <c r="BL38" s="104"/>
+      <c r="BM38" s="104"/>
+      <c r="BN38" s="104"/>
+      <c r="BO38" s="104"/>
+      <c r="BP38" s="104"/>
+      <c r="BQ38" s="105"/>
+      <c r="BR38" s="105"/>
+      <c r="BS38" s="105"/>
+      <c r="BT38" s="105"/>
+      <c r="BU38" s="105"/>
+      <c r="BV38" s="105"/>
+      <c r="BW38" s="107"/>
+      <c r="BX38" s="105"/>
+      <c r="BY38" s="105"/>
+      <c r="BZ38" s="104"/>
+      <c r="CA38" s="104"/>
+      <c r="CB38" s="104"/>
+      <c r="CC38" s="104"/>
+      <c r="CD38" s="104"/>
+      <c r="CE38" s="104"/>
+      <c r="CF38" s="104"/>
+      <c r="CG38" s="104"/>
+      <c r="CH38" s="104"/>
+      <c r="CI38" s="104"/>
+      <c r="CJ38" s="104"/>
+      <c r="CK38" s="104"/>
+      <c r="CL38" s="104"/>
+      <c r="CM38" s="104"/>
+      <c r="CN38" s="104"/>
+      <c r="CO38" s="104"/>
+      <c r="CP38" s="104"/>
+      <c r="CQ38" s="104"/>
+      <c r="CR38" s="104"/>
+      <c r="CS38" s="104"/>
+      <c r="CT38" s="104"/>
+      <c r="CU38" s="104"/>
+      <c r="CV38" s="108"/>
       <c r="CW38"/>
       <c r="CX38"/>
       <c r="CY38"/>
@@ -6562,109 +6619,109 @@
       <c r="FC38"/>
       <c r="FD38"/>
     </row>
-    <row r="39" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="119"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="118"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="118"/>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="118"/>
-      <c r="R39" s="118"/>
-      <c r="S39" s="118"/>
-      <c r="T39" s="118"/>
-      <c r="U39" s="118"/>
-      <c r="V39" s="118"/>
-      <c r="W39" s="118"/>
-      <c r="X39" s="118"/>
-      <c r="Y39" s="118"/>
-      <c r="Z39" s="118"/>
-      <c r="AA39" s="118"/>
-      <c r="AB39" s="118"/>
-      <c r="AC39" s="118"/>
-      <c r="AD39" s="118"/>
-      <c r="AE39" s="118"/>
-      <c r="AF39" s="118"/>
-      <c r="AG39" s="118"/>
-      <c r="AH39" s="118"/>
-      <c r="AI39" s="118"/>
-      <c r="AJ39" s="118"/>
-      <c r="AK39" s="118"/>
-      <c r="AL39" s="118"/>
-      <c r="AM39" s="118"/>
-      <c r="AN39" s="118"/>
-      <c r="AO39" s="118"/>
-      <c r="AP39" s="118"/>
-      <c r="AQ39" s="118"/>
-      <c r="AR39" s="118"/>
-      <c r="AS39" s="118"/>
-      <c r="AT39" s="118"/>
-      <c r="AU39" s="118"/>
-      <c r="AV39" s="118"/>
-      <c r="AW39" s="118"/>
-      <c r="AX39" s="118"/>
-      <c r="AY39" s="118"/>
-      <c r="AZ39" s="118"/>
-      <c r="BA39" s="118"/>
-      <c r="BB39" s="118"/>
-      <c r="BC39" s="118"/>
-      <c r="BD39" s="118"/>
-      <c r="BE39" s="118"/>
-      <c r="BF39" s="118"/>
-      <c r="BG39" s="118"/>
-      <c r="BH39" s="118"/>
-      <c r="BI39" s="118"/>
-      <c r="BJ39" s="118"/>
-      <c r="BK39" s="118"/>
-      <c r="BL39" s="118"/>
-      <c r="BM39" s="118"/>
-      <c r="BN39" s="118"/>
-      <c r="BO39" s="118"/>
-      <c r="BP39" s="118"/>
-      <c r="BQ39" s="118"/>
-      <c r="BR39" s="121"/>
-      <c r="BS39" s="118"/>
-      <c r="BT39" s="118"/>
-      <c r="BU39" s="118"/>
-      <c r="BV39" s="118"/>
-      <c r="BW39" s="118"/>
-      <c r="BX39" s="118"/>
-      <c r="BY39" s="121"/>
-      <c r="BZ39" s="121"/>
-      <c r="CA39" s="118"/>
-      <c r="CB39" s="118"/>
-      <c r="CC39" s="118"/>
-      <c r="CD39" s="118"/>
-      <c r="CE39" s="118"/>
-      <c r="CF39" s="118"/>
-      <c r="CG39" s="118"/>
-      <c r="CH39" s="118"/>
-      <c r="CI39" s="118"/>
-      <c r="CJ39" s="118"/>
-      <c r="CK39" s="118"/>
-      <c r="CL39" s="118"/>
-      <c r="CM39" s="118"/>
-      <c r="CN39" s="118"/>
-      <c r="CO39" s="118"/>
-      <c r="CP39" s="118"/>
-      <c r="CQ39" s="118"/>
-      <c r="CR39" s="118"/>
-      <c r="CS39" s="118"/>
-      <c r="CT39" s="118"/>
-      <c r="CU39" s="118"/>
-      <c r="CV39" s="123"/>
+    <row r="39" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="106"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="105"/>
+      <c r="Y39" s="105"/>
+      <c r="Z39" s="105"/>
+      <c r="AA39" s="105"/>
+      <c r="AB39" s="105"/>
+      <c r="AC39" s="105"/>
+      <c r="AD39" s="105"/>
+      <c r="AE39" s="105"/>
+      <c r="AF39" s="105"/>
+      <c r="AG39" s="105"/>
+      <c r="AH39" s="105"/>
+      <c r="AI39" s="105"/>
+      <c r="AJ39" s="105"/>
+      <c r="AK39" s="105"/>
+      <c r="AL39" s="105"/>
+      <c r="AM39" s="105"/>
+      <c r="AN39" s="105"/>
+      <c r="AO39" s="105"/>
+      <c r="AP39" s="105"/>
+      <c r="AQ39" s="105"/>
+      <c r="AR39" s="105"/>
+      <c r="AS39" s="105"/>
+      <c r="AT39" s="105"/>
+      <c r="AU39" s="105"/>
+      <c r="AV39" s="105"/>
+      <c r="AW39" s="105"/>
+      <c r="AX39" s="105"/>
+      <c r="AY39" s="105"/>
+      <c r="AZ39" s="105"/>
+      <c r="BA39" s="105"/>
+      <c r="BB39" s="105"/>
+      <c r="BC39" s="105"/>
+      <c r="BD39" s="105"/>
+      <c r="BE39" s="105"/>
+      <c r="BF39" s="105"/>
+      <c r="BG39" s="105"/>
+      <c r="BH39" s="105"/>
+      <c r="BI39" s="105"/>
+      <c r="BJ39" s="105"/>
+      <c r="BK39" s="105"/>
+      <c r="BL39" s="105"/>
+      <c r="BM39" s="105"/>
+      <c r="BN39" s="105"/>
+      <c r="BO39" s="147"/>
+      <c r="BP39" s="105"/>
+      <c r="BQ39" s="107"/>
+      <c r="BR39" s="107"/>
+      <c r="BS39" s="107"/>
+      <c r="BT39" s="107"/>
+      <c r="BU39" s="107"/>
+      <c r="BV39" s="107"/>
+      <c r="BW39" s="107"/>
+      <c r="BX39" s="107"/>
+      <c r="BY39" s="107"/>
+      <c r="BZ39" s="105"/>
+      <c r="CA39" s="105"/>
+      <c r="CB39" s="105"/>
+      <c r="CC39" s="105"/>
+      <c r="CD39" s="105"/>
+      <c r="CE39" s="105"/>
+      <c r="CF39" s="105"/>
+      <c r="CG39" s="105"/>
+      <c r="CH39" s="105"/>
+      <c r="CI39" s="105"/>
+      <c r="CJ39" s="105"/>
+      <c r="CK39" s="105"/>
+      <c r="CL39" s="105"/>
+      <c r="CM39" s="105"/>
+      <c r="CN39" s="105"/>
+      <c r="CO39" s="105"/>
+      <c r="CP39" s="105"/>
+      <c r="CQ39" s="105"/>
+      <c r="CR39" s="105"/>
+      <c r="CS39" s="105"/>
+      <c r="CT39" s="105"/>
+      <c r="CU39" s="105"/>
+      <c r="CV39" s="109"/>
       <c r="CW39"/>
       <c r="CX39"/>
       <c r="CY39"/>
@@ -6726,109 +6783,109 @@
       <c r="FC39"/>
       <c r="FD39"/>
     </row>
-    <row r="40" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="108" t="s">
+    <row r="40" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="119"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="118"/>
-      <c r="Q40" s="118"/>
-      <c r="R40" s="118"/>
-      <c r="S40" s="118"/>
-      <c r="T40" s="118"/>
-      <c r="U40" s="118"/>
-      <c r="V40" s="118"/>
-      <c r="W40" s="118"/>
-      <c r="X40" s="118"/>
-      <c r="Y40" s="118"/>
-      <c r="Z40" s="118"/>
-      <c r="AA40" s="118"/>
-      <c r="AB40" s="118"/>
-      <c r="AC40" s="118"/>
-      <c r="AD40" s="118"/>
-      <c r="AE40" s="118"/>
-      <c r="AF40" s="118"/>
-      <c r="AG40" s="118"/>
-      <c r="AH40" s="118"/>
-      <c r="AI40" s="118"/>
-      <c r="AJ40" s="118"/>
-      <c r="AK40" s="118"/>
-      <c r="AL40" s="118"/>
-      <c r="AM40" s="118"/>
-      <c r="AN40" s="118"/>
-      <c r="AO40" s="118"/>
-      <c r="AP40" s="118"/>
-      <c r="AQ40" s="118"/>
-      <c r="AR40" s="118"/>
-      <c r="AS40" s="118"/>
-      <c r="AT40" s="118"/>
-      <c r="AU40" s="118"/>
-      <c r="AV40" s="118"/>
-      <c r="AW40" s="118"/>
-      <c r="AX40" s="118"/>
-      <c r="AY40" s="118"/>
-      <c r="AZ40" s="118"/>
-      <c r="BA40" s="118"/>
-      <c r="BB40" s="118"/>
-      <c r="BC40" s="118"/>
-      <c r="BD40" s="118"/>
-      <c r="BE40" s="118"/>
-      <c r="BF40" s="118"/>
-      <c r="BG40" s="118"/>
-      <c r="BH40" s="118"/>
-      <c r="BI40" s="118"/>
-      <c r="BJ40" s="118"/>
-      <c r="BK40" s="118"/>
-      <c r="BL40" s="118"/>
-      <c r="BM40" s="118"/>
-      <c r="BN40" s="118"/>
-      <c r="BO40" s="118"/>
-      <c r="BP40" s="118"/>
-      <c r="BQ40" s="118"/>
-      <c r="BR40" s="118"/>
-      <c r="BS40" s="118"/>
-      <c r="BT40" s="118"/>
-      <c r="BU40" s="118"/>
-      <c r="BV40" s="121"/>
-      <c r="BW40" s="121"/>
-      <c r="BX40" s="121"/>
-      <c r="BY40" s="118"/>
-      <c r="BZ40" s="118"/>
-      <c r="CA40" s="118"/>
-      <c r="CB40" s="118"/>
-      <c r="CC40" s="118"/>
-      <c r="CD40" s="118"/>
-      <c r="CE40" s="118"/>
-      <c r="CF40" s="118"/>
-      <c r="CG40" s="118"/>
-      <c r="CH40" s="118"/>
-      <c r="CI40" s="118"/>
-      <c r="CJ40" s="118"/>
-      <c r="CK40" s="118"/>
-      <c r="CL40" s="118"/>
-      <c r="CM40" s="118"/>
-      <c r="CN40" s="118"/>
-      <c r="CO40" s="118"/>
-      <c r="CP40" s="118"/>
-      <c r="CQ40" s="118"/>
-      <c r="CR40" s="118"/>
-      <c r="CS40" s="118"/>
-      <c r="CT40" s="118"/>
-      <c r="CU40" s="118"/>
-      <c r="CV40" s="123"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="105"/>
+      <c r="X40" s="105"/>
+      <c r="Y40" s="105"/>
+      <c r="Z40" s="105"/>
+      <c r="AA40" s="105"/>
+      <c r="AB40" s="105"/>
+      <c r="AC40" s="105"/>
+      <c r="AD40" s="105"/>
+      <c r="AE40" s="105"/>
+      <c r="AF40" s="105"/>
+      <c r="AG40" s="105"/>
+      <c r="AH40" s="105"/>
+      <c r="AI40" s="105"/>
+      <c r="AJ40" s="105"/>
+      <c r="AK40" s="105"/>
+      <c r="AL40" s="105"/>
+      <c r="AM40" s="105"/>
+      <c r="AN40" s="105"/>
+      <c r="AO40" s="105"/>
+      <c r="AP40" s="105"/>
+      <c r="AQ40" s="105"/>
+      <c r="AR40" s="105"/>
+      <c r="AS40" s="105"/>
+      <c r="AT40" s="105"/>
+      <c r="AU40" s="105"/>
+      <c r="AV40" s="105"/>
+      <c r="AW40" s="105"/>
+      <c r="AX40" s="105"/>
+      <c r="AY40" s="105"/>
+      <c r="AZ40" s="105"/>
+      <c r="BA40" s="105"/>
+      <c r="BB40" s="105"/>
+      <c r="BC40" s="105"/>
+      <c r="BD40" s="105"/>
+      <c r="BE40" s="105"/>
+      <c r="BF40" s="105"/>
+      <c r="BG40" s="105"/>
+      <c r="BH40" s="105"/>
+      <c r="BI40" s="105"/>
+      <c r="BJ40" s="105"/>
+      <c r="BK40" s="105"/>
+      <c r="BL40" s="105"/>
+      <c r="BM40" s="105"/>
+      <c r="BN40" s="105"/>
+      <c r="BO40" s="146"/>
+      <c r="BP40" s="105"/>
+      <c r="BQ40" s="105"/>
+      <c r="BR40" s="105"/>
+      <c r="BS40" s="105"/>
+      <c r="BT40" s="105"/>
+      <c r="BU40" s="105"/>
+      <c r="BV40" s="105"/>
+      <c r="BW40" s="105"/>
+      <c r="BX40" s="105"/>
+      <c r="BY40" s="105"/>
+      <c r="BZ40" s="105"/>
+      <c r="CA40" s="105"/>
+      <c r="CB40" s="105"/>
+      <c r="CC40" s="105"/>
+      <c r="CD40" s="105"/>
+      <c r="CE40" s="105"/>
+      <c r="CF40" s="105"/>
+      <c r="CG40" s="105"/>
+      <c r="CH40" s="105"/>
+      <c r="CI40" s="105"/>
+      <c r="CJ40" s="105"/>
+      <c r="CK40" s="105"/>
+      <c r="CL40" s="105"/>
+      <c r="CM40" s="105"/>
+      <c r="CN40" s="105"/>
+      <c r="CO40" s="105"/>
+      <c r="CP40" s="105"/>
+      <c r="CQ40" s="105"/>
+      <c r="CR40" s="105"/>
+      <c r="CS40" s="105"/>
+      <c r="CT40" s="105"/>
+      <c r="CU40" s="105"/>
+      <c r="CV40" s="109"/>
       <c r="CW40"/>
       <c r="CX40"/>
       <c r="CY40"/>
@@ -6890,109 +6947,125 @@
       <c r="FC40"/>
       <c r="FD40"/>
     </row>
-    <row r="41" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="118"/>
-      <c r="Q41" s="118"/>
-      <c r="R41" s="118"/>
-      <c r="S41" s="118"/>
-      <c r="T41" s="118"/>
-      <c r="U41" s="118"/>
-      <c r="V41" s="118"/>
-      <c r="W41" s="118"/>
-      <c r="X41" s="118"/>
-      <c r="Y41" s="118"/>
-      <c r="Z41" s="118"/>
-      <c r="AA41" s="118"/>
-      <c r="AB41" s="118"/>
-      <c r="AC41" s="118"/>
-      <c r="AD41" s="118"/>
-      <c r="AE41" s="118"/>
-      <c r="AF41" s="118"/>
-      <c r="AG41" s="118"/>
-      <c r="AH41" s="118"/>
-      <c r="AI41" s="118"/>
-      <c r="AJ41" s="118"/>
-      <c r="AK41" s="118"/>
-      <c r="AL41" s="118"/>
-      <c r="AM41" s="118"/>
-      <c r="AN41" s="118"/>
-      <c r="AO41" s="118"/>
-      <c r="AP41" s="118"/>
-      <c r="AQ41" s="118"/>
-      <c r="AR41" s="118"/>
-      <c r="AS41" s="118"/>
-      <c r="AT41" s="118"/>
-      <c r="AU41" s="118"/>
-      <c r="AV41" s="118"/>
-      <c r="AW41" s="118"/>
-      <c r="AX41" s="118"/>
-      <c r="AY41" s="118"/>
-      <c r="AZ41" s="118"/>
-      <c r="BA41" s="118"/>
-      <c r="BB41" s="118"/>
-      <c r="BC41" s="118"/>
-      <c r="BD41" s="118"/>
-      <c r="BE41" s="118"/>
-      <c r="BF41" s="118"/>
-      <c r="BG41" s="118"/>
-      <c r="BH41" s="118"/>
-      <c r="BI41" s="118"/>
-      <c r="BJ41" s="118"/>
-      <c r="BK41" s="118"/>
-      <c r="BL41" s="118"/>
-      <c r="BM41" s="118"/>
-      <c r="BN41" s="118"/>
-      <c r="BO41" s="118"/>
-      <c r="BP41" s="118"/>
-      <c r="BQ41" s="118"/>
-      <c r="BR41" s="118"/>
-      <c r="BS41" s="121"/>
-      <c r="BT41" s="118"/>
-      <c r="BU41" s="118"/>
-      <c r="BV41" s="118"/>
-      <c r="BW41" s="118"/>
-      <c r="BX41" s="118"/>
-      <c r="BY41" s="118"/>
-      <c r="BZ41" s="118"/>
-      <c r="CA41" s="118"/>
-      <c r="CB41" s="118"/>
-      <c r="CC41" s="118"/>
-      <c r="CD41" s="118"/>
-      <c r="CE41" s="118"/>
-      <c r="CF41" s="118"/>
-      <c r="CG41" s="118"/>
-      <c r="CH41" s="118"/>
-      <c r="CI41" s="118"/>
-      <c r="CJ41" s="118"/>
-      <c r="CK41" s="118"/>
-      <c r="CL41" s="118"/>
-      <c r="CM41" s="118"/>
-      <c r="CN41" s="118"/>
-      <c r="CO41" s="118"/>
-      <c r="CP41" s="118"/>
-      <c r="CQ41" s="118"/>
-      <c r="CR41" s="118"/>
-      <c r="CS41" s="118"/>
-      <c r="CT41" s="118"/>
-      <c r="CU41" s="118"/>
-      <c r="CV41" s="123"/>
+    <row r="41" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="106"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="105"/>
+      <c r="S41" s="105"/>
+      <c r="T41" s="105"/>
+      <c r="U41" s="105"/>
+      <c r="V41" s="105"/>
+      <c r="W41" s="105"/>
+      <c r="X41" s="105"/>
+      <c r="Y41" s="105"/>
+      <c r="Z41" s="105"/>
+      <c r="AA41" s="105"/>
+      <c r="AB41" s="105"/>
+      <c r="AC41" s="105"/>
+      <c r="AD41" s="105"/>
+      <c r="AE41" s="105"/>
+      <c r="AF41" s="105"/>
+      <c r="AG41" s="105"/>
+      <c r="AH41" s="105"/>
+      <c r="AI41" s="105"/>
+      <c r="AJ41" s="105"/>
+      <c r="AK41" s="105"/>
+      <c r="AL41" s="105"/>
+      <c r="AM41" s="105"/>
+      <c r="AN41" s="105"/>
+      <c r="AO41" s="105"/>
+      <c r="AP41" s="105"/>
+      <c r="AQ41" s="105"/>
+      <c r="AR41" s="105"/>
+      <c r="AS41" s="105"/>
+      <c r="AT41" s="105"/>
+      <c r="AU41" s="105"/>
+      <c r="AV41" s="105"/>
+      <c r="AW41" s="105"/>
+      <c r="AX41" s="105"/>
+      <c r="AY41" s="105"/>
+      <c r="AZ41" s="105"/>
+      <c r="BA41" s="105"/>
+      <c r="BB41" s="105"/>
+      <c r="BC41" s="105"/>
+      <c r="BD41" s="105"/>
+      <c r="BE41" s="105"/>
+      <c r="BF41" s="105"/>
+      <c r="BG41" s="105"/>
+      <c r="BH41" s="105"/>
+      <c r="BI41" s="105"/>
+      <c r="BJ41" s="105"/>
+      <c r="BK41" s="105"/>
+      <c r="BL41" s="105"/>
+      <c r="BM41" s="105"/>
+      <c r="BN41" s="105"/>
+      <c r="BO41" s="105"/>
+      <c r="BP41" s="146"/>
+      <c r="BQ41" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR41" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS41" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT41" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU41" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV41" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW41" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX41" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY41" s="105"/>
+      <c r="BZ41" s="105"/>
+      <c r="CA41" s="105"/>
+      <c r="CB41" s="105"/>
+      <c r="CC41" s="105"/>
+      <c r="CD41" s="105"/>
+      <c r="CE41" s="105"/>
+      <c r="CF41" s="105"/>
+      <c r="CG41" s="105"/>
+      <c r="CH41" s="105"/>
+      <c r="CI41" s="105"/>
+      <c r="CJ41" s="105"/>
+      <c r="CK41" s="105"/>
+      <c r="CL41" s="105"/>
+      <c r="CM41" s="105"/>
+      <c r="CN41" s="105"/>
+      <c r="CO41" s="105"/>
+      <c r="CP41" s="105"/>
+      <c r="CQ41" s="105"/>
+      <c r="CR41" s="105"/>
+      <c r="CS41" s="105"/>
+      <c r="CT41" s="105"/>
+      <c r="CU41" s="105"/>
+      <c r="CV41" s="109"/>
       <c r="CW41"/>
       <c r="CX41"/>
       <c r="CY41"/>
@@ -7054,109 +7127,109 @@
       <c r="FC41"/>
       <c r="FD41"/>
     </row>
-    <row r="42" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="119"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="118"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-      <c r="U42" s="118"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="118"/>
-      <c r="X42" s="118"/>
-      <c r="Y42" s="118"/>
-      <c r="Z42" s="118"/>
-      <c r="AA42" s="118"/>
-      <c r="AB42" s="118"/>
-      <c r="AC42" s="118"/>
-      <c r="AD42" s="118"/>
-      <c r="AE42" s="118"/>
-      <c r="AF42" s="118"/>
-      <c r="AG42" s="118"/>
-      <c r="AH42" s="118"/>
-      <c r="AI42" s="118"/>
-      <c r="AJ42" s="118"/>
-      <c r="AK42" s="118"/>
-      <c r="AL42" s="118"/>
-      <c r="AM42" s="118"/>
-      <c r="AN42" s="118"/>
-      <c r="AO42" s="118"/>
-      <c r="AP42" s="118"/>
-      <c r="AQ42" s="118"/>
-      <c r="AR42" s="118"/>
-      <c r="AS42" s="118"/>
-      <c r="AT42" s="118"/>
-      <c r="AU42" s="118"/>
-      <c r="AV42" s="118"/>
-      <c r="AW42" s="118"/>
-      <c r="AX42" s="118"/>
-      <c r="AY42" s="118"/>
-      <c r="AZ42" s="118"/>
-      <c r="BA42" s="118"/>
-      <c r="BB42" s="118"/>
-      <c r="BC42" s="118"/>
-      <c r="BD42" s="118"/>
-      <c r="BE42" s="118"/>
-      <c r="BF42" s="118"/>
-      <c r="BG42" s="118"/>
-      <c r="BH42" s="118"/>
-      <c r="BI42" s="118"/>
-      <c r="BJ42" s="118"/>
-      <c r="BK42" s="118"/>
-      <c r="BL42" s="118"/>
-      <c r="BM42" s="118"/>
-      <c r="BN42" s="118"/>
-      <c r="BO42" s="118"/>
-      <c r="BP42" s="118"/>
-      <c r="BQ42" s="118"/>
-      <c r="BR42" s="118"/>
-      <c r="BS42" s="118"/>
-      <c r="BT42" s="121"/>
-      <c r="BU42" s="118"/>
-      <c r="BV42" s="118"/>
-      <c r="BW42" s="118"/>
-      <c r="BX42" s="118"/>
-      <c r="BY42" s="118"/>
-      <c r="BZ42" s="118"/>
-      <c r="CA42" s="118"/>
-      <c r="CB42" s="118"/>
-      <c r="CC42" s="118"/>
-      <c r="CD42" s="118"/>
-      <c r="CE42" s="118"/>
-      <c r="CF42" s="118"/>
-      <c r="CG42" s="118"/>
-      <c r="CH42" s="118"/>
-      <c r="CI42" s="118"/>
-      <c r="CJ42" s="118"/>
-      <c r="CK42" s="118"/>
-      <c r="CL42" s="118"/>
-      <c r="CM42" s="118"/>
-      <c r="CN42" s="118"/>
-      <c r="CO42" s="118"/>
-      <c r="CP42" s="118"/>
-      <c r="CQ42" s="118"/>
-      <c r="CR42" s="118"/>
-      <c r="CS42" s="118"/>
-      <c r="CT42" s="118"/>
-      <c r="CU42" s="118"/>
-      <c r="CV42" s="123"/>
+    <row r="42" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="106"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
+      <c r="S42" s="105"/>
+      <c r="T42" s="105"/>
+      <c r="U42" s="105"/>
+      <c r="V42" s="105"/>
+      <c r="W42" s="105"/>
+      <c r="X42" s="105"/>
+      <c r="Y42" s="105"/>
+      <c r="Z42" s="105"/>
+      <c r="AA42" s="105"/>
+      <c r="AB42" s="105"/>
+      <c r="AC42" s="105"/>
+      <c r="AD42" s="105"/>
+      <c r="AE42" s="105"/>
+      <c r="AF42" s="105"/>
+      <c r="AG42" s="105"/>
+      <c r="AH42" s="105"/>
+      <c r="AI42" s="105"/>
+      <c r="AJ42" s="105"/>
+      <c r="AK42" s="105"/>
+      <c r="AL42" s="105"/>
+      <c r="AM42" s="105"/>
+      <c r="AN42" s="105"/>
+      <c r="AO42" s="105"/>
+      <c r="AP42" s="105"/>
+      <c r="AQ42" s="105"/>
+      <c r="AR42" s="105"/>
+      <c r="AS42" s="105"/>
+      <c r="AT42" s="105"/>
+      <c r="AU42" s="105"/>
+      <c r="AV42" s="105"/>
+      <c r="AW42" s="105"/>
+      <c r="AX42" s="105"/>
+      <c r="AY42" s="105"/>
+      <c r="AZ42" s="105"/>
+      <c r="BA42" s="105"/>
+      <c r="BB42" s="105"/>
+      <c r="BC42" s="105"/>
+      <c r="BD42" s="105"/>
+      <c r="BE42" s="105"/>
+      <c r="BF42" s="105"/>
+      <c r="BG42" s="105"/>
+      <c r="BH42" s="105"/>
+      <c r="BI42" s="105"/>
+      <c r="BJ42" s="105"/>
+      <c r="BK42" s="105"/>
+      <c r="BL42" s="105"/>
+      <c r="BM42" s="105"/>
+      <c r="BN42" s="105"/>
+      <c r="BO42" s="105"/>
+      <c r="BP42" s="105"/>
+      <c r="BQ42" s="146"/>
+      <c r="BR42" s="146"/>
+      <c r="BS42" s="146"/>
+      <c r="BT42" s="147"/>
+      <c r="BU42" s="147"/>
+      <c r="BV42" s="147"/>
+      <c r="BW42" s="147"/>
+      <c r="BX42" s="147"/>
+      <c r="BY42" s="105"/>
+      <c r="BZ42" s="105"/>
+      <c r="CA42" s="105"/>
+      <c r="CB42" s="105"/>
+      <c r="CC42" s="105"/>
+      <c r="CD42" s="105"/>
+      <c r="CE42" s="105"/>
+      <c r="CF42" s="105"/>
+      <c r="CG42" s="105"/>
+      <c r="CH42" s="105"/>
+      <c r="CI42" s="105"/>
+      <c r="CJ42" s="105"/>
+      <c r="CK42" s="105"/>
+      <c r="CL42" s="105"/>
+      <c r="CM42" s="105"/>
+      <c r="CN42" s="105"/>
+      <c r="CO42" s="105"/>
+      <c r="CP42" s="105"/>
+      <c r="CQ42" s="105"/>
+      <c r="CR42" s="105"/>
+      <c r="CS42" s="105"/>
+      <c r="CT42" s="105"/>
+      <c r="CU42" s="105"/>
+      <c r="CV42" s="109"/>
       <c r="CW42"/>
       <c r="CX42"/>
       <c r="CY42"/>
@@ -7218,109 +7291,109 @@
       <c r="FC42"/>
       <c r="FD42"/>
     </row>
-    <row r="43" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="108" t="s">
+    <row r="43" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="119"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="118"/>
-      <c r="X43" s="118"/>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="118"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="118"/>
-      <c r="AF43" s="118"/>
-      <c r="AG43" s="118"/>
-      <c r="AH43" s="118"/>
-      <c r="AI43" s="118"/>
-      <c r="AJ43" s="118"/>
-      <c r="AK43" s="118"/>
-      <c r="AL43" s="118"/>
-      <c r="AM43" s="118"/>
-      <c r="AN43" s="118"/>
-      <c r="AO43" s="118"/>
-      <c r="AP43" s="118"/>
-      <c r="AQ43" s="118"/>
-      <c r="AR43" s="118"/>
-      <c r="AS43" s="118"/>
-      <c r="AT43" s="118"/>
-      <c r="AU43" s="118"/>
-      <c r="AV43" s="118"/>
-      <c r="AW43" s="118"/>
-      <c r="AX43" s="118"/>
-      <c r="AY43" s="118"/>
-      <c r="AZ43" s="118"/>
-      <c r="BA43" s="118"/>
-      <c r="BB43" s="118"/>
-      <c r="BC43" s="118"/>
-      <c r="BD43" s="118"/>
-      <c r="BE43" s="118"/>
-      <c r="BF43" s="118"/>
-      <c r="BG43" s="118"/>
-      <c r="BH43" s="118"/>
-      <c r="BI43" s="118"/>
-      <c r="BJ43" s="118"/>
-      <c r="BK43" s="118"/>
-      <c r="BL43" s="118"/>
-      <c r="BM43" s="118"/>
-      <c r="BN43" s="118"/>
-      <c r="BO43" s="118"/>
-      <c r="BP43" s="118"/>
-      <c r="BQ43" s="118"/>
-      <c r="BR43" s="118"/>
-      <c r="BS43" s="118"/>
-      <c r="BT43" s="118"/>
-      <c r="BU43" s="121"/>
-      <c r="BV43" s="118"/>
-      <c r="BW43" s="118"/>
-      <c r="BX43" s="118"/>
-      <c r="BY43" s="118"/>
-      <c r="BZ43" s="118"/>
-      <c r="CA43" s="118"/>
-      <c r="CB43" s="118"/>
-      <c r="CC43" s="118"/>
-      <c r="CD43" s="118"/>
-      <c r="CE43" s="118"/>
-      <c r="CF43" s="118"/>
-      <c r="CG43" s="118"/>
-      <c r="CH43" s="118"/>
-      <c r="CI43" s="118"/>
-      <c r="CJ43" s="118"/>
-      <c r="CK43" s="118"/>
-      <c r="CL43" s="118"/>
-      <c r="CM43" s="118"/>
-      <c r="CN43" s="118"/>
-      <c r="CO43" s="118"/>
-      <c r="CP43" s="118"/>
-      <c r="CQ43" s="118"/>
-      <c r="CR43" s="118"/>
-      <c r="CS43" s="118"/>
-      <c r="CT43" s="118"/>
-      <c r="CU43" s="118"/>
-      <c r="CV43" s="123"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="105"/>
+      <c r="U43" s="105"/>
+      <c r="V43" s="105"/>
+      <c r="W43" s="105"/>
+      <c r="X43" s="105"/>
+      <c r="Y43" s="105"/>
+      <c r="Z43" s="105"/>
+      <c r="AA43" s="105"/>
+      <c r="AB43" s="105"/>
+      <c r="AC43" s="105"/>
+      <c r="AD43" s="105"/>
+      <c r="AE43" s="105"/>
+      <c r="AF43" s="105"/>
+      <c r="AG43" s="105"/>
+      <c r="AH43" s="105"/>
+      <c r="AI43" s="105"/>
+      <c r="AJ43" s="105"/>
+      <c r="AK43" s="105"/>
+      <c r="AL43" s="105"/>
+      <c r="AM43" s="105"/>
+      <c r="AN43" s="105"/>
+      <c r="AO43" s="105"/>
+      <c r="AP43" s="105"/>
+      <c r="AQ43" s="105"/>
+      <c r="AR43" s="105"/>
+      <c r="AS43" s="105"/>
+      <c r="AT43" s="105"/>
+      <c r="AU43" s="105"/>
+      <c r="AV43" s="105"/>
+      <c r="AW43" s="105"/>
+      <c r="AX43" s="105"/>
+      <c r="AY43" s="105"/>
+      <c r="AZ43" s="105"/>
+      <c r="BA43" s="105"/>
+      <c r="BB43" s="105"/>
+      <c r="BC43" s="105"/>
+      <c r="BD43" s="105"/>
+      <c r="BE43" s="105"/>
+      <c r="BF43" s="105"/>
+      <c r="BG43" s="105"/>
+      <c r="BH43" s="105"/>
+      <c r="BI43" s="105"/>
+      <c r="BJ43" s="105"/>
+      <c r="BK43" s="105"/>
+      <c r="BL43" s="105"/>
+      <c r="BM43" s="105"/>
+      <c r="BN43" s="105"/>
+      <c r="BO43" s="105"/>
+      <c r="BP43" s="105"/>
+      <c r="BQ43" s="146"/>
+      <c r="BR43" s="146"/>
+      <c r="BS43" s="146"/>
+      <c r="BT43" s="147"/>
+      <c r="BU43" s="147"/>
+      <c r="BV43" s="147"/>
+      <c r="BW43" s="147"/>
+      <c r="BX43" s="147"/>
+      <c r="BY43" s="105"/>
+      <c r="BZ43" s="105"/>
+      <c r="CA43" s="105"/>
+      <c r="CB43" s="105"/>
+      <c r="CC43" s="105"/>
+      <c r="CD43" s="105"/>
+      <c r="CE43" s="105"/>
+      <c r="CF43" s="105"/>
+      <c r="CG43" s="105"/>
+      <c r="CH43" s="105"/>
+      <c r="CI43" s="105"/>
+      <c r="CJ43" s="105"/>
+      <c r="CK43" s="105"/>
+      <c r="CL43" s="105"/>
+      <c r="CM43" s="105"/>
+      <c r="CN43" s="105"/>
+      <c r="CO43" s="105"/>
+      <c r="CP43" s="105"/>
+      <c r="CQ43" s="105"/>
+      <c r="CR43" s="105"/>
+      <c r="CS43" s="105"/>
+      <c r="CT43" s="105"/>
+      <c r="CU43" s="105"/>
+      <c r="CV43" s="109"/>
       <c r="CW43"/>
       <c r="CX43"/>
       <c r="CY43"/>
@@ -7382,113 +7455,109 @@
       <c r="FC43"/>
       <c r="FD43"/>
     </row>
-    <row r="44" spans="1:160" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="111"/>
-      <c r="O44" s="111"/>
-      <c r="P44" s="111"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="111"/>
-      <c r="S44" s="111"/>
-      <c r="T44" s="111"/>
-      <c r="U44" s="111"/>
-      <c r="V44" s="111"/>
-      <c r="W44" s="111"/>
-      <c r="X44" s="111"/>
-      <c r="Y44" s="111"/>
-      <c r="Z44" s="111"/>
-      <c r="AA44" s="111"/>
-      <c r="AB44" s="111"/>
-      <c r="AC44" s="111"/>
-      <c r="AD44" s="111"/>
-      <c r="AE44" s="111"/>
-      <c r="AF44" s="111"/>
-      <c r="AG44" s="111"/>
-      <c r="AH44" s="111"/>
-      <c r="AI44" s="111"/>
-      <c r="AJ44" s="111"/>
-      <c r="AK44" s="111"/>
-      <c r="AL44" s="111"/>
-      <c r="AM44" s="111"/>
-      <c r="AN44" s="111"/>
-      <c r="AO44" s="111"/>
-      <c r="AP44" s="111"/>
-      <c r="AQ44" s="111"/>
-      <c r="AR44" s="111"/>
-      <c r="AS44" s="111"/>
-      <c r="AT44" s="111"/>
-      <c r="AU44" s="111"/>
-      <c r="AV44" s="111"/>
-      <c r="AW44" s="111"/>
-      <c r="AX44" s="111"/>
-      <c r="AY44" s="111"/>
-      <c r="AZ44" s="111"/>
-      <c r="BA44" s="111"/>
-      <c r="BB44" s="111"/>
-      <c r="BC44" s="111"/>
-      <c r="BD44" s="111"/>
-      <c r="BE44" s="111"/>
-      <c r="BF44" s="111"/>
-      <c r="BG44" s="111"/>
-      <c r="BH44" s="111"/>
-      <c r="BI44" s="111"/>
-      <c r="BJ44" s="111"/>
-      <c r="BK44" s="111"/>
-      <c r="BL44" s="111"/>
-      <c r="BM44" s="111"/>
-      <c r="BN44" s="111"/>
-      <c r="BO44" s="111"/>
-      <c r="BP44" s="111"/>
-      <c r="BQ44" s="111"/>
-      <c r="BR44" s="111"/>
-      <c r="BS44" s="111"/>
-      <c r="BT44" s="111"/>
-      <c r="BU44" s="111"/>
-      <c r="BV44" s="111"/>
-      <c r="BW44" s="112"/>
-      <c r="BX44" s="111"/>
-      <c r="BY44" s="111"/>
-      <c r="BZ44" s="111"/>
-      <c r="CA44" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB44" s="114"/>
-      <c r="CC44" s="114"/>
-      <c r="CD44" s="114"/>
-      <c r="CE44" s="114"/>
-      <c r="CF44" s="114"/>
-      <c r="CG44" s="114"/>
-      <c r="CH44" s="111"/>
-      <c r="CI44" s="111"/>
-      <c r="CJ44" s="111"/>
-      <c r="CK44" s="111"/>
-      <c r="CL44" s="111"/>
-      <c r="CM44" s="111"/>
-      <c r="CN44" s="111"/>
-      <c r="CO44" s="111"/>
-      <c r="CP44" s="111"/>
-      <c r="CQ44" s="111"/>
-      <c r="CR44" s="111"/>
-      <c r="CS44" s="111"/>
-      <c r="CT44" s="111"/>
-      <c r="CU44" s="111"/>
-      <c r="CV44" s="124"/>
+    <row r="44" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="106"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="105"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="105"/>
+      <c r="R44" s="105"/>
+      <c r="S44" s="105"/>
+      <c r="T44" s="105"/>
+      <c r="U44" s="105"/>
+      <c r="V44" s="105"/>
+      <c r="W44" s="105"/>
+      <c r="X44" s="105"/>
+      <c r="Y44" s="105"/>
+      <c r="Z44" s="105"/>
+      <c r="AA44" s="105"/>
+      <c r="AB44" s="105"/>
+      <c r="AC44" s="105"/>
+      <c r="AD44" s="105"/>
+      <c r="AE44" s="105"/>
+      <c r="AF44" s="105"/>
+      <c r="AG44" s="105"/>
+      <c r="AH44" s="105"/>
+      <c r="AI44" s="105"/>
+      <c r="AJ44" s="105"/>
+      <c r="AK44" s="105"/>
+      <c r="AL44" s="105"/>
+      <c r="AM44" s="105"/>
+      <c r="AN44" s="105"/>
+      <c r="AO44" s="105"/>
+      <c r="AP44" s="105"/>
+      <c r="AQ44" s="105"/>
+      <c r="AR44" s="105"/>
+      <c r="AS44" s="105"/>
+      <c r="AT44" s="105"/>
+      <c r="AU44" s="105"/>
+      <c r="AV44" s="105"/>
+      <c r="AW44" s="105"/>
+      <c r="AX44" s="105"/>
+      <c r="AY44" s="105"/>
+      <c r="AZ44" s="105"/>
+      <c r="BA44" s="105"/>
+      <c r="BB44" s="105"/>
+      <c r="BC44" s="105"/>
+      <c r="BD44" s="105"/>
+      <c r="BE44" s="105"/>
+      <c r="BF44" s="105"/>
+      <c r="BG44" s="105"/>
+      <c r="BH44" s="105"/>
+      <c r="BI44" s="105"/>
+      <c r="BJ44" s="105"/>
+      <c r="BK44" s="105"/>
+      <c r="BL44" s="105"/>
+      <c r="BM44" s="105"/>
+      <c r="BN44" s="105"/>
+      <c r="BO44" s="105"/>
+      <c r="BP44" s="105"/>
+      <c r="BQ44" s="146"/>
+      <c r="BR44" s="146"/>
+      <c r="BS44" s="146"/>
+      <c r="BT44" s="147"/>
+      <c r="BU44" s="147"/>
+      <c r="BV44" s="147"/>
+      <c r="BW44" s="147"/>
+      <c r="BX44" s="147"/>
+      <c r="BY44" s="105"/>
+      <c r="BZ44" s="105"/>
+      <c r="CA44" s="105"/>
+      <c r="CB44" s="105"/>
+      <c r="CC44" s="105"/>
+      <c r="CD44" s="105"/>
+      <c r="CE44" s="105"/>
+      <c r="CF44" s="105"/>
+      <c r="CG44" s="105"/>
+      <c r="CH44" s="105"/>
+      <c r="CI44" s="105"/>
+      <c r="CJ44" s="105"/>
+      <c r="CK44" s="105"/>
+      <c r="CL44" s="105"/>
+      <c r="CM44" s="105"/>
+      <c r="CN44" s="105"/>
+      <c r="CO44" s="105"/>
+      <c r="CP44" s="105"/>
+      <c r="CQ44" s="105"/>
+      <c r="CR44" s="105"/>
+      <c r="CS44" s="105"/>
+      <c r="CT44" s="105"/>
+      <c r="CU44" s="105"/>
+      <c r="CV44" s="109"/>
       <c r="CW44"/>
       <c r="CX44"/>
       <c r="CY44"/>
@@ -7550,12 +7619,109 @@
       <c r="FC44"/>
       <c r="FD44"/>
     </row>
-    <row r="45" spans="1:160" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="64"/>
-      <c r="CV45" s="65"/>
+    <row r="45" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="106"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="105"/>
+      <c r="T45" s="105"/>
+      <c r="U45" s="105"/>
+      <c r="V45" s="105"/>
+      <c r="W45" s="105"/>
+      <c r="X45" s="105"/>
+      <c r="Y45" s="105"/>
+      <c r="Z45" s="105"/>
+      <c r="AA45" s="105"/>
+      <c r="AB45" s="105"/>
+      <c r="AC45" s="105"/>
+      <c r="AD45" s="105"/>
+      <c r="AE45" s="105"/>
+      <c r="AF45" s="105"/>
+      <c r="AG45" s="105"/>
+      <c r="AH45" s="105"/>
+      <c r="AI45" s="105"/>
+      <c r="AJ45" s="105"/>
+      <c r="AK45" s="105"/>
+      <c r="AL45" s="105"/>
+      <c r="AM45" s="105"/>
+      <c r="AN45" s="105"/>
+      <c r="AO45" s="105"/>
+      <c r="AP45" s="105"/>
+      <c r="AQ45" s="105"/>
+      <c r="AR45" s="105"/>
+      <c r="AS45" s="105"/>
+      <c r="AT45" s="105"/>
+      <c r="AU45" s="105"/>
+      <c r="AV45" s="105"/>
+      <c r="AW45" s="105"/>
+      <c r="AX45" s="105"/>
+      <c r="AY45" s="105"/>
+      <c r="AZ45" s="105"/>
+      <c r="BA45" s="105"/>
+      <c r="BB45" s="105"/>
+      <c r="BC45" s="105"/>
+      <c r="BD45" s="105"/>
+      <c r="BE45" s="105"/>
+      <c r="BF45" s="105"/>
+      <c r="BG45" s="105"/>
+      <c r="BH45" s="105"/>
+      <c r="BI45" s="105"/>
+      <c r="BJ45" s="105"/>
+      <c r="BK45" s="105"/>
+      <c r="BL45" s="105"/>
+      <c r="BM45" s="105"/>
+      <c r="BN45" s="105"/>
+      <c r="BO45" s="105"/>
+      <c r="BP45" s="105"/>
+      <c r="BQ45" s="146"/>
+      <c r="BR45" s="146"/>
+      <c r="BS45" s="146"/>
+      <c r="BT45" s="147"/>
+      <c r="BU45" s="147"/>
+      <c r="BV45" s="147"/>
+      <c r="BW45" s="147"/>
+      <c r="BX45" s="147"/>
+      <c r="BY45" s="105"/>
+      <c r="BZ45" s="105"/>
+      <c r="CA45" s="105"/>
+      <c r="CB45" s="105"/>
+      <c r="CC45" s="105"/>
+      <c r="CD45" s="105"/>
+      <c r="CE45" s="105"/>
+      <c r="CF45" s="105"/>
+      <c r="CG45" s="105"/>
+      <c r="CH45" s="105"/>
+      <c r="CI45" s="105"/>
+      <c r="CJ45" s="105"/>
+      <c r="CK45" s="105"/>
+      <c r="CL45" s="105"/>
+      <c r="CM45" s="105"/>
+      <c r="CN45" s="105"/>
+      <c r="CO45" s="105"/>
+      <c r="CP45" s="105"/>
+      <c r="CQ45" s="105"/>
+      <c r="CR45" s="105"/>
+      <c r="CS45" s="105"/>
+      <c r="CT45" s="105"/>
+      <c r="CU45" s="105"/>
+      <c r="CV45" s="109"/>
       <c r="CW45"/>
       <c r="CX45"/>
       <c r="CY45"/>
@@ -7617,109 +7783,131 @@
       <c r="FC45"/>
       <c r="FD45"/>
     </row>
-    <row r="46" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14"/>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="14"/>
-      <c r="AM46" s="14"/>
-      <c r="AN46" s="14"/>
-      <c r="AO46" s="14"/>
-      <c r="AP46" s="14"/>
-      <c r="AQ46" s="14"/>
-      <c r="AR46" s="14"/>
-      <c r="AS46" s="14"/>
-      <c r="AT46" s="14"/>
-      <c r="AU46" s="14"/>
-      <c r="AV46" s="14"/>
-      <c r="AW46" s="14"/>
-      <c r="AX46" s="14"/>
-      <c r="AY46" s="14"/>
-      <c r="AZ46" s="14"/>
-      <c r="BA46" s="14"/>
-      <c r="BB46" s="14"/>
-      <c r="BC46" s="14"/>
-      <c r="BD46" s="14"/>
-      <c r="BE46" s="14"/>
-      <c r="BF46" s="14"/>
-      <c r="BG46" s="14"/>
-      <c r="BH46" s="14"/>
-      <c r="BI46" s="14"/>
-      <c r="BJ46" s="14"/>
-      <c r="BK46" s="14"/>
-      <c r="BL46" s="14"/>
-      <c r="BM46" s="14"/>
-      <c r="BN46" s="14"/>
-      <c r="BO46" s="14"/>
-      <c r="BP46" s="14"/>
-      <c r="BQ46" s="14"/>
-      <c r="BR46" s="14"/>
-      <c r="BS46" s="14"/>
-      <c r="BT46" s="14"/>
-      <c r="BU46" s="14"/>
-      <c r="BV46" s="14"/>
-      <c r="BW46" s="14"/>
-      <c r="BX46" s="14"/>
-      <c r="BY46" s="14"/>
-      <c r="BZ46" s="14"/>
-      <c r="CA46" s="14"/>
-      <c r="CB46" s="14"/>
-      <c r="CC46" s="14"/>
-      <c r="CD46" s="14"/>
-      <c r="CE46" s="14"/>
-      <c r="CF46" s="14"/>
-      <c r="CG46" s="14"/>
-      <c r="CH46" s="126"/>
-      <c r="CI46" s="14"/>
-      <c r="CJ46" s="14"/>
-      <c r="CK46" s="14"/>
-      <c r="CL46" s="14"/>
-      <c r="CM46" s="14"/>
-      <c r="CN46" s="14"/>
-      <c r="CO46" s="14"/>
-      <c r="CP46" s="14"/>
-      <c r="CQ46" s="14"/>
-      <c r="CR46" s="14"/>
-      <c r="CS46" s="14"/>
-      <c r="CT46" s="14"/>
-      <c r="CU46" s="14"/>
-      <c r="CV46" s="67"/>
+    <row r="46" spans="1:160" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="100"/>
+      <c r="T46" s="100"/>
+      <c r="U46" s="100"/>
+      <c r="V46" s="100"/>
+      <c r="W46" s="100"/>
+      <c r="X46" s="100"/>
+      <c r="Y46" s="100"/>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="100"/>
+      <c r="AB46" s="100"/>
+      <c r="AC46" s="100"/>
+      <c r="AD46" s="100"/>
+      <c r="AE46" s="100"/>
+      <c r="AF46" s="100"/>
+      <c r="AG46" s="100"/>
+      <c r="AH46" s="100"/>
+      <c r="AI46" s="100"/>
+      <c r="AJ46" s="100"/>
+      <c r="AK46" s="100"/>
+      <c r="AL46" s="100"/>
+      <c r="AM46" s="100"/>
+      <c r="AN46" s="100"/>
+      <c r="AO46" s="100"/>
+      <c r="AP46" s="100"/>
+      <c r="AQ46" s="100"/>
+      <c r="AR46" s="100"/>
+      <c r="AS46" s="100"/>
+      <c r="AT46" s="100"/>
+      <c r="AU46" s="100"/>
+      <c r="AV46" s="100"/>
+      <c r="AW46" s="100"/>
+      <c r="AX46" s="100"/>
+      <c r="AY46" s="100"/>
+      <c r="AZ46" s="100"/>
+      <c r="BA46" s="100"/>
+      <c r="BB46" s="100"/>
+      <c r="BC46" s="100"/>
+      <c r="BD46" s="100"/>
+      <c r="BE46" s="100"/>
+      <c r="BF46" s="100"/>
+      <c r="BG46" s="100"/>
+      <c r="BH46" s="100"/>
+      <c r="BI46" s="100"/>
+      <c r="BJ46" s="100"/>
+      <c r="BK46" s="100"/>
+      <c r="BL46" s="100"/>
+      <c r="BM46" s="100"/>
+      <c r="BN46" s="100"/>
+      <c r="BO46" s="100"/>
+      <c r="BP46" s="100"/>
+      <c r="BQ46" s="100"/>
+      <c r="BR46" s="100"/>
+      <c r="BS46" s="100"/>
+      <c r="BT46" s="100"/>
+      <c r="BU46" s="100"/>
+      <c r="BV46" s="100"/>
+      <c r="BW46" s="101"/>
+      <c r="BX46" s="100"/>
+      <c r="BY46" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ46" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA46" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB46" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC46" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD46" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE46" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF46" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG46" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH46" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI46" s="100"/>
+      <c r="CJ46" s="100"/>
+      <c r="CK46" s="100"/>
+      <c r="CL46" s="100"/>
+      <c r="CM46" s="100"/>
+      <c r="CN46" s="100"/>
+      <c r="CO46" s="100"/>
+      <c r="CP46" s="100"/>
+      <c r="CQ46" s="100"/>
+      <c r="CR46" s="100"/>
+      <c r="CS46" s="100"/>
+      <c r="CT46" s="100"/>
+      <c r="CU46" s="100"/>
+      <c r="CV46" s="110"/>
       <c r="CW46"/>
       <c r="CX46"/>
       <c r="CY46"/>
@@ -7781,109 +7969,12 @@
       <c r="FC46"/>
       <c r="FD46"/>
     </row>
-    <row r="47" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="14"/>
-      <c r="AA47" s="14"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="14"/>
-      <c r="AD47" s="14"/>
-      <c r="AE47" s="14"/>
-      <c r="AF47" s="14"/>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="14"/>
-      <c r="AI47" s="14"/>
-      <c r="AJ47" s="14"/>
-      <c r="AK47" s="14"/>
-      <c r="AL47" s="14"/>
-      <c r="AM47" s="14"/>
-      <c r="AN47" s="14"/>
-      <c r="AO47" s="14"/>
-      <c r="AP47" s="14"/>
-      <c r="AQ47" s="14"/>
-      <c r="AR47" s="14"/>
-      <c r="AS47" s="14"/>
-      <c r="AT47" s="14"/>
-      <c r="AU47" s="14"/>
-      <c r="AV47" s="14"/>
-      <c r="AW47" s="14"/>
-      <c r="AX47" s="14"/>
-      <c r="AY47" s="14"/>
-      <c r="AZ47" s="14"/>
-      <c r="BA47" s="14"/>
-      <c r="BB47" s="14"/>
-      <c r="BC47" s="14"/>
-      <c r="BD47" s="14"/>
-      <c r="BE47" s="14"/>
-      <c r="BF47" s="14"/>
-      <c r="BG47" s="14"/>
-      <c r="BH47" s="14"/>
-      <c r="BI47" s="14"/>
-      <c r="BJ47" s="14"/>
-      <c r="BK47" s="14"/>
-      <c r="BL47" s="14"/>
-      <c r="BM47" s="14"/>
-      <c r="BN47" s="14"/>
-      <c r="BO47" s="14"/>
-      <c r="BP47" s="14"/>
-      <c r="BQ47" s="14"/>
-      <c r="BR47" s="14"/>
-      <c r="BS47" s="14"/>
-      <c r="BT47" s="14"/>
-      <c r="BU47" s="14"/>
-      <c r="BV47" s="14"/>
-      <c r="BW47" s="14"/>
-      <c r="BX47" s="14"/>
-      <c r="BY47" s="14"/>
-      <c r="BZ47" s="14"/>
-      <c r="CA47" s="14"/>
-      <c r="CB47" s="14"/>
-      <c r="CC47" s="14"/>
-      <c r="CD47" s="14"/>
-      <c r="CE47" s="14"/>
-      <c r="CF47" s="14"/>
-      <c r="CG47" s="14"/>
-      <c r="CH47" s="42"/>
-      <c r="CI47" s="14"/>
-      <c r="CJ47" s="14"/>
-      <c r="CK47" s="14"/>
-      <c r="CL47" s="14"/>
-      <c r="CM47" s="14"/>
-      <c r="CN47" s="14"/>
-      <c r="CO47" s="14"/>
-      <c r="CP47" s="14"/>
-      <c r="CQ47" s="14"/>
-      <c r="CR47" s="14"/>
-      <c r="CS47" s="14"/>
-      <c r="CT47" s="14"/>
-      <c r="CU47" s="14"/>
-      <c r="CV47" s="67"/>
+    <row r="47" spans="1:160" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="55"/>
+      <c r="CV47" s="56"/>
       <c r="CW47"/>
       <c r="CX47"/>
       <c r="CY47"/>
@@ -7945,11 +8036,11 @@
       <c r="FC47"/>
       <c r="FD47"/>
     </row>
-    <row r="48" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="66"/>
+    <row r="48" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="57"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -8033,13 +8124,19 @@
       <c r="CE48" s="14"/>
       <c r="CF48" s="14"/>
       <c r="CG48" s="14"/>
-      <c r="CH48" s="14"/>
-      <c r="CI48" s="14"/>
-      <c r="CJ48" s="14"/>
-      <c r="CK48" s="14"/>
-      <c r="CL48" s="14"/>
-      <c r="CM48" s="14"/>
-      <c r="CN48" s="14"/>
+      <c r="CH48" s="121"/>
+      <c r="CI48" s="148"/>
+      <c r="CJ48" s="148"/>
+      <c r="CK48" s="148"/>
+      <c r="CL48" s="149" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM48" s="149" t="s">
+        <v>79</v>
+      </c>
+      <c r="CN48" s="149" t="s">
+        <v>79</v>
+      </c>
       <c r="CO48" s="14"/>
       <c r="CP48" s="14"/>
       <c r="CQ48" s="14"/>
@@ -8047,7 +8144,7 @@
       <c r="CS48" s="14"/>
       <c r="CT48" s="14"/>
       <c r="CU48" s="14"/>
-      <c r="CV48" s="67"/>
+      <c r="CV48" s="58"/>
       <c r="CW48"/>
       <c r="CX48"/>
       <c r="CY48"/>
@@ -8109,11 +8206,11 @@
       <c r="FC48"/>
       <c r="FD48"/>
     </row>
-    <row r="49" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="66"/>
+    <row r="49" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="57"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -8198,9 +8295,9 @@
       <c r="CF49" s="14"/>
       <c r="CG49" s="14"/>
       <c r="CH49" s="14"/>
-      <c r="CI49" s="42"/>
-      <c r="CJ49" s="42"/>
-      <c r="CK49" s="14"/>
+      <c r="CI49" s="121"/>
+      <c r="CJ49" s="121"/>
+      <c r="CK49" s="121"/>
       <c r="CL49" s="14"/>
       <c r="CM49" s="14"/>
       <c r="CN49" s="14"/>
@@ -8211,7 +8308,7 @@
       <c r="CS49" s="14"/>
       <c r="CT49" s="14"/>
       <c r="CU49" s="14"/>
-      <c r="CV49" s="67"/>
+      <c r="CV49" s="58"/>
       <c r="CW49"/>
       <c r="CX49"/>
       <c r="CY49"/>
@@ -8273,11 +8370,11 @@
       <c r="FC49"/>
       <c r="FD49"/>
     </row>
-    <row r="50" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="66"/>
+        <v>25</v>
+      </c>
+      <c r="B50" s="57"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -8362,12 +8459,12 @@
       <c r="CF50" s="14"/>
       <c r="CG50" s="14"/>
       <c r="CH50" s="14"/>
-      <c r="CI50" s="42"/>
-      <c r="CJ50" s="42"/>
-      <c r="CK50" s="14"/>
-      <c r="CL50" s="14"/>
-      <c r="CM50" s="14"/>
-      <c r="CN50" s="14"/>
+      <c r="CI50" s="121"/>
+      <c r="CJ50" s="121"/>
+      <c r="CK50" s="121"/>
+      <c r="CL50" s="149"/>
+      <c r="CM50" s="149"/>
+      <c r="CN50" s="149"/>
       <c r="CO50" s="14"/>
       <c r="CP50" s="14"/>
       <c r="CQ50" s="14"/>
@@ -8375,7 +8472,7 @@
       <c r="CS50" s="14"/>
       <c r="CT50" s="14"/>
       <c r="CU50" s="14"/>
-      <c r="CV50" s="67"/>
+      <c r="CV50" s="58"/>
       <c r="CW50"/>
       <c r="CX50"/>
       <c r="CY50"/>
@@ -8437,11 +8534,11 @@
       <c r="FC50"/>
       <c r="FD50"/>
     </row>
-    <row r="51" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="66"/>
+    <row r="51" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="57"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -8526,9 +8623,9 @@
       <c r="CF51" s="14"/>
       <c r="CG51" s="14"/>
       <c r="CH51" s="14"/>
-      <c r="CI51" s="14"/>
-      <c r="CJ51" s="14"/>
-      <c r="CK51" s="14"/>
+      <c r="CI51" s="121"/>
+      <c r="CJ51" s="121"/>
+      <c r="CK51" s="121"/>
       <c r="CL51" s="14"/>
       <c r="CM51" s="14"/>
       <c r="CN51" s="14"/>
@@ -8539,7 +8636,7 @@
       <c r="CS51" s="14"/>
       <c r="CT51" s="14"/>
       <c r="CU51" s="14"/>
-      <c r="CV51" s="67"/>
+      <c r="CV51" s="58"/>
       <c r="CW51"/>
       <c r="CX51"/>
       <c r="CY51"/>
@@ -8601,11 +8698,11 @@
       <c r="FC51"/>
       <c r="FD51"/>
     </row>
-    <row r="52" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="66"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -8690,12 +8787,12 @@
       <c r="CF52" s="14"/>
       <c r="CG52" s="14"/>
       <c r="CH52" s="14"/>
-      <c r="CI52" s="14"/>
-      <c r="CJ52" s="14"/>
-      <c r="CK52" s="42"/>
-      <c r="CL52" s="14"/>
-      <c r="CM52" s="14"/>
-      <c r="CN52" s="14"/>
+      <c r="CI52" s="121"/>
+      <c r="CJ52" s="121"/>
+      <c r="CK52" s="121"/>
+      <c r="CL52" s="149"/>
+      <c r="CM52" s="149"/>
+      <c r="CN52" s="149"/>
       <c r="CO52" s="14"/>
       <c r="CP52" s="14"/>
       <c r="CQ52" s="14"/>
@@ -8703,7 +8800,7 @@
       <c r="CS52" s="14"/>
       <c r="CT52" s="14"/>
       <c r="CU52" s="14"/>
-      <c r="CV52" s="67"/>
+      <c r="CV52" s="58"/>
       <c r="CW52"/>
       <c r="CX52"/>
       <c r="CY52"/>
@@ -8765,12 +8862,12 @@
       <c r="FC52"/>
       <c r="FD52"/>
     </row>
-    <row r="53" spans="1:160" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:160" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>55</v>
       </c>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
@@ -8859,17 +8956,29 @@
       <c r="CI53" s="34"/>
       <c r="CJ53" s="34"/>
       <c r="CK53" s="34"/>
-      <c r="CL53" s="50"/>
-      <c r="CM53" s="50"/>
-      <c r="CN53" s="50"/>
-      <c r="CO53" s="50"/>
-      <c r="CP53" s="50"/>
-      <c r="CQ53" s="50"/>
-      <c r="CR53" s="50"/>
-      <c r="CS53" s="50"/>
-      <c r="CT53" s="50"/>
-      <c r="CU53" s="50"/>
-      <c r="CV53" s="135"/>
+      <c r="CL53" s="135"/>
+      <c r="CM53" s="135"/>
+      <c r="CN53" s="135"/>
+      <c r="CO53" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP53" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ53" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR53" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS53" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="CT53" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="CU53" s="130"/>
+      <c r="CV53" s="131"/>
       <c r="CW53"/>
       <c r="CX53"/>
       <c r="CY53"/>
@@ -8931,12 +9040,12 @@
       <c r="FC53"/>
       <c r="FD53"/>
     </row>
-    <row r="54" spans="1:160" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="69"/>
-      <c r="CV54" s="81"/>
+    <row r="54" spans="1:160" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="60"/>
+      <c r="CV54" s="70"/>
       <c r="CW54"/>
       <c r="CX54"/>
       <c r="CY54"/>
@@ -8998,20 +9107,20 @@
       <c r="FC54"/>
       <c r="FD54"/>
     </row>
-    <row r="55" spans="1:160" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:160" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
-      <c r="B55" s="70"/>
-      <c r="G55" s="75"/>
-      <c r="Q55" s="75"/>
-      <c r="X55" s="75"/>
-      <c r="AC55" s="75"/>
-      <c r="AR55" s="75"/>
-      <c r="BI55" s="75"/>
-      <c r="BN55" s="75"/>
-      <c r="BW55" s="75"/>
-      <c r="CL55" s="75"/>
-      <c r="CT55" s="75"/>
-      <c r="CV55" s="71"/>
+      <c r="B55" s="61"/>
+      <c r="G55" s="66"/>
+      <c r="Q55" s="66"/>
+      <c r="X55" s="66"/>
+      <c r="AC55" s="66"/>
+      <c r="AR55" s="66"/>
+      <c r="BI55" s="66"/>
+      <c r="BN55" s="66"/>
+      <c r="BW55" s="66"/>
+      <c r="CL55" s="66"/>
+      <c r="CT55" s="66"/>
+      <c r="CV55" s="62"/>
       <c r="CW55"/>
       <c r="CX55"/>
       <c r="CY55"/>
@@ -9076,12 +9185,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="6">
-    <mergeCell ref="BR1:CG1"/>
-    <mergeCell ref="CH1:CV1"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="AX1:BQ1"/>
+    <mergeCell ref="CI1:CV1"/>
     <mergeCell ref="B1:P1"/>
-    <mergeCell ref="Q1:AR1"/>
+    <mergeCell ref="Q1:AO1"/>
+    <mergeCell ref="BO1:CH1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:BN1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/planejamento/cronograma/2021-1S-2D-cronograma.xlsx
+++ b/planejamento/cronograma/2021-1S-2D-cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulo.santos\Downloads\SENAI\CT\2021-1S-2D\senai-dev-1s2021-alunos\planejamento\cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22366A32-477B-4127-9919-A8737597E2F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36C799E-8721-402D-A9FF-F8F647FF1EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VISÃO GERAL" sheetId="15" r:id="rId1"/>
@@ -532,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -739,17 +739,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1004,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1069,38 +1058,37 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1120,84 +1108,73 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1207,43 +1184,46 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41537EB-D492-4302-88EF-5E854D108BA5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -1662,7 +1642,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="76" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1692,7 +1672,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="76" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1737,7 +1717,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="77" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1807,7 +1787,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="77" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1842,7 +1822,7 @@
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="78" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1902,7 +1882,7 @@
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="78" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1947,7 +1927,7 @@
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="80" t="s">
+      <c r="A62" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1987,7 +1967,7 @@
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="80" t="s">
+      <c r="A70" s="79" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2036,7 +2016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2046,445 +2026,445 @@
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="97.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="63"/>
+    <col min="2" max="2" width="8.33203125" style="62"/>
     <col min="3" max="6" width="8.33203125" style="10"/>
-    <col min="7" max="7" width="8.33203125" style="65"/>
+    <col min="7" max="7" width="8.33203125" style="64"/>
     <col min="8" max="16" width="8.33203125" style="10"/>
-    <col min="17" max="17" width="8.33203125" style="65"/>
+    <col min="17" max="17" width="8.33203125" style="64"/>
     <col min="18" max="23" width="8.33203125" style="10"/>
-    <col min="24" max="24" width="8.33203125" style="65"/>
+    <col min="24" max="24" width="8.33203125" style="64"/>
     <col min="25" max="28" width="8.33203125" style="10"/>
-    <col min="29" max="29" width="8.33203125" style="65" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" style="64" customWidth="1"/>
     <col min="30" max="43" width="8.33203125" style="10"/>
-    <col min="44" max="44" width="8.33203125" style="65"/>
+    <col min="44" max="44" width="8.33203125" style="64"/>
     <col min="45" max="60" width="8.33203125" style="10"/>
-    <col min="61" max="61" width="8.33203125" style="65"/>
+    <col min="61" max="61" width="8.33203125" style="64"/>
     <col min="62" max="65" width="8.33203125" style="10"/>
-    <col min="66" max="66" width="8.33203125" style="65"/>
+    <col min="66" max="66" width="8.33203125" style="64"/>
     <col min="67" max="74" width="8.33203125" style="10"/>
-    <col min="75" max="75" width="8.33203125" style="65"/>
+    <col min="75" max="75" width="8.33203125" style="64"/>
     <col min="76" max="89" width="8.33203125" style="10"/>
-    <col min="90" max="90" width="8.33203125" style="65"/>
+    <col min="90" max="90" width="8.33203125" style="64"/>
     <col min="91" max="97" width="8.33203125" style="10"/>
-    <col min="98" max="98" width="8.33203125" style="65"/>
+    <col min="98" max="98" width="8.33203125" style="64"/>
     <col min="99" max="99" width="8.33203125" style="10"/>
-    <col min="100" max="100" width="8.33203125" style="64"/>
+    <col min="100" max="100" width="8.33203125" style="63"/>
     <col min="161" max="16384" width="8.33203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:160" x14ac:dyDescent="0.3">
-      <c r="A1" s="96"/>
-      <c r="B1" s="152" t="s">
+      <c r="A1" s="95"/>
+      <c r="B1" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="155" t="s">
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="156"/>
-      <c r="AB1" s="156"/>
-      <c r="AC1" s="156"/>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="156"/>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="156"/>
-      <c r="AK1" s="156"/>
-      <c r="AL1" s="156"/>
-      <c r="AM1" s="156"/>
-      <c r="AN1" s="156"/>
-      <c r="AO1" s="157"/>
-      <c r="AP1" s="161" t="s">
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="151"/>
+      <c r="AJ1" s="151"/>
+      <c r="AK1" s="151"/>
+      <c r="AL1" s="151"/>
+      <c r="AM1" s="151"/>
+      <c r="AN1" s="151"/>
+      <c r="AO1" s="152"/>
+      <c r="AP1" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="AQ1" s="162"/>
-      <c r="AR1" s="162"/>
-      <c r="AS1" s="163"/>
-      <c r="AT1" s="162" t="s">
+      <c r="AQ1" s="157"/>
+      <c r="AR1" s="157"/>
+      <c r="AS1" s="158"/>
+      <c r="AT1" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="162"/>
-      <c r="AV1" s="162"/>
-      <c r="AW1" s="162"/>
-      <c r="AX1" s="162"/>
-      <c r="AY1" s="162"/>
-      <c r="AZ1" s="162"/>
-      <c r="BA1" s="162"/>
-      <c r="BB1" s="162"/>
-      <c r="BC1" s="162"/>
-      <c r="BD1" s="162"/>
-      <c r="BE1" s="162"/>
-      <c r="BF1" s="162"/>
-      <c r="BG1" s="162"/>
-      <c r="BH1" s="162"/>
-      <c r="BI1" s="162"/>
-      <c r="BJ1" s="162"/>
-      <c r="BK1" s="162"/>
-      <c r="BL1" s="162"/>
-      <c r="BM1" s="162"/>
-      <c r="BN1" s="163"/>
-      <c r="BO1" s="158" t="s">
+      <c r="AU1" s="157"/>
+      <c r="AV1" s="157"/>
+      <c r="AW1" s="157"/>
+      <c r="AX1" s="157"/>
+      <c r="AY1" s="157"/>
+      <c r="AZ1" s="157"/>
+      <c r="BA1" s="157"/>
+      <c r="BB1" s="157"/>
+      <c r="BC1" s="157"/>
+      <c r="BD1" s="157"/>
+      <c r="BE1" s="157"/>
+      <c r="BF1" s="157"/>
+      <c r="BG1" s="157"/>
+      <c r="BH1" s="157"/>
+      <c r="BI1" s="157"/>
+      <c r="BJ1" s="157"/>
+      <c r="BK1" s="157"/>
+      <c r="BL1" s="157"/>
+      <c r="BM1" s="157"/>
+      <c r="BN1" s="158"/>
+      <c r="BO1" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="BP1" s="159"/>
-      <c r="BQ1" s="159"/>
-      <c r="BR1" s="159"/>
-      <c r="BS1" s="159"/>
-      <c r="BT1" s="159"/>
-      <c r="BU1" s="159"/>
-      <c r="BV1" s="159"/>
-      <c r="BW1" s="159"/>
-      <c r="BX1" s="159"/>
-      <c r="BY1" s="159"/>
-      <c r="BZ1" s="159"/>
-      <c r="CA1" s="159"/>
-      <c r="CB1" s="159"/>
-      <c r="CC1" s="159"/>
-      <c r="CD1" s="159"/>
-      <c r="CE1" s="159"/>
-      <c r="CF1" s="159"/>
-      <c r="CG1" s="159"/>
-      <c r="CH1" s="160"/>
-      <c r="CI1" s="150" t="s">
+      <c r="BP1" s="154"/>
+      <c r="BQ1" s="154"/>
+      <c r="BR1" s="154"/>
+      <c r="BS1" s="154"/>
+      <c r="BT1" s="154"/>
+      <c r="BU1" s="154"/>
+      <c r="BV1" s="154"/>
+      <c r="BW1" s="154"/>
+      <c r="BX1" s="154"/>
+      <c r="BY1" s="154"/>
+      <c r="BZ1" s="154"/>
+      <c r="CA1" s="154"/>
+      <c r="CB1" s="154"/>
+      <c r="CC1" s="154"/>
+      <c r="CD1" s="154"/>
+      <c r="CE1" s="154"/>
+      <c r="CF1" s="154"/>
+      <c r="CG1" s="154"/>
+      <c r="CH1" s="155"/>
+      <c r="CI1" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="CJ1" s="150"/>
-      <c r="CK1" s="150"/>
-      <c r="CL1" s="150"/>
-      <c r="CM1" s="150"/>
-      <c r="CN1" s="150"/>
-      <c r="CO1" s="150"/>
-      <c r="CP1" s="150"/>
-      <c r="CQ1" s="150"/>
-      <c r="CR1" s="150"/>
-      <c r="CS1" s="150"/>
-      <c r="CT1" s="150"/>
-      <c r="CU1" s="150"/>
-      <c r="CV1" s="151"/>
+      <c r="CJ1" s="145"/>
+      <c r="CK1" s="145"/>
+      <c r="CL1" s="145"/>
+      <c r="CM1" s="145"/>
+      <c r="CN1" s="145"/>
+      <c r="CO1" s="145"/>
+      <c r="CP1" s="145"/>
+      <c r="CQ1" s="145"/>
+      <c r="CR1" s="145"/>
+      <c r="CS1" s="145"/>
+      <c r="CT1" s="145"/>
+      <c r="CU1" s="145"/>
+      <c r="CV1" s="146"/>
     </row>
     <row r="2" spans="1:160" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="70">
         <v>44245</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="71">
         <v>44246</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="71">
         <v>44249</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="71">
         <v>44250</v>
       </c>
-      <c r="F2" s="72">
+      <c r="F2" s="71">
         <v>44251</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="71">
         <v>44252</v>
       </c>
-      <c r="H2" s="72">
+      <c r="H2" s="71">
         <v>44253</v>
       </c>
-      <c r="I2" s="72">
+      <c r="I2" s="71">
         <v>44256</v>
       </c>
-      <c r="J2" s="72">
+      <c r="J2" s="71">
         <v>44257</v>
       </c>
-      <c r="K2" s="72">
+      <c r="K2" s="71">
         <v>44258</v>
       </c>
-      <c r="L2" s="72">
+      <c r="L2" s="71">
         <v>44259</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="71">
         <v>44260</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="71">
         <v>44263</v>
       </c>
-      <c r="O2" s="72">
+      <c r="O2" s="71">
         <v>44264</v>
       </c>
-      <c r="P2" s="72">
+      <c r="P2" s="71">
         <v>44265</v>
       </c>
-      <c r="Q2" s="113">
+      <c r="Q2" s="112">
         <v>44266</v>
       </c>
-      <c r="R2" s="73">
+      <c r="R2" s="72">
         <v>44267</v>
       </c>
-      <c r="S2" s="73">
+      <c r="S2" s="72">
         <v>44270</v>
       </c>
-      <c r="T2" s="73">
+      <c r="T2" s="72">
         <v>44271</v>
       </c>
-      <c r="U2" s="73">
+      <c r="U2" s="72">
         <v>44272</v>
       </c>
-      <c r="V2" s="73">
+      <c r="V2" s="72">
         <v>44273</v>
       </c>
-      <c r="W2" s="73">
+      <c r="W2" s="72">
         <v>44274</v>
       </c>
-      <c r="X2" s="73">
+      <c r="X2" s="72">
         <v>44277</v>
       </c>
-      <c r="Y2" s="73">
+      <c r="Y2" s="72">
         <v>44278</v>
       </c>
-      <c r="Z2" s="73">
+      <c r="Z2" s="72">
         <v>44279</v>
       </c>
-      <c r="AA2" s="73">
+      <c r="AA2" s="72">
         <v>44280</v>
       </c>
-      <c r="AB2" s="73">
+      <c r="AB2" s="72">
         <v>44281</v>
       </c>
-      <c r="AC2" s="74">
+      <c r="AC2" s="73">
         <v>44284</v>
       </c>
-      <c r="AD2" s="74">
+      <c r="AD2" s="73">
         <v>44285</v>
       </c>
-      <c r="AE2" s="74">
+      <c r="AE2" s="73">
         <v>44286</v>
       </c>
-      <c r="AF2" s="73">
+      <c r="AF2" s="72">
         <v>44287</v>
       </c>
-      <c r="AG2" s="73">
+      <c r="AG2" s="72">
         <v>44291</v>
       </c>
-      <c r="AH2" s="73">
+      <c r="AH2" s="72">
         <v>44292</v>
       </c>
-      <c r="AI2" s="73">
+      <c r="AI2" s="72">
         <v>44293</v>
       </c>
-      <c r="AJ2" s="73">
+      <c r="AJ2" s="72">
         <v>44294</v>
       </c>
-      <c r="AK2" s="73">
+      <c r="AK2" s="72">
         <v>44295</v>
       </c>
-      <c r="AL2" s="73">
+      <c r="AL2" s="72">
         <v>44298</v>
       </c>
-      <c r="AM2" s="73">
+      <c r="AM2" s="72">
         <v>44299</v>
       </c>
-      <c r="AN2" s="73">
+      <c r="AN2" s="72">
         <v>44300</v>
       </c>
-      <c r="AO2" s="120">
+      <c r="AO2" s="118">
         <v>44301</v>
       </c>
-      <c r="AP2" s="75">
+      <c r="AP2" s="74">
         <v>44302</v>
       </c>
-      <c r="AQ2" s="75">
+      <c r="AQ2" s="74">
         <v>44305</v>
       </c>
-      <c r="AR2" s="75">
+      <c r="AR2" s="74">
         <v>44306</v>
       </c>
-      <c r="AS2" s="122">
+      <c r="AS2" s="120">
         <v>44308</v>
       </c>
-      <c r="AT2" s="126">
+      <c r="AT2" s="124">
         <v>44309</v>
       </c>
-      <c r="AU2" s="75">
+      <c r="AU2" s="74">
         <v>44312</v>
       </c>
-      <c r="AV2" s="75">
+      <c r="AV2" s="74">
         <v>44313</v>
       </c>
-      <c r="AW2" s="75">
+      <c r="AW2" s="74">
         <v>44314</v>
       </c>
-      <c r="AX2" s="75">
+      <c r="AX2" s="74">
         <v>44315</v>
       </c>
-      <c r="AY2" s="75">
+      <c r="AY2" s="74">
         <v>44316</v>
       </c>
-      <c r="AZ2" s="75">
+      <c r="AZ2" s="74">
         <v>44319</v>
       </c>
-      <c r="BA2" s="75">
+      <c r="BA2" s="74">
         <v>44320</v>
       </c>
-      <c r="BB2" s="75">
+      <c r="BB2" s="74">
         <v>44321</v>
       </c>
-      <c r="BC2" s="75">
+      <c r="BC2" s="74">
         <v>44322</v>
       </c>
-      <c r="BD2" s="75">
+      <c r="BD2" s="74">
         <v>44323</v>
       </c>
-      <c r="BE2" s="75">
+      <c r="BE2" s="74">
         <v>44326</v>
       </c>
-      <c r="BF2" s="75">
+      <c r="BF2" s="74">
         <v>44327</v>
       </c>
-      <c r="BG2" s="75">
+      <c r="BG2" s="74">
         <v>44328</v>
       </c>
-      <c r="BH2" s="75">
+      <c r="BH2" s="74">
         <v>44329</v>
       </c>
-      <c r="BI2" s="75">
+      <c r="BI2" s="74">
         <v>44330</v>
       </c>
-      <c r="BJ2" s="75">
+      <c r="BJ2" s="74">
         <v>44333</v>
       </c>
-      <c r="BK2" s="75">
+      <c r="BK2" s="74">
         <v>44334</v>
       </c>
-      <c r="BL2" s="75">
+      <c r="BL2" s="74">
         <v>44335</v>
       </c>
-      <c r="BM2" s="75">
+      <c r="BM2" s="74">
         <v>44336</v>
       </c>
-      <c r="BN2" s="122">
+      <c r="BN2" s="120">
         <v>44337</v>
       </c>
-      <c r="BO2" s="118">
+      <c r="BO2" s="116">
         <v>44340</v>
       </c>
-      <c r="BP2" s="118">
+      <c r="BP2" s="116">
         <v>44341</v>
       </c>
-      <c r="BQ2" s="118">
+      <c r="BQ2" s="116">
         <v>44342</v>
       </c>
-      <c r="BR2" s="118">
+      <c r="BR2" s="116">
         <v>44343</v>
       </c>
-      <c r="BS2" s="118">
+      <c r="BS2" s="116">
         <v>44344</v>
       </c>
-      <c r="BT2" s="118">
+      <c r="BT2" s="116">
         <v>44347</v>
       </c>
-      <c r="BU2" s="118">
+      <c r="BU2" s="116">
         <v>44348</v>
       </c>
-      <c r="BV2" s="118">
+      <c r="BV2" s="116">
         <v>44349</v>
       </c>
-      <c r="BW2" s="118">
+      <c r="BW2" s="116">
         <v>44354</v>
       </c>
-      <c r="BX2" s="118">
+      <c r="BX2" s="116">
         <v>44355</v>
       </c>
-      <c r="BY2" s="118">
+      <c r="BY2" s="116">
         <v>44356</v>
       </c>
-      <c r="BZ2" s="118">
+      <c r="BZ2" s="116">
         <v>44357</v>
       </c>
-      <c r="CA2" s="118">
+      <c r="CA2" s="116">
         <v>44358</v>
       </c>
-      <c r="CB2" s="118">
+      <c r="CB2" s="116">
         <v>44361</v>
       </c>
-      <c r="CC2" s="118">
+      <c r="CC2" s="116">
         <v>44362</v>
       </c>
-      <c r="CD2" s="118">
+      <c r="CD2" s="116">
         <v>44363</v>
       </c>
-      <c r="CE2" s="118">
+      <c r="CE2" s="116">
         <v>44364</v>
       </c>
-      <c r="CF2" s="118">
+      <c r="CF2" s="116">
         <v>44365</v>
       </c>
-      <c r="CG2" s="118">
+      <c r="CG2" s="116">
         <v>44368</v>
       </c>
-      <c r="CH2" s="123">
+      <c r="CH2" s="121">
         <v>44369</v>
       </c>
-      <c r="CI2" s="76">
+      <c r="CI2" s="75">
         <v>44370</v>
       </c>
-      <c r="CJ2" s="76">
+      <c r="CJ2" s="75">
         <v>44371</v>
       </c>
-      <c r="CK2" s="76">
+      <c r="CK2" s="75">
         <v>44372</v>
       </c>
-      <c r="CL2" s="76">
+      <c r="CL2" s="75">
         <v>44375</v>
       </c>
-      <c r="CM2" s="76">
+      <c r="CM2" s="75">
         <v>44376</v>
       </c>
-      <c r="CN2" s="76">
+      <c r="CN2" s="75">
         <v>44377</v>
       </c>
-      <c r="CO2" s="76">
+      <c r="CO2" s="75">
         <v>44378</v>
       </c>
-      <c r="CP2" s="76">
+      <c r="CP2" s="75">
         <v>44379</v>
       </c>
-      <c r="CQ2" s="76">
+      <c r="CQ2" s="75">
         <v>44382</v>
       </c>
-      <c r="CR2" s="76">
+      <c r="CR2" s="75">
         <v>44383</v>
       </c>
-      <c r="CS2" s="76">
+      <c r="CS2" s="75">
         <v>44384</v>
       </c>
-      <c r="CT2" s="76">
+      <c r="CT2" s="75">
         <v>44385</v>
       </c>
-      <c r="CU2" s="76">
+      <c r="CU2" s="75">
         <v>44389</v>
       </c>
-      <c r="CV2" s="119">
+      <c r="CV2" s="117">
         <v>44390</v>
       </c>
       <c r="CW2"/>
@@ -2552,14 +2532,14 @@
       <c r="A3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
-      <c r="H3" s="42"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="42"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
@@ -2648,7 +2628,7 @@
       <c r="CS3" s="22"/>
       <c r="CT3" s="22"/>
       <c r="CU3" s="22"/>
-      <c r="CV3" s="69"/>
+      <c r="CV3" s="68"/>
       <c r="CW3"/>
       <c r="CX3"/>
       <c r="CY3"/>
@@ -2714,17 +2694,17 @@
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="112"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="111"/>
       <c r="H4" s="16"/>
       <c r="J4" s="16"/>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="CV4" s="45"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="CV4" s="44"/>
       <c r="CW4"/>
       <c r="CX4"/>
       <c r="CY4"/>
@@ -2790,12 +2770,12 @@
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="112"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="111"/>
       <c r="H5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="L5" s="116"/>
-      <c r="CV5" s="45"/>
+      <c r="L5" s="115"/>
+      <c r="CV5" s="44"/>
       <c r="CW5"/>
       <c r="CX5"/>
       <c r="CY5"/>
@@ -2861,20 +2841,17 @@
       <c r="A6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="114" t="s">
+      <c r="B6" s="45"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="I6" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="L6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="CV6" s="45"/>
+      <c r="L6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="CV6" s="44"/>
       <c r="CW6"/>
       <c r="CX6"/>
       <c r="CY6"/>
@@ -2940,17 +2917,14 @@
       <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="112"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="16"/>
-      <c r="L7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="CV7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="F7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="CV7" s="44"/>
       <c r="CW7"/>
       <c r="CX7"/>
       <c r="CY7"/>
@@ -3016,17 +2990,14 @@
       <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="40"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="16"/>
-      <c r="L8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="CV8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="F8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="CV8" s="44"/>
       <c r="CW8"/>
       <c r="CX8"/>
       <c r="CY8"/>
@@ -3092,21 +3063,19 @@
       <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="40"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="16"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="114" t="s">
+      <c r="B9" s="45"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="CV9" s="45"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="CV9" s="44"/>
       <c r="CW9"/>
       <c r="CX9"/>
       <c r="CY9"/>
@@ -3172,16 +3141,14 @@
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="F10" s="40"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="16"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="CV10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="F10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="CV10" s="44"/>
       <c r="CW10"/>
       <c r="CX10"/>
       <c r="CY10"/>
@@ -3247,20 +3214,19 @@
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="G11" s="114" t="s">
+      <c r="B11" s="45"/>
+      <c r="G11" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="16"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="CV11" s="45"/>
+      <c r="I11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="CV11" s="44"/>
       <c r="CW11"/>
       <c r="CX11"/>
       <c r="CY11"/>
@@ -3326,18 +3292,14 @@
       <c r="A12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="CV12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="CV12" s="44"/>
       <c r="CW12"/>
       <c r="CX12"/>
       <c r="CY12"/>
@@ -3403,20 +3365,18 @@
       <c r="A13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="H13" s="16"/>
-      <c r="J13" s="117" t="s">
+      <c r="B13" s="45"/>
+      <c r="J13" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="CV13" s="45"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="CV13" s="44"/>
       <c r="CW13"/>
       <c r="CX13"/>
       <c r="CY13"/>
@@ -3482,16 +3442,14 @@
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="H14" s="16"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="CV14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="CV14" s="44"/>
       <c r="CW14"/>
       <c r="CX14"/>
       <c r="CY14"/>
@@ -3557,16 +3515,14 @@
       <c r="A15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="112"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="CV15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="CV15" s="44"/>
       <c r="CW15"/>
       <c r="CX15"/>
       <c r="CY15"/>
@@ -3632,16 +3588,14 @@
       <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="H16" s="16"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="CV16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="CV16" s="44"/>
       <c r="CW16"/>
       <c r="CX16"/>
       <c r="CY16"/>
@@ -3707,19 +3661,19 @@
       <c r="A17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="115" t="s">
+      <c r="N17" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="O17" s="115" t="s">
+      <c r="O17" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="P17" s="115" t="s">
+      <c r="P17" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="CV17" s="48"/>
+      <c r="CV17" s="47"/>
       <c r="CW17"/>
       <c r="CX17"/>
       <c r="CY17"/>
@@ -3781,15 +3735,15 @@
       <c r="FC17"/>
       <c r="FD17"/>
     </row>
-    <row r="18" spans="1:160" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
+    <row r="18" spans="1:160" s="83" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="Z18" s="85"/>
-      <c r="AE18" s="86"/>
-      <c r="AJ18" s="86"/>
-      <c r="CV18" s="87"/>
+      <c r="B18" s="82"/>
+      <c r="Z18" s="84"/>
+      <c r="AE18" s="85"/>
+      <c r="AJ18" s="85"/>
+      <c r="CV18" s="86"/>
       <c r="CW18"/>
       <c r="CX18"/>
       <c r="CY18"/>
@@ -3852,114 +3806,114 @@
       <c r="FD18"/>
     </row>
     <row r="19" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="132" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="144"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="85"/>
+      <c r="AE19" s="85"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="123"/>
+      <c r="AH19" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="AI19" s="132" t="s">
+      <c r="AI19" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="AJ19" s="132" t="s">
+      <c r="AJ19" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="AK19" s="132"/>
-      <c r="AL19" s="132"/>
-      <c r="AM19" s="132"/>
-      <c r="AN19" s="132"/>
-      <c r="AO19" s="132"/>
-      <c r="AP19" s="86"/>
-      <c r="AQ19" s="86"/>
-      <c r="AR19" s="86"/>
-      <c r="AS19" s="86"/>
-      <c r="AT19" s="86"/>
-      <c r="AU19" s="86"/>
-      <c r="AV19" s="86"/>
-      <c r="AW19" s="86"/>
-      <c r="AX19" s="86"/>
-      <c r="AY19" s="86"/>
-      <c r="AZ19" s="86"/>
-      <c r="BA19" s="86"/>
-      <c r="BB19" s="86"/>
-      <c r="BC19" s="86"/>
-      <c r="BD19" s="86"/>
-      <c r="BE19" s="86"/>
-      <c r="BF19" s="86"/>
-      <c r="BG19" s="86"/>
-      <c r="BH19" s="86"/>
-      <c r="BI19" s="86"/>
-      <c r="BJ19" s="86"/>
-      <c r="BK19" s="86"/>
-      <c r="BL19" s="86"/>
-      <c r="BM19" s="86"/>
-      <c r="BN19" s="86"/>
-      <c r="BO19" s="86"/>
-      <c r="BP19" s="86"/>
-      <c r="BQ19" s="86"/>
-      <c r="BR19" s="86"/>
-      <c r="BS19" s="86"/>
-      <c r="BT19" s="86"/>
-      <c r="BU19" s="86"/>
-      <c r="BV19" s="86"/>
-      <c r="BW19" s="86"/>
-      <c r="BX19" s="86"/>
-      <c r="BY19" s="86"/>
-      <c r="BZ19" s="86"/>
-      <c r="CA19" s="86"/>
-      <c r="CB19" s="86"/>
-      <c r="CC19" s="86"/>
-      <c r="CD19" s="86"/>
-      <c r="CE19" s="86"/>
-      <c r="CF19" s="86"/>
-      <c r="CG19" s="86"/>
-      <c r="CH19" s="86"/>
-      <c r="CI19" s="86"/>
-      <c r="CJ19" s="86"/>
-      <c r="CK19" s="86"/>
-      <c r="CL19" s="86"/>
-      <c r="CM19" s="86"/>
-      <c r="CN19" s="86"/>
-      <c r="CO19" s="86"/>
-      <c r="CP19" s="86"/>
-      <c r="CQ19" s="86"/>
-      <c r="CR19" s="86"/>
-      <c r="CS19" s="86"/>
-      <c r="CT19" s="86"/>
-      <c r="CU19" s="86"/>
-      <c r="CV19" s="94"/>
+      <c r="AK19" s="130"/>
+      <c r="AL19" s="130"/>
+      <c r="AM19" s="130"/>
+      <c r="AN19" s="130"/>
+      <c r="AO19" s="130"/>
+      <c r="AP19" s="85"/>
+      <c r="AQ19" s="85"/>
+      <c r="AR19" s="85"/>
+      <c r="AS19" s="85"/>
+      <c r="AT19" s="85"/>
+      <c r="AU19" s="85"/>
+      <c r="AV19" s="85"/>
+      <c r="AW19" s="85"/>
+      <c r="AX19" s="85"/>
+      <c r="AY19" s="85"/>
+      <c r="AZ19" s="85"/>
+      <c r="BA19" s="85"/>
+      <c r="BB19" s="85"/>
+      <c r="BC19" s="85"/>
+      <c r="BD19" s="85"/>
+      <c r="BE19" s="85"/>
+      <c r="BF19" s="85"/>
+      <c r="BG19" s="85"/>
+      <c r="BH19" s="85"/>
+      <c r="BI19" s="85"/>
+      <c r="BJ19" s="85"/>
+      <c r="BK19" s="85"/>
+      <c r="BL19" s="85"/>
+      <c r="BM19" s="85"/>
+      <c r="BN19" s="85"/>
+      <c r="BO19" s="85"/>
+      <c r="BP19" s="85"/>
+      <c r="BQ19" s="85"/>
+      <c r="BR19" s="85"/>
+      <c r="BS19" s="85"/>
+      <c r="BT19" s="85"/>
+      <c r="BU19" s="85"/>
+      <c r="BV19" s="85"/>
+      <c r="BW19" s="85"/>
+      <c r="BX19" s="85"/>
+      <c r="BY19" s="85"/>
+      <c r="BZ19" s="85"/>
+      <c r="CA19" s="85"/>
+      <c r="CB19" s="85"/>
+      <c r="CC19" s="85"/>
+      <c r="CD19" s="85"/>
+      <c r="CE19" s="85"/>
+      <c r="CF19" s="85"/>
+      <c r="CG19" s="85"/>
+      <c r="CH19" s="85"/>
+      <c r="CI19" s="85"/>
+      <c r="CJ19" s="85"/>
+      <c r="CK19" s="85"/>
+      <c r="CL19" s="85"/>
+      <c r="CM19" s="85"/>
+      <c r="CN19" s="85"/>
+      <c r="CO19" s="85"/>
+      <c r="CP19" s="85"/>
+      <c r="CQ19" s="85"/>
+      <c r="CR19" s="85"/>
+      <c r="CS19" s="85"/>
+      <c r="CT19" s="85"/>
+      <c r="CU19" s="85"/>
+      <c r="CV19" s="93"/>
       <c r="CW19"/>
       <c r="CX19"/>
       <c r="CY19"/>
@@ -4022,108 +3976,108 @@
       <c r="FD19"/>
     </row>
     <row r="20" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="86"/>
-      <c r="AJ20" s="86"/>
-      <c r="AK20" s="86"/>
-      <c r="AL20" s="86"/>
-      <c r="AM20" s="86"/>
-      <c r="AN20" s="86"/>
-      <c r="AO20" s="86"/>
-      <c r="AP20" s="86"/>
-      <c r="AQ20" s="86"/>
-      <c r="AR20" s="86"/>
-      <c r="AS20" s="86"/>
-      <c r="AT20" s="86"/>
-      <c r="AU20" s="86"/>
-      <c r="AV20" s="86"/>
-      <c r="AW20" s="86"/>
-      <c r="AX20" s="86"/>
-      <c r="AY20" s="86"/>
-      <c r="AZ20" s="86"/>
-      <c r="BA20" s="86"/>
-      <c r="BB20" s="86"/>
-      <c r="BC20" s="86"/>
-      <c r="BD20" s="86"/>
-      <c r="BE20" s="86"/>
-      <c r="BF20" s="86"/>
-      <c r="BG20" s="86"/>
-      <c r="BH20" s="86"/>
-      <c r="BI20" s="86"/>
-      <c r="BJ20" s="86"/>
-      <c r="BK20" s="86"/>
-      <c r="BL20" s="86"/>
-      <c r="BM20" s="86"/>
-      <c r="BN20" s="86"/>
-      <c r="BO20" s="86"/>
-      <c r="BP20" s="86"/>
-      <c r="BQ20" s="86"/>
-      <c r="BR20" s="86"/>
-      <c r="BS20" s="86"/>
-      <c r="BT20" s="86"/>
-      <c r="BU20" s="86"/>
-      <c r="BV20" s="86"/>
-      <c r="BW20" s="86"/>
-      <c r="BX20" s="86"/>
-      <c r="BY20" s="86"/>
-      <c r="BZ20" s="86"/>
-      <c r="CA20" s="86"/>
-      <c r="CB20" s="86"/>
-      <c r="CC20" s="86"/>
-      <c r="CD20" s="86"/>
-      <c r="CE20" s="86"/>
-      <c r="CF20" s="86"/>
-      <c r="CG20" s="86"/>
-      <c r="CH20" s="86"/>
-      <c r="CI20" s="86"/>
-      <c r="CJ20" s="86"/>
-      <c r="CK20" s="86"/>
-      <c r="CL20" s="86"/>
-      <c r="CM20" s="86"/>
-      <c r="CN20" s="86"/>
-      <c r="CO20" s="86"/>
-      <c r="CP20" s="86"/>
-      <c r="CQ20" s="86"/>
-      <c r="CR20" s="86"/>
-      <c r="CS20" s="86"/>
-      <c r="CT20" s="86"/>
-      <c r="CU20" s="86"/>
-      <c r="CV20" s="94"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="144"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="85"/>
+      <c r="AI20" s="85"/>
+      <c r="AJ20" s="85"/>
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="85"/>
+      <c r="AN20" s="85"/>
+      <c r="AO20" s="85"/>
+      <c r="AP20" s="85"/>
+      <c r="AQ20" s="85"/>
+      <c r="AR20" s="85"/>
+      <c r="AS20" s="85"/>
+      <c r="AT20" s="85"/>
+      <c r="AU20" s="85"/>
+      <c r="AV20" s="85"/>
+      <c r="AW20" s="85"/>
+      <c r="AX20" s="85"/>
+      <c r="AY20" s="85"/>
+      <c r="AZ20" s="85"/>
+      <c r="BA20" s="85"/>
+      <c r="BB20" s="85"/>
+      <c r="BC20" s="85"/>
+      <c r="BD20" s="85"/>
+      <c r="BE20" s="85"/>
+      <c r="BF20" s="85"/>
+      <c r="BG20" s="85"/>
+      <c r="BH20" s="85"/>
+      <c r="BI20" s="85"/>
+      <c r="BJ20" s="85"/>
+      <c r="BK20" s="85"/>
+      <c r="BL20" s="85"/>
+      <c r="BM20" s="85"/>
+      <c r="BN20" s="85"/>
+      <c r="BO20" s="85"/>
+      <c r="BP20" s="85"/>
+      <c r="BQ20" s="85"/>
+      <c r="BR20" s="85"/>
+      <c r="BS20" s="85"/>
+      <c r="BT20" s="85"/>
+      <c r="BU20" s="85"/>
+      <c r="BV20" s="85"/>
+      <c r="BW20" s="85"/>
+      <c r="BX20" s="85"/>
+      <c r="BY20" s="85"/>
+      <c r="BZ20" s="85"/>
+      <c r="CA20" s="85"/>
+      <c r="CB20" s="85"/>
+      <c r="CC20" s="85"/>
+      <c r="CD20" s="85"/>
+      <c r="CE20" s="85"/>
+      <c r="CF20" s="85"/>
+      <c r="CG20" s="85"/>
+      <c r="CH20" s="85"/>
+      <c r="CI20" s="85"/>
+      <c r="CJ20" s="85"/>
+      <c r="CK20" s="85"/>
+      <c r="CL20" s="85"/>
+      <c r="CM20" s="85"/>
+      <c r="CN20" s="85"/>
+      <c r="CO20" s="85"/>
+      <c r="CP20" s="85"/>
+      <c r="CQ20" s="85"/>
+      <c r="CR20" s="85"/>
+      <c r="CS20" s="85"/>
+      <c r="CT20" s="85"/>
+      <c r="CU20" s="85"/>
+      <c r="CV20" s="93"/>
       <c r="CW20"/>
       <c r="CX20"/>
       <c r="CY20"/>
@@ -4186,116 +4140,116 @@
       <c r="FD20"/>
     </row>
     <row r="21" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="142" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="AA21" s="143" t="s">
+      <c r="AA21" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="132" t="s">
+      <c r="AB21" s="122"/>
+      <c r="AC21" s="122"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="122"/>
+      <c r="AF21" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="AG21" s="132" t="s">
+      <c r="AG21" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="124"/>
-      <c r="AK21" s="132"/>
-      <c r="AL21" s="132"/>
-      <c r="AM21" s="132"/>
-      <c r="AN21" s="132"/>
-      <c r="AO21" s="132"/>
-      <c r="AP21" s="86"/>
-      <c r="AQ21" s="86"/>
-      <c r="AR21" s="86"/>
-      <c r="AS21" s="86"/>
-      <c r="AT21" s="86"/>
-      <c r="AU21" s="86"/>
-      <c r="AV21" s="86"/>
-      <c r="AW21" s="86"/>
-      <c r="AX21" s="86"/>
-      <c r="AY21" s="86"/>
-      <c r="AZ21" s="86"/>
-      <c r="BA21" s="86"/>
-      <c r="BB21" s="86"/>
-      <c r="BC21" s="86"/>
-      <c r="BD21" s="86"/>
-      <c r="BE21" s="86"/>
-      <c r="BF21" s="86"/>
-      <c r="BG21" s="86"/>
-      <c r="BH21" s="86"/>
-      <c r="BI21" s="86"/>
-      <c r="BJ21" s="86"/>
-      <c r="BK21" s="86"/>
-      <c r="BL21" s="86"/>
-      <c r="BM21" s="86"/>
-      <c r="BN21" s="86"/>
-      <c r="BO21" s="86"/>
-      <c r="BP21" s="86"/>
-      <c r="BQ21" s="86"/>
-      <c r="BR21" s="86"/>
-      <c r="BS21" s="86"/>
-      <c r="BT21" s="86"/>
-      <c r="BU21" s="86"/>
-      <c r="BV21" s="86"/>
-      <c r="BW21" s="86"/>
-      <c r="BX21" s="86"/>
-      <c r="BY21" s="86"/>
-      <c r="BZ21" s="86"/>
-      <c r="CA21" s="86"/>
-      <c r="CB21" s="86"/>
-      <c r="CC21" s="86"/>
-      <c r="CD21" s="86"/>
-      <c r="CE21" s="86"/>
-      <c r="CF21" s="86"/>
-      <c r="CG21" s="86"/>
-      <c r="CH21" s="86"/>
-      <c r="CI21" s="86"/>
-      <c r="CJ21" s="86"/>
-      <c r="CK21" s="86"/>
-      <c r="CL21" s="86"/>
-      <c r="CM21" s="86"/>
-      <c r="CN21" s="86"/>
-      <c r="CO21" s="86"/>
-      <c r="CP21" s="86"/>
-      <c r="CQ21" s="86"/>
-      <c r="CR21" s="86"/>
-      <c r="CS21" s="86"/>
-      <c r="CT21" s="86"/>
-      <c r="CU21" s="86"/>
-      <c r="CV21" s="94"/>
+      <c r="AH21" s="122"/>
+      <c r="AI21" s="122"/>
+      <c r="AJ21" s="122"/>
+      <c r="AK21" s="130"/>
+      <c r="AL21" s="130"/>
+      <c r="AM21" s="130"/>
+      <c r="AN21" s="130"/>
+      <c r="AO21" s="130"/>
+      <c r="AP21" s="85"/>
+      <c r="AQ21" s="85"/>
+      <c r="AR21" s="85"/>
+      <c r="AS21" s="85"/>
+      <c r="AT21" s="85"/>
+      <c r="AU21" s="85"/>
+      <c r="AV21" s="85"/>
+      <c r="AW21" s="85"/>
+      <c r="AX21" s="85"/>
+      <c r="AY21" s="85"/>
+      <c r="AZ21" s="85"/>
+      <c r="BA21" s="85"/>
+      <c r="BB21" s="85"/>
+      <c r="BC21" s="85"/>
+      <c r="BD21" s="85"/>
+      <c r="BE21" s="85"/>
+      <c r="BF21" s="85"/>
+      <c r="BG21" s="85"/>
+      <c r="BH21" s="85"/>
+      <c r="BI21" s="85"/>
+      <c r="BJ21" s="85"/>
+      <c r="BK21" s="85"/>
+      <c r="BL21" s="85"/>
+      <c r="BM21" s="85"/>
+      <c r="BN21" s="85"/>
+      <c r="BO21" s="85"/>
+      <c r="BP21" s="85"/>
+      <c r="BQ21" s="85"/>
+      <c r="BR21" s="85"/>
+      <c r="BS21" s="85"/>
+      <c r="BT21" s="85"/>
+      <c r="BU21" s="85"/>
+      <c r="BV21" s="85"/>
+      <c r="BW21" s="85"/>
+      <c r="BX21" s="85"/>
+      <c r="BY21" s="85"/>
+      <c r="BZ21" s="85"/>
+      <c r="CA21" s="85"/>
+      <c r="CB21" s="85"/>
+      <c r="CC21" s="85"/>
+      <c r="CD21" s="85"/>
+      <c r="CE21" s="85"/>
+      <c r="CF21" s="85"/>
+      <c r="CG21" s="85"/>
+      <c r="CH21" s="85"/>
+      <c r="CI21" s="85"/>
+      <c r="CJ21" s="85"/>
+      <c r="CK21" s="85"/>
+      <c r="CL21" s="85"/>
+      <c r="CM21" s="85"/>
+      <c r="CN21" s="85"/>
+      <c r="CO21" s="85"/>
+      <c r="CP21" s="85"/>
+      <c r="CQ21" s="85"/>
+      <c r="CR21" s="85"/>
+      <c r="CS21" s="85"/>
+      <c r="CT21" s="85"/>
+      <c r="CU21" s="85"/>
+      <c r="CV21" s="93"/>
       <c r="CW21"/>
       <c r="CX21"/>
       <c r="CY21"/>
@@ -4358,110 +4312,110 @@
       <c r="FD21"/>
     </row>
     <row r="22" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="132" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="130"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="122"/>
+      <c r="X22" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="124"/>
-      <c r="Z22" s="139"/>
-      <c r="AA22" s="124"/>
-      <c r="AB22" s="124"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="124"/>
-      <c r="AK22" s="132"/>
-      <c r="AL22" s="132"/>
-      <c r="AM22" s="132"/>
-      <c r="AN22" s="132"/>
-      <c r="AO22" s="132"/>
-      <c r="AP22" s="86"/>
-      <c r="AQ22" s="86"/>
-      <c r="AR22" s="86"/>
-      <c r="AS22" s="86"/>
-      <c r="AT22" s="86"/>
-      <c r="AU22" s="86"/>
-      <c r="AV22" s="86"/>
-      <c r="AW22" s="86"/>
-      <c r="AX22" s="86"/>
-      <c r="AY22" s="86"/>
-      <c r="AZ22" s="86"/>
-      <c r="BA22" s="86"/>
-      <c r="BB22" s="86"/>
-      <c r="BC22" s="86"/>
-      <c r="BD22" s="86"/>
-      <c r="BE22" s="86"/>
-      <c r="BF22" s="86"/>
-      <c r="BG22" s="86"/>
-      <c r="BH22" s="86"/>
-      <c r="BI22" s="86"/>
-      <c r="BJ22" s="86"/>
-      <c r="BK22" s="86"/>
-      <c r="BL22" s="86"/>
-      <c r="BM22" s="86"/>
-      <c r="BN22" s="86"/>
-      <c r="BO22" s="86"/>
-      <c r="BP22" s="86"/>
-      <c r="BQ22" s="86"/>
-      <c r="BR22" s="86"/>
-      <c r="BS22" s="86"/>
-      <c r="BT22" s="86"/>
-      <c r="BU22" s="86"/>
-      <c r="BV22" s="86"/>
-      <c r="BW22" s="86"/>
-      <c r="BX22" s="86"/>
-      <c r="BY22" s="86"/>
-      <c r="BZ22" s="86"/>
-      <c r="CA22" s="86"/>
-      <c r="CB22" s="86"/>
-      <c r="CC22" s="86"/>
-      <c r="CD22" s="86"/>
-      <c r="CE22" s="86"/>
-      <c r="CF22" s="86"/>
-      <c r="CG22" s="86"/>
-      <c r="CH22" s="86"/>
-      <c r="CI22" s="86"/>
-      <c r="CJ22" s="86"/>
-      <c r="CK22" s="86"/>
-      <c r="CL22" s="86"/>
-      <c r="CM22" s="86"/>
-      <c r="CN22" s="86"/>
-      <c r="CO22" s="86"/>
-      <c r="CP22" s="86"/>
-      <c r="CQ22" s="86"/>
-      <c r="CR22" s="86"/>
-      <c r="CS22" s="86"/>
-      <c r="CT22" s="86"/>
-      <c r="CU22" s="86"/>
-      <c r="CV22" s="94"/>
+      <c r="Y22" s="122"/>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="122"/>
+      <c r="AB22" s="122"/>
+      <c r="AC22" s="122"/>
+      <c r="AD22" s="122"/>
+      <c r="AE22" s="122"/>
+      <c r="AF22" s="122"/>
+      <c r="AG22" s="122"/>
+      <c r="AH22" s="122"/>
+      <c r="AI22" s="122"/>
+      <c r="AJ22" s="122"/>
+      <c r="AK22" s="130"/>
+      <c r="AL22" s="130"/>
+      <c r="AM22" s="130"/>
+      <c r="AN22" s="130"/>
+      <c r="AO22" s="130"/>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="85"/>
+      <c r="AR22" s="85"/>
+      <c r="AS22" s="85"/>
+      <c r="AT22" s="85"/>
+      <c r="AU22" s="85"/>
+      <c r="AV22" s="85"/>
+      <c r="AW22" s="85"/>
+      <c r="AX22" s="85"/>
+      <c r="AY22" s="85"/>
+      <c r="AZ22" s="85"/>
+      <c r="BA22" s="85"/>
+      <c r="BB22" s="85"/>
+      <c r="BC22" s="85"/>
+      <c r="BD22" s="85"/>
+      <c r="BE22" s="85"/>
+      <c r="BF22" s="85"/>
+      <c r="BG22" s="85"/>
+      <c r="BH22" s="85"/>
+      <c r="BI22" s="85"/>
+      <c r="BJ22" s="85"/>
+      <c r="BK22" s="85"/>
+      <c r="BL22" s="85"/>
+      <c r="BM22" s="85"/>
+      <c r="BN22" s="85"/>
+      <c r="BO22" s="85"/>
+      <c r="BP22" s="85"/>
+      <c r="BQ22" s="85"/>
+      <c r="BR22" s="85"/>
+      <c r="BS22" s="85"/>
+      <c r="BT22" s="85"/>
+      <c r="BU22" s="85"/>
+      <c r="BV22" s="85"/>
+      <c r="BW22" s="85"/>
+      <c r="BX22" s="85"/>
+      <c r="BY22" s="85"/>
+      <c r="BZ22" s="85"/>
+      <c r="CA22" s="85"/>
+      <c r="CB22" s="85"/>
+      <c r="CC22" s="85"/>
+      <c r="CD22" s="85"/>
+      <c r="CE22" s="85"/>
+      <c r="CF22" s="85"/>
+      <c r="CG22" s="85"/>
+      <c r="CH22" s="85"/>
+      <c r="CI22" s="85"/>
+      <c r="CJ22" s="85"/>
+      <c r="CK22" s="85"/>
+      <c r="CL22" s="85"/>
+      <c r="CM22" s="85"/>
+      <c r="CN22" s="85"/>
+      <c r="CO22" s="85"/>
+      <c r="CP22" s="85"/>
+      <c r="CQ22" s="85"/>
+      <c r="CR22" s="85"/>
+      <c r="CS22" s="85"/>
+      <c r="CT22" s="85"/>
+      <c r="CU22" s="85"/>
+      <c r="CV22" s="93"/>
       <c r="CW22"/>
       <c r="CX22"/>
       <c r="CY22"/>
@@ -4524,112 +4478,112 @@
       <c r="FD22"/>
     </row>
     <row r="23" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="132" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124"/>
-      <c r="Z23" s="139"/>
-      <c r="AA23" s="124"/>
-      <c r="AB23" s="132" t="s">
+      <c r="T23" s="130"/>
+      <c r="U23" s="130"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="122"/>
+      <c r="X23" s="122"/>
+      <c r="Y23" s="122"/>
+      <c r="Z23" s="134"/>
+      <c r="AA23" s="122"/>
+      <c r="AB23" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="124"/>
-      <c r="AK23" s="132"/>
-      <c r="AL23" s="132"/>
-      <c r="AM23" s="132"/>
-      <c r="AN23" s="132"/>
-      <c r="AO23" s="132"/>
-      <c r="AP23" s="86"/>
-      <c r="AQ23" s="86"/>
-      <c r="AR23" s="86"/>
-      <c r="AS23" s="86"/>
-      <c r="AT23" s="86"/>
-      <c r="AU23" s="86"/>
-      <c r="AV23" s="86"/>
-      <c r="AW23" s="86"/>
-      <c r="AX23" s="86"/>
-      <c r="AY23" s="86"/>
-      <c r="AZ23" s="86"/>
-      <c r="BA23" s="86"/>
-      <c r="BB23" s="86"/>
-      <c r="BC23" s="86"/>
-      <c r="BD23" s="86"/>
-      <c r="BE23" s="86"/>
-      <c r="BF23" s="86"/>
-      <c r="BG23" s="86"/>
-      <c r="BH23" s="86"/>
-      <c r="BI23" s="86"/>
-      <c r="BJ23" s="86"/>
-      <c r="BK23" s="86"/>
-      <c r="BL23" s="86"/>
-      <c r="BM23" s="86"/>
-      <c r="BN23" s="86"/>
-      <c r="BO23" s="86"/>
-      <c r="BP23" s="86"/>
-      <c r="BQ23" s="86"/>
-      <c r="BR23" s="86"/>
-      <c r="BS23" s="86"/>
-      <c r="BT23" s="86"/>
-      <c r="BU23" s="86"/>
-      <c r="BV23" s="86"/>
-      <c r="BW23" s="86"/>
-      <c r="BX23" s="86"/>
-      <c r="BY23" s="86"/>
-      <c r="BZ23" s="86"/>
-      <c r="CA23" s="86"/>
-      <c r="CB23" s="86"/>
-      <c r="CC23" s="86"/>
-      <c r="CD23" s="86"/>
-      <c r="CE23" s="86"/>
-      <c r="CF23" s="86"/>
-      <c r="CG23" s="86"/>
-      <c r="CH23" s="86"/>
-      <c r="CI23" s="86"/>
-      <c r="CJ23" s="86"/>
-      <c r="CK23" s="86"/>
-      <c r="CL23" s="86"/>
-      <c r="CM23" s="86"/>
-      <c r="CN23" s="86"/>
-      <c r="CO23" s="86"/>
-      <c r="CP23" s="86"/>
-      <c r="CQ23" s="86"/>
-      <c r="CR23" s="86"/>
-      <c r="CS23" s="86"/>
-      <c r="CT23" s="86"/>
-      <c r="CU23" s="86"/>
-      <c r="CV23" s="94"/>
+      <c r="AC23" s="122"/>
+      <c r="AD23" s="122"/>
+      <c r="AE23" s="122"/>
+      <c r="AF23" s="122"/>
+      <c r="AG23" s="122"/>
+      <c r="AH23" s="122"/>
+      <c r="AI23" s="122"/>
+      <c r="AJ23" s="122"/>
+      <c r="AK23" s="130"/>
+      <c r="AL23" s="130"/>
+      <c r="AM23" s="130"/>
+      <c r="AN23" s="130"/>
+      <c r="AO23" s="130"/>
+      <c r="AP23" s="85"/>
+      <c r="AQ23" s="85"/>
+      <c r="AR23" s="85"/>
+      <c r="AS23" s="85"/>
+      <c r="AT23" s="85"/>
+      <c r="AU23" s="85"/>
+      <c r="AV23" s="85"/>
+      <c r="AW23" s="85"/>
+      <c r="AX23" s="85"/>
+      <c r="AY23" s="85"/>
+      <c r="AZ23" s="85"/>
+      <c r="BA23" s="85"/>
+      <c r="BB23" s="85"/>
+      <c r="BC23" s="85"/>
+      <c r="BD23" s="85"/>
+      <c r="BE23" s="85"/>
+      <c r="BF23" s="85"/>
+      <c r="BG23" s="85"/>
+      <c r="BH23" s="85"/>
+      <c r="BI23" s="85"/>
+      <c r="BJ23" s="85"/>
+      <c r="BK23" s="85"/>
+      <c r="BL23" s="85"/>
+      <c r="BM23" s="85"/>
+      <c r="BN23" s="85"/>
+      <c r="BO23" s="85"/>
+      <c r="BP23" s="85"/>
+      <c r="BQ23" s="85"/>
+      <c r="BR23" s="85"/>
+      <c r="BS23" s="85"/>
+      <c r="BT23" s="85"/>
+      <c r="BU23" s="85"/>
+      <c r="BV23" s="85"/>
+      <c r="BW23" s="85"/>
+      <c r="BX23" s="85"/>
+      <c r="BY23" s="85"/>
+      <c r="BZ23" s="85"/>
+      <c r="CA23" s="85"/>
+      <c r="CB23" s="85"/>
+      <c r="CC23" s="85"/>
+      <c r="CD23" s="85"/>
+      <c r="CE23" s="85"/>
+      <c r="CF23" s="85"/>
+      <c r="CG23" s="85"/>
+      <c r="CH23" s="85"/>
+      <c r="CI23" s="85"/>
+      <c r="CJ23" s="85"/>
+      <c r="CK23" s="85"/>
+      <c r="CL23" s="85"/>
+      <c r="CM23" s="85"/>
+      <c r="CN23" s="85"/>
+      <c r="CO23" s="85"/>
+      <c r="CP23" s="85"/>
+      <c r="CQ23" s="85"/>
+      <c r="CR23" s="85"/>
+      <c r="CS23" s="85"/>
+      <c r="CT23" s="85"/>
+      <c r="CU23" s="85"/>
+      <c r="CV23" s="93"/>
       <c r="CW23"/>
       <c r="CX23"/>
       <c r="CY23"/>
@@ -4692,108 +4646,108 @@
       <c r="FD23"/>
     </row>
     <row r="24" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="137"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="124"/>
-      <c r="Y24" s="137"/>
-      <c r="Z24" s="137"/>
-      <c r="AA24" s="124"/>
-      <c r="AB24" s="124"/>
-      <c r="AC24" s="124"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="124"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="124"/>
-      <c r="AK24" s="132"/>
-      <c r="AL24" s="132"/>
-      <c r="AM24" s="132"/>
-      <c r="AN24" s="132"/>
-      <c r="AO24" s="132"/>
-      <c r="AP24" s="86"/>
-      <c r="AQ24" s="86"/>
-      <c r="AR24" s="86"/>
-      <c r="AS24" s="86"/>
-      <c r="AT24" s="86"/>
-      <c r="AU24" s="86"/>
-      <c r="AV24" s="86"/>
-      <c r="AW24" s="86"/>
-      <c r="AX24" s="86"/>
-      <c r="AY24" s="86"/>
-      <c r="AZ24" s="86"/>
-      <c r="BA24" s="86"/>
-      <c r="BB24" s="86"/>
-      <c r="BC24" s="86"/>
-      <c r="BD24" s="86"/>
-      <c r="BE24" s="86"/>
-      <c r="BF24" s="86"/>
-      <c r="BG24" s="86"/>
-      <c r="BH24" s="86"/>
-      <c r="BI24" s="86"/>
-      <c r="BJ24" s="86"/>
-      <c r="BK24" s="86"/>
-      <c r="BL24" s="86"/>
-      <c r="BM24" s="86"/>
-      <c r="BN24" s="86"/>
-      <c r="BO24" s="86"/>
-      <c r="BP24" s="86"/>
-      <c r="BQ24" s="86"/>
-      <c r="BR24" s="86"/>
-      <c r="BS24" s="86"/>
-      <c r="BT24" s="86"/>
-      <c r="BU24" s="86"/>
-      <c r="BV24" s="86"/>
-      <c r="BW24" s="86"/>
-      <c r="BX24" s="86"/>
-      <c r="BY24" s="86"/>
-      <c r="BZ24" s="86"/>
-      <c r="CA24" s="86"/>
-      <c r="CB24" s="86"/>
-      <c r="CC24" s="86"/>
-      <c r="CD24" s="86"/>
-      <c r="CE24" s="86"/>
-      <c r="CF24" s="86"/>
-      <c r="CG24" s="86"/>
-      <c r="CH24" s="86"/>
-      <c r="CI24" s="86"/>
-      <c r="CJ24" s="86"/>
-      <c r="CK24" s="86"/>
-      <c r="CL24" s="86"/>
-      <c r="CM24" s="86"/>
-      <c r="CN24" s="86"/>
-      <c r="CO24" s="86"/>
-      <c r="CP24" s="86"/>
-      <c r="CQ24" s="86"/>
-      <c r="CR24" s="86"/>
-      <c r="CS24" s="86"/>
-      <c r="CT24" s="86"/>
-      <c r="CU24" s="86"/>
-      <c r="CV24" s="94"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="130"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="122"/>
+      <c r="AD24" s="122"/>
+      <c r="AE24" s="122"/>
+      <c r="AF24" s="122"/>
+      <c r="AG24" s="122"/>
+      <c r="AH24" s="122"/>
+      <c r="AI24" s="122"/>
+      <c r="AJ24" s="122"/>
+      <c r="AK24" s="130"/>
+      <c r="AL24" s="130"/>
+      <c r="AM24" s="130"/>
+      <c r="AN24" s="130"/>
+      <c r="AO24" s="130"/>
+      <c r="AP24" s="85"/>
+      <c r="AQ24" s="85"/>
+      <c r="AR24" s="85"/>
+      <c r="AS24" s="85"/>
+      <c r="AT24" s="85"/>
+      <c r="AU24" s="85"/>
+      <c r="AV24" s="85"/>
+      <c r="AW24" s="85"/>
+      <c r="AX24" s="85"/>
+      <c r="AY24" s="85"/>
+      <c r="AZ24" s="85"/>
+      <c r="BA24" s="85"/>
+      <c r="BB24" s="85"/>
+      <c r="BC24" s="85"/>
+      <c r="BD24" s="85"/>
+      <c r="BE24" s="85"/>
+      <c r="BF24" s="85"/>
+      <c r="BG24" s="85"/>
+      <c r="BH24" s="85"/>
+      <c r="BI24" s="85"/>
+      <c r="BJ24" s="85"/>
+      <c r="BK24" s="85"/>
+      <c r="BL24" s="85"/>
+      <c r="BM24" s="85"/>
+      <c r="BN24" s="85"/>
+      <c r="BO24" s="85"/>
+      <c r="BP24" s="85"/>
+      <c r="BQ24" s="85"/>
+      <c r="BR24" s="85"/>
+      <c r="BS24" s="85"/>
+      <c r="BT24" s="85"/>
+      <c r="BU24" s="85"/>
+      <c r="BV24" s="85"/>
+      <c r="BW24" s="85"/>
+      <c r="BX24" s="85"/>
+      <c r="BY24" s="85"/>
+      <c r="BZ24" s="85"/>
+      <c r="CA24" s="85"/>
+      <c r="CB24" s="85"/>
+      <c r="CC24" s="85"/>
+      <c r="CD24" s="85"/>
+      <c r="CE24" s="85"/>
+      <c r="CF24" s="85"/>
+      <c r="CG24" s="85"/>
+      <c r="CH24" s="85"/>
+      <c r="CI24" s="85"/>
+      <c r="CJ24" s="85"/>
+      <c r="CK24" s="85"/>
+      <c r="CL24" s="85"/>
+      <c r="CM24" s="85"/>
+      <c r="CN24" s="85"/>
+      <c r="CO24" s="85"/>
+      <c r="CP24" s="85"/>
+      <c r="CQ24" s="85"/>
+      <c r="CR24" s="85"/>
+      <c r="CS24" s="85"/>
+      <c r="CT24" s="85"/>
+      <c r="CU24" s="85"/>
+      <c r="CV24" s="93"/>
       <c r="CW24"/>
       <c r="CX24"/>
       <c r="CY24"/>
@@ -4856,108 +4810,108 @@
       <c r="FD24"/>
     </row>
     <row r="25" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="139"/>
-      <c r="AA25" s="140"/>
-      <c r="AB25" s="140"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="141"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="132"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="124"/>
-      <c r="AK25" s="132"/>
-      <c r="AL25" s="132"/>
-      <c r="AM25" s="132"/>
-      <c r="AN25" s="132"/>
-      <c r="AO25" s="132"/>
-      <c r="AP25" s="86"/>
-      <c r="AQ25" s="86"/>
-      <c r="AR25" s="86"/>
-      <c r="AS25" s="86"/>
-      <c r="AT25" s="86"/>
-      <c r="AU25" s="86"/>
-      <c r="AV25" s="86"/>
-      <c r="AW25" s="86"/>
-      <c r="AX25" s="86"/>
-      <c r="AY25" s="86"/>
-      <c r="AZ25" s="86"/>
-      <c r="BA25" s="86"/>
-      <c r="BB25" s="86"/>
-      <c r="BC25" s="86"/>
-      <c r="BD25" s="86"/>
-      <c r="BE25" s="86"/>
-      <c r="BF25" s="86"/>
-      <c r="BG25" s="86"/>
-      <c r="BH25" s="86"/>
-      <c r="BI25" s="86"/>
-      <c r="BJ25" s="86"/>
-      <c r="BK25" s="86"/>
-      <c r="BL25" s="86"/>
-      <c r="BM25" s="86"/>
-      <c r="BN25" s="86"/>
-      <c r="BO25" s="86"/>
-      <c r="BP25" s="86"/>
-      <c r="BQ25" s="86"/>
-      <c r="BR25" s="86"/>
-      <c r="BS25" s="86"/>
-      <c r="BT25" s="86"/>
-      <c r="BU25" s="86"/>
-      <c r="BV25" s="86"/>
-      <c r="BW25" s="86"/>
-      <c r="BX25" s="86"/>
-      <c r="BY25" s="86"/>
-      <c r="BZ25" s="86"/>
-      <c r="CA25" s="86"/>
-      <c r="CB25" s="86"/>
-      <c r="CC25" s="86"/>
-      <c r="CD25" s="86"/>
-      <c r="CE25" s="86"/>
-      <c r="CF25" s="86"/>
-      <c r="CG25" s="86"/>
-      <c r="CH25" s="86"/>
-      <c r="CI25" s="86"/>
-      <c r="CJ25" s="86"/>
-      <c r="CK25" s="86"/>
-      <c r="CL25" s="86"/>
-      <c r="CM25" s="86"/>
-      <c r="CN25" s="86"/>
-      <c r="CO25" s="86"/>
-      <c r="CP25" s="86"/>
-      <c r="CQ25" s="86"/>
-      <c r="CR25" s="86"/>
-      <c r="CS25" s="86"/>
-      <c r="CT25" s="86"/>
-      <c r="CU25" s="86"/>
-      <c r="CV25" s="94"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="130"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="122"/>
+      <c r="AD25" s="136"/>
+      <c r="AE25" s="122"/>
+      <c r="AF25" s="130"/>
+      <c r="AG25" s="122"/>
+      <c r="AH25" s="122"/>
+      <c r="AI25" s="122"/>
+      <c r="AJ25" s="122"/>
+      <c r="AK25" s="130"/>
+      <c r="AL25" s="130"/>
+      <c r="AM25" s="130"/>
+      <c r="AN25" s="130"/>
+      <c r="AO25" s="130"/>
+      <c r="AP25" s="85"/>
+      <c r="AQ25" s="85"/>
+      <c r="AR25" s="85"/>
+      <c r="AS25" s="85"/>
+      <c r="AT25" s="85"/>
+      <c r="AU25" s="85"/>
+      <c r="AV25" s="85"/>
+      <c r="AW25" s="85"/>
+      <c r="AX25" s="85"/>
+      <c r="AY25" s="85"/>
+      <c r="AZ25" s="85"/>
+      <c r="BA25" s="85"/>
+      <c r="BB25" s="85"/>
+      <c r="BC25" s="85"/>
+      <c r="BD25" s="85"/>
+      <c r="BE25" s="85"/>
+      <c r="BF25" s="85"/>
+      <c r="BG25" s="85"/>
+      <c r="BH25" s="85"/>
+      <c r="BI25" s="85"/>
+      <c r="BJ25" s="85"/>
+      <c r="BK25" s="85"/>
+      <c r="BL25" s="85"/>
+      <c r="BM25" s="85"/>
+      <c r="BN25" s="85"/>
+      <c r="BO25" s="85"/>
+      <c r="BP25" s="85"/>
+      <c r="BQ25" s="85"/>
+      <c r="BR25" s="85"/>
+      <c r="BS25" s="85"/>
+      <c r="BT25" s="85"/>
+      <c r="BU25" s="85"/>
+      <c r="BV25" s="85"/>
+      <c r="BW25" s="85"/>
+      <c r="BX25" s="85"/>
+      <c r="BY25" s="85"/>
+      <c r="BZ25" s="85"/>
+      <c r="CA25" s="85"/>
+      <c r="CB25" s="85"/>
+      <c r="CC25" s="85"/>
+      <c r="CD25" s="85"/>
+      <c r="CE25" s="85"/>
+      <c r="CF25" s="85"/>
+      <c r="CG25" s="85"/>
+      <c r="CH25" s="85"/>
+      <c r="CI25" s="85"/>
+      <c r="CJ25" s="85"/>
+      <c r="CK25" s="85"/>
+      <c r="CL25" s="85"/>
+      <c r="CM25" s="85"/>
+      <c r="CN25" s="85"/>
+      <c r="CO25" s="85"/>
+      <c r="CP25" s="85"/>
+      <c r="CQ25" s="85"/>
+      <c r="CR25" s="85"/>
+      <c r="CS25" s="85"/>
+      <c r="CT25" s="85"/>
+      <c r="CU25" s="85"/>
+      <c r="CV25" s="93"/>
       <c r="CW25"/>
       <c r="CX25"/>
       <c r="CY25"/>
@@ -5020,108 +4974,108 @@
       <c r="FD25"/>
     </row>
     <row r="26" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="124"/>
-      <c r="Y26" s="124"/>
-      <c r="Z26" s="139"/>
-      <c r="AA26" s="140"/>
-      <c r="AB26" s="140"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="141"/>
-      <c r="AE26" s="124"/>
-      <c r="AF26" s="132"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="124"/>
-      <c r="AK26" s="132"/>
-      <c r="AL26" s="132"/>
-      <c r="AM26" s="132"/>
-      <c r="AN26" s="132"/>
-      <c r="AO26" s="132"/>
-      <c r="AP26" s="86"/>
-      <c r="AQ26" s="86"/>
-      <c r="AR26" s="86"/>
-      <c r="AS26" s="86"/>
-      <c r="AT26" s="86"/>
-      <c r="AU26" s="86"/>
-      <c r="AV26" s="86"/>
-      <c r="AW26" s="86"/>
-      <c r="AX26" s="86"/>
-      <c r="AY26" s="86"/>
-      <c r="AZ26" s="86"/>
-      <c r="BA26" s="86"/>
-      <c r="BB26" s="86"/>
-      <c r="BC26" s="86"/>
-      <c r="BD26" s="86"/>
-      <c r="BE26" s="86"/>
-      <c r="BF26" s="86"/>
-      <c r="BG26" s="86"/>
-      <c r="BH26" s="86"/>
-      <c r="BI26" s="86"/>
-      <c r="BJ26" s="86"/>
-      <c r="BK26" s="86"/>
-      <c r="BL26" s="86"/>
-      <c r="BM26" s="86"/>
-      <c r="BN26" s="86"/>
-      <c r="BO26" s="86"/>
-      <c r="BP26" s="86"/>
-      <c r="BQ26" s="86"/>
-      <c r="BR26" s="86"/>
-      <c r="BS26" s="86"/>
-      <c r="BT26" s="86"/>
-      <c r="BU26" s="86"/>
-      <c r="BV26" s="86"/>
-      <c r="BW26" s="86"/>
-      <c r="BX26" s="86"/>
-      <c r="BY26" s="86"/>
-      <c r="BZ26" s="86"/>
-      <c r="CA26" s="86"/>
-      <c r="CB26" s="86"/>
-      <c r="CC26" s="86"/>
-      <c r="CD26" s="86"/>
-      <c r="CE26" s="86"/>
-      <c r="CF26" s="86"/>
-      <c r="CG26" s="86"/>
-      <c r="CH26" s="86"/>
-      <c r="CI26" s="86"/>
-      <c r="CJ26" s="86"/>
-      <c r="CK26" s="86"/>
-      <c r="CL26" s="86"/>
-      <c r="CM26" s="86"/>
-      <c r="CN26" s="86"/>
-      <c r="CO26" s="86"/>
-      <c r="CP26" s="86"/>
-      <c r="CQ26" s="86"/>
-      <c r="CR26" s="86"/>
-      <c r="CS26" s="86"/>
-      <c r="CT26" s="86"/>
-      <c r="CU26" s="86"/>
-      <c r="CV26" s="94"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="122"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="122"/>
+      <c r="AD26" s="136"/>
+      <c r="AE26" s="122"/>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="122"/>
+      <c r="AH26" s="122"/>
+      <c r="AI26" s="122"/>
+      <c r="AJ26" s="122"/>
+      <c r="AK26" s="130"/>
+      <c r="AL26" s="130"/>
+      <c r="AM26" s="130"/>
+      <c r="AN26" s="130"/>
+      <c r="AO26" s="130"/>
+      <c r="AP26" s="85"/>
+      <c r="AQ26" s="85"/>
+      <c r="AR26" s="85"/>
+      <c r="AS26" s="85"/>
+      <c r="AT26" s="85"/>
+      <c r="AU26" s="85"/>
+      <c r="AV26" s="85"/>
+      <c r="AW26" s="85"/>
+      <c r="AX26" s="85"/>
+      <c r="AY26" s="85"/>
+      <c r="AZ26" s="85"/>
+      <c r="BA26" s="85"/>
+      <c r="BB26" s="85"/>
+      <c r="BC26" s="85"/>
+      <c r="BD26" s="85"/>
+      <c r="BE26" s="85"/>
+      <c r="BF26" s="85"/>
+      <c r="BG26" s="85"/>
+      <c r="BH26" s="85"/>
+      <c r="BI26" s="85"/>
+      <c r="BJ26" s="85"/>
+      <c r="BK26" s="85"/>
+      <c r="BL26" s="85"/>
+      <c r="BM26" s="85"/>
+      <c r="BN26" s="85"/>
+      <c r="BO26" s="85"/>
+      <c r="BP26" s="85"/>
+      <c r="BQ26" s="85"/>
+      <c r="BR26" s="85"/>
+      <c r="BS26" s="85"/>
+      <c r="BT26" s="85"/>
+      <c r="BU26" s="85"/>
+      <c r="BV26" s="85"/>
+      <c r="BW26" s="85"/>
+      <c r="BX26" s="85"/>
+      <c r="BY26" s="85"/>
+      <c r="BZ26" s="85"/>
+      <c r="CA26" s="85"/>
+      <c r="CB26" s="85"/>
+      <c r="CC26" s="85"/>
+      <c r="CD26" s="85"/>
+      <c r="CE26" s="85"/>
+      <c r="CF26" s="85"/>
+      <c r="CG26" s="85"/>
+      <c r="CH26" s="85"/>
+      <c r="CI26" s="85"/>
+      <c r="CJ26" s="85"/>
+      <c r="CK26" s="85"/>
+      <c r="CL26" s="85"/>
+      <c r="CM26" s="85"/>
+      <c r="CN26" s="85"/>
+      <c r="CO26" s="85"/>
+      <c r="CP26" s="85"/>
+      <c r="CQ26" s="85"/>
+      <c r="CR26" s="85"/>
+      <c r="CS26" s="85"/>
+      <c r="CT26" s="85"/>
+      <c r="CU26" s="85"/>
+      <c r="CV26" s="93"/>
       <c r="CW26"/>
       <c r="CX26"/>
       <c r="CY26"/>
@@ -5184,108 +5138,108 @@
       <c r="FD26"/>
     </row>
     <row r="27" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="124"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="124"/>
-      <c r="V27" s="124"/>
-      <c r="W27" s="124"/>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="124"/>
-      <c r="Z27" s="139"/>
-      <c r="AA27" s="124"/>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="124"/>
-      <c r="AF27" s="124"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="124"/>
-      <c r="AJ27" s="124"/>
-      <c r="AK27" s="132"/>
-      <c r="AL27" s="132"/>
-      <c r="AM27" s="132"/>
-      <c r="AN27" s="132"/>
-      <c r="AO27" s="132"/>
-      <c r="AP27" s="86"/>
-      <c r="AQ27" s="86"/>
-      <c r="AR27" s="86"/>
-      <c r="AS27" s="86"/>
-      <c r="AT27" s="86"/>
-      <c r="AU27" s="86"/>
-      <c r="AV27" s="86"/>
-      <c r="AW27" s="86"/>
-      <c r="AX27" s="86"/>
-      <c r="AY27" s="86"/>
-      <c r="AZ27" s="86"/>
-      <c r="BA27" s="86"/>
-      <c r="BB27" s="86"/>
-      <c r="BC27" s="86"/>
-      <c r="BD27" s="86"/>
-      <c r="BE27" s="86"/>
-      <c r="BF27" s="86"/>
-      <c r="BG27" s="86"/>
-      <c r="BH27" s="86"/>
-      <c r="BI27" s="86"/>
-      <c r="BJ27" s="86"/>
-      <c r="BK27" s="86"/>
-      <c r="BL27" s="86"/>
-      <c r="BM27" s="86"/>
-      <c r="BN27" s="86"/>
-      <c r="BO27" s="86"/>
-      <c r="BP27" s="86"/>
-      <c r="BQ27" s="86"/>
-      <c r="BR27" s="86"/>
-      <c r="BS27" s="86"/>
-      <c r="BT27" s="86"/>
-      <c r="BU27" s="86"/>
-      <c r="BV27" s="86"/>
-      <c r="BW27" s="86"/>
-      <c r="BX27" s="86"/>
-      <c r="BY27" s="86"/>
-      <c r="BZ27" s="86"/>
-      <c r="CA27" s="86"/>
-      <c r="CB27" s="86"/>
-      <c r="CC27" s="86"/>
-      <c r="CD27" s="86"/>
-      <c r="CE27" s="86"/>
-      <c r="CF27" s="86"/>
-      <c r="CG27" s="86"/>
-      <c r="CH27" s="86"/>
-      <c r="CI27" s="86"/>
-      <c r="CJ27" s="86"/>
-      <c r="CK27" s="86"/>
-      <c r="CL27" s="86"/>
-      <c r="CM27" s="86"/>
-      <c r="CN27" s="86"/>
-      <c r="CO27" s="86"/>
-      <c r="CP27" s="86"/>
-      <c r="CQ27" s="86"/>
-      <c r="CR27" s="86"/>
-      <c r="CS27" s="86"/>
-      <c r="CT27" s="86"/>
-      <c r="CU27" s="86"/>
-      <c r="CV27" s="94"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="122"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="122"/>
+      <c r="AB27" s="122"/>
+      <c r="AC27" s="122"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="122"/>
+      <c r="AF27" s="122"/>
+      <c r="AG27" s="122"/>
+      <c r="AH27" s="122"/>
+      <c r="AI27" s="122"/>
+      <c r="AJ27" s="122"/>
+      <c r="AK27" s="130"/>
+      <c r="AL27" s="130"/>
+      <c r="AM27" s="130"/>
+      <c r="AN27" s="130"/>
+      <c r="AO27" s="130"/>
+      <c r="AP27" s="85"/>
+      <c r="AQ27" s="85"/>
+      <c r="AR27" s="85"/>
+      <c r="AS27" s="85"/>
+      <c r="AT27" s="85"/>
+      <c r="AU27" s="85"/>
+      <c r="AV27" s="85"/>
+      <c r="AW27" s="85"/>
+      <c r="AX27" s="85"/>
+      <c r="AY27" s="85"/>
+      <c r="AZ27" s="85"/>
+      <c r="BA27" s="85"/>
+      <c r="BB27" s="85"/>
+      <c r="BC27" s="85"/>
+      <c r="BD27" s="85"/>
+      <c r="BE27" s="85"/>
+      <c r="BF27" s="85"/>
+      <c r="BG27" s="85"/>
+      <c r="BH27" s="85"/>
+      <c r="BI27" s="85"/>
+      <c r="BJ27" s="85"/>
+      <c r="BK27" s="85"/>
+      <c r="BL27" s="85"/>
+      <c r="BM27" s="85"/>
+      <c r="BN27" s="85"/>
+      <c r="BO27" s="85"/>
+      <c r="BP27" s="85"/>
+      <c r="BQ27" s="85"/>
+      <c r="BR27" s="85"/>
+      <c r="BS27" s="85"/>
+      <c r="BT27" s="85"/>
+      <c r="BU27" s="85"/>
+      <c r="BV27" s="85"/>
+      <c r="BW27" s="85"/>
+      <c r="BX27" s="85"/>
+      <c r="BY27" s="85"/>
+      <c r="BZ27" s="85"/>
+      <c r="CA27" s="85"/>
+      <c r="CB27" s="85"/>
+      <c r="CC27" s="85"/>
+      <c r="CD27" s="85"/>
+      <c r="CE27" s="85"/>
+      <c r="CF27" s="85"/>
+      <c r="CG27" s="85"/>
+      <c r="CH27" s="85"/>
+      <c r="CI27" s="85"/>
+      <c r="CJ27" s="85"/>
+      <c r="CK27" s="85"/>
+      <c r="CL27" s="85"/>
+      <c r="CM27" s="85"/>
+      <c r="CN27" s="85"/>
+      <c r="CO27" s="85"/>
+      <c r="CP27" s="85"/>
+      <c r="CQ27" s="85"/>
+      <c r="CR27" s="85"/>
+      <c r="CS27" s="85"/>
+      <c r="CT27" s="85"/>
+      <c r="CU27" s="85"/>
+      <c r="CV27" s="93"/>
       <c r="CW27"/>
       <c r="CX27"/>
       <c r="CY27"/>
@@ -5348,108 +5302,108 @@
       <c r="FD27"/>
     </row>
     <row r="28" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="86"/>
-      <c r="AE28" s="86"/>
-      <c r="AF28" s="86"/>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="124"/>
-      <c r="AI28" s="124"/>
-      <c r="AJ28" s="124"/>
-      <c r="AK28" s="132"/>
-      <c r="AL28" s="132"/>
-      <c r="AM28" s="132"/>
-      <c r="AN28" s="132"/>
-      <c r="AO28" s="132"/>
-      <c r="AP28" s="86"/>
-      <c r="AQ28" s="86"/>
-      <c r="AR28" s="86"/>
-      <c r="AS28" s="86"/>
-      <c r="AT28" s="86"/>
-      <c r="AU28" s="86"/>
-      <c r="AV28" s="86"/>
-      <c r="AW28" s="86"/>
-      <c r="AX28" s="86"/>
-      <c r="AY28" s="86"/>
-      <c r="AZ28" s="86"/>
-      <c r="BA28" s="86"/>
-      <c r="BB28" s="86"/>
-      <c r="BC28" s="86"/>
-      <c r="BD28" s="86"/>
-      <c r="BE28" s="86"/>
-      <c r="BF28" s="86"/>
-      <c r="BG28" s="86"/>
-      <c r="BH28" s="86"/>
-      <c r="BI28" s="86"/>
-      <c r="BJ28" s="86"/>
-      <c r="BK28" s="86"/>
-      <c r="BL28" s="86"/>
-      <c r="BM28" s="86"/>
-      <c r="BN28" s="86"/>
-      <c r="BO28" s="86"/>
-      <c r="BP28" s="86"/>
-      <c r="BQ28" s="86"/>
-      <c r="BR28" s="86"/>
-      <c r="BS28" s="86"/>
-      <c r="BT28" s="86"/>
-      <c r="BU28" s="86"/>
-      <c r="BV28" s="86"/>
-      <c r="BW28" s="86"/>
-      <c r="BX28" s="86"/>
-      <c r="BY28" s="86"/>
-      <c r="BZ28" s="86"/>
-      <c r="CA28" s="86"/>
-      <c r="CB28" s="86"/>
-      <c r="CC28" s="86"/>
-      <c r="CD28" s="86"/>
-      <c r="CE28" s="86"/>
-      <c r="CF28" s="86"/>
-      <c r="CG28" s="86"/>
-      <c r="CH28" s="86"/>
-      <c r="CI28" s="86"/>
-      <c r="CJ28" s="86"/>
-      <c r="CK28" s="86"/>
-      <c r="CL28" s="86"/>
-      <c r="CM28" s="86"/>
-      <c r="CN28" s="86"/>
-      <c r="CO28" s="86"/>
-      <c r="CP28" s="86"/>
-      <c r="CQ28" s="86"/>
-      <c r="CR28" s="86"/>
-      <c r="CS28" s="86"/>
-      <c r="CT28" s="86"/>
-      <c r="CU28" s="86"/>
-      <c r="CV28" s="94"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="144"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="85"/>
+      <c r="AE28" s="85"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="122"/>
+      <c r="AI28" s="122"/>
+      <c r="AJ28" s="122"/>
+      <c r="AK28" s="130"/>
+      <c r="AL28" s="130"/>
+      <c r="AM28" s="130"/>
+      <c r="AN28" s="130"/>
+      <c r="AO28" s="130"/>
+      <c r="AP28" s="85"/>
+      <c r="AQ28" s="85"/>
+      <c r="AR28" s="85"/>
+      <c r="AS28" s="85"/>
+      <c r="AT28" s="85"/>
+      <c r="AU28" s="85"/>
+      <c r="AV28" s="85"/>
+      <c r="AW28" s="85"/>
+      <c r="AX28" s="85"/>
+      <c r="AY28" s="85"/>
+      <c r="AZ28" s="85"/>
+      <c r="BA28" s="85"/>
+      <c r="BB28" s="85"/>
+      <c r="BC28" s="85"/>
+      <c r="BD28" s="85"/>
+      <c r="BE28" s="85"/>
+      <c r="BF28" s="85"/>
+      <c r="BG28" s="85"/>
+      <c r="BH28" s="85"/>
+      <c r="BI28" s="85"/>
+      <c r="BJ28" s="85"/>
+      <c r="BK28" s="85"/>
+      <c r="BL28" s="85"/>
+      <c r="BM28" s="85"/>
+      <c r="BN28" s="85"/>
+      <c r="BO28" s="85"/>
+      <c r="BP28" s="85"/>
+      <c r="BQ28" s="85"/>
+      <c r="BR28" s="85"/>
+      <c r="BS28" s="85"/>
+      <c r="BT28" s="85"/>
+      <c r="BU28" s="85"/>
+      <c r="BV28" s="85"/>
+      <c r="BW28" s="85"/>
+      <c r="BX28" s="85"/>
+      <c r="BY28" s="85"/>
+      <c r="BZ28" s="85"/>
+      <c r="CA28" s="85"/>
+      <c r="CB28" s="85"/>
+      <c r="CC28" s="85"/>
+      <c r="CD28" s="85"/>
+      <c r="CE28" s="85"/>
+      <c r="CF28" s="85"/>
+      <c r="CG28" s="85"/>
+      <c r="CH28" s="85"/>
+      <c r="CI28" s="85"/>
+      <c r="CJ28" s="85"/>
+      <c r="CK28" s="85"/>
+      <c r="CL28" s="85"/>
+      <c r="CM28" s="85"/>
+      <c r="CN28" s="85"/>
+      <c r="CO28" s="85"/>
+      <c r="CP28" s="85"/>
+      <c r="CQ28" s="85"/>
+      <c r="CR28" s="85"/>
+      <c r="CS28" s="85"/>
+      <c r="CT28" s="85"/>
+      <c r="CU28" s="85"/>
+      <c r="CV28" s="93"/>
       <c r="CW28"/>
       <c r="CX28"/>
       <c r="CY28"/>
@@ -5512,108 +5466,108 @@
       <c r="FD28"/>
     </row>
     <row r="29" spans="1:160" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
-      <c r="AE29" s="86"/>
-      <c r="AF29" s="86"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="124"/>
-      <c r="AJ29" s="124"/>
-      <c r="AK29" s="132"/>
-      <c r="AL29" s="132"/>
-      <c r="AM29" s="132"/>
-      <c r="AN29" s="132"/>
-      <c r="AO29" s="132"/>
-      <c r="AP29" s="86"/>
-      <c r="AQ29" s="86"/>
-      <c r="AR29" s="86"/>
-      <c r="AS29" s="86"/>
-      <c r="AT29" s="86"/>
-      <c r="AU29" s="86"/>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="86"/>
-      <c r="AX29" s="86"/>
-      <c r="AY29" s="86"/>
-      <c r="AZ29" s="86"/>
-      <c r="BA29" s="86"/>
-      <c r="BB29" s="86"/>
-      <c r="BC29" s="86"/>
-      <c r="BD29" s="86"/>
-      <c r="BE29" s="86"/>
-      <c r="BF29" s="86"/>
-      <c r="BG29" s="86"/>
-      <c r="BH29" s="86"/>
-      <c r="BI29" s="86"/>
-      <c r="BJ29" s="86"/>
-      <c r="BK29" s="86"/>
-      <c r="BL29" s="86"/>
-      <c r="BM29" s="86"/>
-      <c r="BN29" s="86"/>
-      <c r="BO29" s="86"/>
-      <c r="BP29" s="86"/>
-      <c r="BQ29" s="86"/>
-      <c r="BR29" s="86"/>
-      <c r="BS29" s="86"/>
-      <c r="BT29" s="86"/>
-      <c r="BU29" s="86"/>
-      <c r="BV29" s="86"/>
-      <c r="BW29" s="86"/>
-      <c r="BX29" s="86"/>
-      <c r="BY29" s="86"/>
-      <c r="BZ29" s="86"/>
-      <c r="CA29" s="86"/>
-      <c r="CB29" s="86"/>
-      <c r="CC29" s="86"/>
-      <c r="CD29" s="86"/>
-      <c r="CE29" s="86"/>
-      <c r="CF29" s="86"/>
-      <c r="CG29" s="86"/>
-      <c r="CH29" s="86"/>
-      <c r="CI29" s="86"/>
-      <c r="CJ29" s="86"/>
-      <c r="CK29" s="86"/>
-      <c r="CL29" s="86"/>
-      <c r="CM29" s="86"/>
-      <c r="CN29" s="86"/>
-      <c r="CO29" s="86"/>
-      <c r="CP29" s="86"/>
-      <c r="CQ29" s="86"/>
-      <c r="CR29" s="86"/>
-      <c r="CS29" s="86"/>
-      <c r="CT29" s="86"/>
-      <c r="CU29" s="86"/>
-      <c r="CV29" s="94"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="85"/>
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="85"/>
+      <c r="AE29" s="85"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="85"/>
+      <c r="AH29" s="122"/>
+      <c r="AI29" s="122"/>
+      <c r="AJ29" s="122"/>
+      <c r="AK29" s="130"/>
+      <c r="AL29" s="130"/>
+      <c r="AM29" s="130"/>
+      <c r="AN29" s="130"/>
+      <c r="AO29" s="130"/>
+      <c r="AP29" s="85"/>
+      <c r="AQ29" s="85"/>
+      <c r="AR29" s="85"/>
+      <c r="AS29" s="85"/>
+      <c r="AT29" s="85"/>
+      <c r="AU29" s="85"/>
+      <c r="AV29" s="85"/>
+      <c r="AW29" s="85"/>
+      <c r="AX29" s="85"/>
+      <c r="AY29" s="85"/>
+      <c r="AZ29" s="85"/>
+      <c r="BA29" s="85"/>
+      <c r="BB29" s="85"/>
+      <c r="BC29" s="85"/>
+      <c r="BD29" s="85"/>
+      <c r="BE29" s="85"/>
+      <c r="BF29" s="85"/>
+      <c r="BG29" s="85"/>
+      <c r="BH29" s="85"/>
+      <c r="BI29" s="85"/>
+      <c r="BJ29" s="85"/>
+      <c r="BK29" s="85"/>
+      <c r="BL29" s="85"/>
+      <c r="BM29" s="85"/>
+      <c r="BN29" s="85"/>
+      <c r="BO29" s="85"/>
+      <c r="BP29" s="85"/>
+      <c r="BQ29" s="85"/>
+      <c r="BR29" s="85"/>
+      <c r="BS29" s="85"/>
+      <c r="BT29" s="85"/>
+      <c r="BU29" s="85"/>
+      <c r="BV29" s="85"/>
+      <c r="BW29" s="85"/>
+      <c r="BX29" s="85"/>
+      <c r="BY29" s="85"/>
+      <c r="BZ29" s="85"/>
+      <c r="CA29" s="85"/>
+      <c r="CB29" s="85"/>
+      <c r="CC29" s="85"/>
+      <c r="CD29" s="85"/>
+      <c r="CE29" s="85"/>
+      <c r="CF29" s="85"/>
+      <c r="CG29" s="85"/>
+      <c r="CH29" s="85"/>
+      <c r="CI29" s="85"/>
+      <c r="CJ29" s="85"/>
+      <c r="CK29" s="85"/>
+      <c r="CL29" s="85"/>
+      <c r="CM29" s="85"/>
+      <c r="CN29" s="85"/>
+      <c r="CO29" s="85"/>
+      <c r="CP29" s="85"/>
+      <c r="CQ29" s="85"/>
+      <c r="CR29" s="85"/>
+      <c r="CS29" s="85"/>
+      <c r="CT29" s="85"/>
+      <c r="CU29" s="85"/>
+      <c r="CV29" s="93"/>
       <c r="CW29"/>
       <c r="CX29"/>
       <c r="CY29"/>
@@ -5676,120 +5630,120 @@
       <c r="FD29"/>
     </row>
     <row r="30" spans="1:160" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="92"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="92"/>
-      <c r="AJ30" s="144"/>
-      <c r="AK30" s="128" t="s">
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="91"/>
+      <c r="AE30" s="91"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="91"/>
+      <c r="AH30" s="91"/>
+      <c r="AI30" s="91"/>
+      <c r="AJ30" s="138"/>
+      <c r="AK30" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="AL30" s="128" t="s">
+      <c r="AL30" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="AM30" s="128" t="s">
+      <c r="AM30" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="AN30" s="128" t="s">
+      <c r="AN30" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="AO30" s="128" t="s">
+      <c r="AO30" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="AP30" s="92"/>
-      <c r="AQ30" s="92"/>
-      <c r="AR30" s="92"/>
-      <c r="AS30" s="92"/>
-      <c r="AT30" s="92"/>
-      <c r="AU30" s="92"/>
-      <c r="AV30" s="92"/>
-      <c r="AW30" s="92"/>
-      <c r="AX30" s="92"/>
-      <c r="AY30" s="92"/>
-      <c r="AZ30" s="92"/>
-      <c r="BA30" s="92"/>
-      <c r="BB30" s="92"/>
-      <c r="BC30" s="92"/>
-      <c r="BD30" s="92"/>
-      <c r="BE30" s="92"/>
-      <c r="BF30" s="92"/>
-      <c r="BG30" s="92"/>
-      <c r="BH30" s="92"/>
-      <c r="BI30" s="92"/>
-      <c r="BJ30" s="92"/>
-      <c r="BK30" s="92"/>
-      <c r="BL30" s="92"/>
-      <c r="BM30" s="92"/>
-      <c r="BN30" s="92"/>
-      <c r="BO30" s="92"/>
-      <c r="BP30" s="92"/>
-      <c r="BQ30" s="92"/>
-      <c r="BR30" s="92"/>
-      <c r="BS30" s="92"/>
-      <c r="BT30" s="92"/>
-      <c r="BU30" s="92"/>
-      <c r="BV30" s="92"/>
-      <c r="BW30" s="92"/>
-      <c r="BX30" s="92"/>
-      <c r="BY30" s="92"/>
-      <c r="BZ30" s="92"/>
-      <c r="CA30" s="92"/>
-      <c r="CB30" s="92"/>
-      <c r="CC30" s="92"/>
-      <c r="CD30" s="92"/>
-      <c r="CE30" s="92"/>
-      <c r="CF30" s="92"/>
-      <c r="CG30" s="92"/>
-      <c r="CH30" s="92"/>
-      <c r="CI30" s="92"/>
-      <c r="CJ30" s="92"/>
-      <c r="CK30" s="92"/>
-      <c r="CL30" s="92"/>
-      <c r="CM30" s="92"/>
-      <c r="CN30" s="92"/>
-      <c r="CO30" s="92"/>
-      <c r="CP30" s="92"/>
-      <c r="CQ30" s="92"/>
-      <c r="CR30" s="92"/>
-      <c r="CS30" s="92"/>
-      <c r="CT30" s="92"/>
-      <c r="CU30" s="92"/>
-      <c r="CV30" s="93"/>
+      <c r="AP30" s="91"/>
+      <c r="AQ30" s="91"/>
+      <c r="AR30" s="91"/>
+      <c r="AS30" s="91"/>
+      <c r="AT30" s="91"/>
+      <c r="AU30" s="91"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="91"/>
+      <c r="AY30" s="91"/>
+      <c r="AZ30" s="91"/>
+      <c r="BA30" s="91"/>
+      <c r="BB30" s="91"/>
+      <c r="BC30" s="91"/>
+      <c r="BD30" s="91"/>
+      <c r="BE30" s="91"/>
+      <c r="BF30" s="91"/>
+      <c r="BG30" s="91"/>
+      <c r="BH30" s="91"/>
+      <c r="BI30" s="91"/>
+      <c r="BJ30" s="91"/>
+      <c r="BK30" s="91"/>
+      <c r="BL30" s="91"/>
+      <c r="BM30" s="91"/>
+      <c r="BN30" s="91"/>
+      <c r="BO30" s="91"/>
+      <c r="BP30" s="91"/>
+      <c r="BQ30" s="91"/>
+      <c r="BR30" s="91"/>
+      <c r="BS30" s="91"/>
+      <c r="BT30" s="91"/>
+      <c r="BU30" s="91"/>
+      <c r="BV30" s="91"/>
+      <c r="BW30" s="91"/>
+      <c r="BX30" s="91"/>
+      <c r="BY30" s="91"/>
+      <c r="BZ30" s="91"/>
+      <c r="CA30" s="91"/>
+      <c r="CB30" s="91"/>
+      <c r="CC30" s="91"/>
+      <c r="CD30" s="91"/>
+      <c r="CE30" s="91"/>
+      <c r="CF30" s="91"/>
+      <c r="CG30" s="91"/>
+      <c r="CH30" s="91"/>
+      <c r="CI30" s="91"/>
+      <c r="CJ30" s="91"/>
+      <c r="CK30" s="91"/>
+      <c r="CL30" s="91"/>
+      <c r="CM30" s="91"/>
+      <c r="CN30" s="91"/>
+      <c r="CO30" s="91"/>
+      <c r="CP30" s="91"/>
+      <c r="CQ30" s="91"/>
+      <c r="CR30" s="91"/>
+      <c r="CS30" s="91"/>
+      <c r="CT30" s="91"/>
+      <c r="CU30" s="91"/>
+      <c r="CV30" s="92"/>
       <c r="CW30"/>
       <c r="CX30"/>
       <c r="CY30"/>
@@ -5855,10 +5809,10 @@
       <c r="A31" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="48"/>
       <c r="AV31" s="13"/>
       <c r="AW31" s="13"/>
-      <c r="CV31" s="50"/>
+      <c r="CV31" s="49"/>
       <c r="CW31"/>
       <c r="CX31"/>
       <c r="CY31"/>
@@ -5924,43 +5878,43 @@
       <c r="A32" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="AP32" s="67" t="s">
+      <c r="B32" s="50"/>
+      <c r="AP32" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="AX32" s="67" t="s">
+      <c r="AX32" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="AY32" s="67" t="s">
+      <c r="AY32" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="AZ32" s="67" t="s">
+      <c r="AZ32" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="BA32" s="67" t="s">
+      <c r="BA32" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="BB32" s="67" t="s">
+      <c r="BB32" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="BC32" s="67" t="s">
+      <c r="BC32" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="BD32" s="67" t="s">
+      <c r="BD32" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="BE32" s="67" t="s">
+      <c r="BE32" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="BF32" s="67" t="s">
+      <c r="BF32" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="BG32" s="67" t="s">
+      <c r="BG32" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="BH32" s="127"/>
-      <c r="BI32" s="127"/>
-      <c r="CV32" s="52"/>
+      <c r="BH32" s="125"/>
+      <c r="BI32" s="125"/>
+      <c r="CV32" s="51"/>
       <c r="CW32"/>
       <c r="CX32"/>
       <c r="CY32"/>
@@ -6026,30 +5980,30 @@
       <c r="A33" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="AP33" s="41"/>
-      <c r="AS33" s="127"/>
-      <c r="AT33" s="127"/>
-      <c r="AU33" s="67" t="s">
+      <c r="B33" s="50"/>
+      <c r="AP33" s="40"/>
+      <c r="AS33" s="125"/>
+      <c r="AT33" s="125"/>
+      <c r="AU33" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="67" t="s">
+      <c r="AV33" s="40"/>
+      <c r="AW33" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="AX33" s="67"/>
-      <c r="AY33" s="67"/>
-      <c r="AZ33" s="67"/>
-      <c r="BA33" s="67"/>
-      <c r="BB33" s="67"/>
-      <c r="BC33" s="67"/>
-      <c r="BD33" s="67"/>
-      <c r="BE33" s="67"/>
-      <c r="BF33" s="67"/>
-      <c r="BG33" s="67"/>
-      <c r="BH33" s="127"/>
-      <c r="BI33" s="127"/>
-      <c r="CV33" s="52"/>
+      <c r="AX33" s="66"/>
+      <c r="AY33" s="66"/>
+      <c r="AZ33" s="66"/>
+      <c r="BA33" s="66"/>
+      <c r="BB33" s="66"/>
+      <c r="BC33" s="66"/>
+      <c r="BD33" s="66"/>
+      <c r="BE33" s="66"/>
+      <c r="BF33" s="66"/>
+      <c r="BG33" s="66"/>
+      <c r="BH33" s="125"/>
+      <c r="BI33" s="125"/>
+      <c r="CV33" s="51"/>
       <c r="CW33"/>
       <c r="CX33"/>
       <c r="CY33"/>
@@ -6115,21 +6069,21 @@
       <c r="A34" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="AP34" s="41"/>
-      <c r="AX34" s="67"/>
-      <c r="AY34" s="67"/>
-      <c r="AZ34" s="67"/>
-      <c r="BA34" s="67"/>
-      <c r="BB34" s="67"/>
-      <c r="BC34" s="67"/>
-      <c r="BD34" s="67"/>
-      <c r="BE34" s="67"/>
-      <c r="BF34" s="67"/>
-      <c r="BG34" s="67"/>
-      <c r="BH34" s="127"/>
-      <c r="BI34" s="127"/>
-      <c r="CV34" s="52"/>
+      <c r="B34" s="50"/>
+      <c r="AP34" s="40"/>
+      <c r="AX34" s="66"/>
+      <c r="AY34" s="66"/>
+      <c r="AZ34" s="66"/>
+      <c r="BA34" s="66"/>
+      <c r="BB34" s="66"/>
+      <c r="BC34" s="66"/>
+      <c r="BD34" s="66"/>
+      <c r="BE34" s="66"/>
+      <c r="BF34" s="66"/>
+      <c r="BG34" s="66"/>
+      <c r="BH34" s="125"/>
+      <c r="BI34" s="125"/>
+      <c r="CV34" s="51"/>
       <c r="CW34"/>
       <c r="CX34"/>
       <c r="CY34"/>
@@ -6195,22 +6149,22 @@
       <c r="A35" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="AP35" s="41"/>
-      <c r="AW35" s="41"/>
-      <c r="AX35" s="67"/>
-      <c r="AY35" s="67"/>
-      <c r="AZ35" s="67"/>
-      <c r="BA35" s="67"/>
-      <c r="BB35" s="67"/>
-      <c r="BC35" s="67"/>
-      <c r="BD35" s="67"/>
-      <c r="BE35" s="67"/>
-      <c r="BF35" s="67"/>
-      <c r="BG35" s="67"/>
-      <c r="BH35" s="127"/>
-      <c r="BI35" s="127"/>
-      <c r="CV35" s="52"/>
+      <c r="B35" s="50"/>
+      <c r="AP35" s="40"/>
+      <c r="AW35" s="40"/>
+      <c r="AX35" s="66"/>
+      <c r="AY35" s="66"/>
+      <c r="AZ35" s="66"/>
+      <c r="BA35" s="66"/>
+      <c r="BB35" s="66"/>
+      <c r="BC35" s="66"/>
+      <c r="BD35" s="66"/>
+      <c r="BE35" s="66"/>
+      <c r="BF35" s="66"/>
+      <c r="BG35" s="66"/>
+      <c r="BH35" s="125"/>
+      <c r="BI35" s="125"/>
+      <c r="CV35" s="51"/>
       <c r="CW35"/>
       <c r="CX35"/>
       <c r="CY35"/>
@@ -6276,21 +6230,21 @@
       <c r="A36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="AP36" s="41"/>
-      <c r="AX36" s="67"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="67"/>
-      <c r="BA36" s="67"/>
-      <c r="BB36" s="67"/>
-      <c r="BC36" s="67"/>
-      <c r="BD36" s="67"/>
-      <c r="BE36" s="67"/>
-      <c r="BF36" s="67"/>
-      <c r="BG36" s="67"/>
-      <c r="BH36" s="127"/>
-      <c r="BI36" s="127"/>
-      <c r="CV36" s="52"/>
+      <c r="B36" s="50"/>
+      <c r="AP36" s="40"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="66"/>
+      <c r="AZ36" s="66"/>
+      <c r="BA36" s="66"/>
+      <c r="BB36" s="66"/>
+      <c r="BC36" s="66"/>
+      <c r="BD36" s="66"/>
+      <c r="BE36" s="66"/>
+      <c r="BF36" s="66"/>
+      <c r="BG36" s="66"/>
+      <c r="BH36" s="125"/>
+      <c r="BI36" s="125"/>
+      <c r="CV36" s="51"/>
       <c r="CW36"/>
       <c r="CX36"/>
       <c r="CY36"/>
@@ -6356,44 +6310,44 @@
       <c r="A37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="AQ37" s="68" t="s">
+      <c r="AQ37" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AR37" s="68" t="s">
+      <c r="AR37" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AS37" s="68" t="s">
+      <c r="AS37" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AT37" s="68" t="s">
+      <c r="AT37" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="BG37" s="129"/>
-      <c r="BH37" s="68" t="s">
+      <c r="BG37" s="127"/>
+      <c r="BH37" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="BI37" s="68" t="s">
+      <c r="BI37" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="BJ37" s="68" t="s">
+      <c r="BJ37" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="BK37" s="68" t="s">
+      <c r="BK37" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="BL37" s="68" t="s">
+      <c r="BL37" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="BM37" s="68" t="s">
+      <c r="BM37" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="BN37" s="67" t="s">
+      <c r="BN37" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="CV37" s="54"/>
+      <c r="CV37" s="53"/>
       <c r="CW37"/>
       <c r="CX37"/>
       <c r="CY37"/>
@@ -6456,108 +6410,108 @@
       <c r="FD37"/>
     </row>
     <row r="38" spans="1:160" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="104"/>
-      <c r="T38" s="104"/>
-      <c r="U38" s="104"/>
-      <c r="V38" s="104"/>
-      <c r="W38" s="104"/>
-      <c r="X38" s="104"/>
-      <c r="Y38" s="104"/>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="104"/>
-      <c r="AB38" s="104"/>
-      <c r="AC38" s="104"/>
-      <c r="AD38" s="104"/>
-      <c r="AE38" s="104"/>
-      <c r="AF38" s="104"/>
-      <c r="AG38" s="104"/>
-      <c r="AH38" s="104"/>
-      <c r="AI38" s="104"/>
-      <c r="AJ38" s="104"/>
-      <c r="AK38" s="104"/>
-      <c r="AL38" s="104"/>
-      <c r="AM38" s="104"/>
-      <c r="AN38" s="104"/>
-      <c r="AO38" s="104"/>
-      <c r="AP38" s="104"/>
-      <c r="AQ38" s="104"/>
-      <c r="AR38" s="104"/>
-      <c r="AS38" s="104"/>
-      <c r="AT38" s="104"/>
-      <c r="AU38" s="104"/>
-      <c r="AV38" s="104"/>
-      <c r="AW38" s="104"/>
-      <c r="AX38" s="104"/>
-      <c r="AY38" s="104"/>
-      <c r="AZ38" s="104"/>
-      <c r="BA38" s="104"/>
-      <c r="BB38" s="104"/>
-      <c r="BC38" s="104"/>
-      <c r="BD38" s="104"/>
-      <c r="BE38" s="104"/>
-      <c r="BF38" s="104"/>
-      <c r="BG38" s="104"/>
-      <c r="BH38" s="104"/>
-      <c r="BI38" s="104"/>
-      <c r="BJ38" s="104"/>
-      <c r="BK38" s="104"/>
-      <c r="BL38" s="104"/>
-      <c r="BM38" s="104"/>
-      <c r="BN38" s="104"/>
-      <c r="BO38" s="104"/>
-      <c r="BP38" s="104"/>
-      <c r="BQ38" s="105"/>
-      <c r="BR38" s="105"/>
-      <c r="BS38" s="105"/>
-      <c r="BT38" s="105"/>
-      <c r="BU38" s="105"/>
-      <c r="BV38" s="105"/>
-      <c r="BW38" s="107"/>
-      <c r="BX38" s="105"/>
-      <c r="BY38" s="105"/>
-      <c r="BZ38" s="104"/>
-      <c r="CA38" s="104"/>
-      <c r="CB38" s="104"/>
-      <c r="CC38" s="104"/>
-      <c r="CD38" s="104"/>
-      <c r="CE38" s="104"/>
-      <c r="CF38" s="104"/>
-      <c r="CG38" s="104"/>
-      <c r="CH38" s="104"/>
-      <c r="CI38" s="104"/>
-      <c r="CJ38" s="104"/>
-      <c r="CK38" s="104"/>
-      <c r="CL38" s="104"/>
-      <c r="CM38" s="104"/>
-      <c r="CN38" s="104"/>
-      <c r="CO38" s="104"/>
-      <c r="CP38" s="104"/>
-      <c r="CQ38" s="104"/>
-      <c r="CR38" s="104"/>
-      <c r="CS38" s="104"/>
-      <c r="CT38" s="104"/>
-      <c r="CU38" s="104"/>
-      <c r="CV38" s="108"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="103"/>
+      <c r="U38" s="103"/>
+      <c r="V38" s="103"/>
+      <c r="W38" s="103"/>
+      <c r="X38" s="103"/>
+      <c r="Y38" s="103"/>
+      <c r="Z38" s="103"/>
+      <c r="AA38" s="103"/>
+      <c r="AB38" s="103"/>
+      <c r="AC38" s="103"/>
+      <c r="AD38" s="103"/>
+      <c r="AE38" s="103"/>
+      <c r="AF38" s="103"/>
+      <c r="AG38" s="103"/>
+      <c r="AH38" s="103"/>
+      <c r="AI38" s="103"/>
+      <c r="AJ38" s="103"/>
+      <c r="AK38" s="103"/>
+      <c r="AL38" s="103"/>
+      <c r="AM38" s="103"/>
+      <c r="AN38" s="103"/>
+      <c r="AO38" s="103"/>
+      <c r="AP38" s="103"/>
+      <c r="AQ38" s="103"/>
+      <c r="AR38" s="103"/>
+      <c r="AS38" s="103"/>
+      <c r="AT38" s="103"/>
+      <c r="AU38" s="103"/>
+      <c r="AV38" s="103"/>
+      <c r="AW38" s="103"/>
+      <c r="AX38" s="103"/>
+      <c r="AY38" s="103"/>
+      <c r="AZ38" s="103"/>
+      <c r="BA38" s="103"/>
+      <c r="BB38" s="103"/>
+      <c r="BC38" s="103"/>
+      <c r="BD38" s="103"/>
+      <c r="BE38" s="103"/>
+      <c r="BF38" s="103"/>
+      <c r="BG38" s="103"/>
+      <c r="BH38" s="103"/>
+      <c r="BI38" s="103"/>
+      <c r="BJ38" s="103"/>
+      <c r="BK38" s="103"/>
+      <c r="BL38" s="103"/>
+      <c r="BM38" s="103"/>
+      <c r="BN38" s="103"/>
+      <c r="BO38" s="103"/>
+      <c r="BP38" s="103"/>
+      <c r="BQ38" s="104"/>
+      <c r="BR38" s="104"/>
+      <c r="BS38" s="104"/>
+      <c r="BT38" s="104"/>
+      <c r="BU38" s="104"/>
+      <c r="BV38" s="104"/>
+      <c r="BW38" s="106"/>
+      <c r="BX38" s="104"/>
+      <c r="BY38" s="104"/>
+      <c r="BZ38" s="103"/>
+      <c r="CA38" s="103"/>
+      <c r="CB38" s="103"/>
+      <c r="CC38" s="103"/>
+      <c r="CD38" s="103"/>
+      <c r="CE38" s="103"/>
+      <c r="CF38" s="103"/>
+      <c r="CG38" s="103"/>
+      <c r="CH38" s="103"/>
+      <c r="CI38" s="103"/>
+      <c r="CJ38" s="103"/>
+      <c r="CK38" s="103"/>
+      <c r="CL38" s="103"/>
+      <c r="CM38" s="103"/>
+      <c r="CN38" s="103"/>
+      <c r="CO38" s="103"/>
+      <c r="CP38" s="103"/>
+      <c r="CQ38" s="103"/>
+      <c r="CR38" s="103"/>
+      <c r="CS38" s="103"/>
+      <c r="CT38" s="103"/>
+      <c r="CU38" s="103"/>
+      <c r="CV38" s="107"/>
       <c r="CW38"/>
       <c r="CX38"/>
       <c r="CY38"/>
@@ -6620,108 +6574,108 @@
       <c r="FD38"/>
     </row>
     <row r="39" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="106"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="105"/>
-      <c r="T39" s="105"/>
-      <c r="U39" s="105"/>
-      <c r="V39" s="105"/>
-      <c r="W39" s="105"/>
-      <c r="X39" s="105"/>
-      <c r="Y39" s="105"/>
-      <c r="Z39" s="105"/>
-      <c r="AA39" s="105"/>
-      <c r="AB39" s="105"/>
-      <c r="AC39" s="105"/>
-      <c r="AD39" s="105"/>
-      <c r="AE39" s="105"/>
-      <c r="AF39" s="105"/>
-      <c r="AG39" s="105"/>
-      <c r="AH39" s="105"/>
-      <c r="AI39" s="105"/>
-      <c r="AJ39" s="105"/>
-      <c r="AK39" s="105"/>
-      <c r="AL39" s="105"/>
-      <c r="AM39" s="105"/>
-      <c r="AN39" s="105"/>
-      <c r="AO39" s="105"/>
-      <c r="AP39" s="105"/>
-      <c r="AQ39" s="105"/>
-      <c r="AR39" s="105"/>
-      <c r="AS39" s="105"/>
-      <c r="AT39" s="105"/>
-      <c r="AU39" s="105"/>
-      <c r="AV39" s="105"/>
-      <c r="AW39" s="105"/>
-      <c r="AX39" s="105"/>
-      <c r="AY39" s="105"/>
-      <c r="AZ39" s="105"/>
-      <c r="BA39" s="105"/>
-      <c r="BB39" s="105"/>
-      <c r="BC39" s="105"/>
-      <c r="BD39" s="105"/>
-      <c r="BE39" s="105"/>
-      <c r="BF39" s="105"/>
-      <c r="BG39" s="105"/>
-      <c r="BH39" s="105"/>
-      <c r="BI39" s="105"/>
-      <c r="BJ39" s="105"/>
-      <c r="BK39" s="105"/>
-      <c r="BL39" s="105"/>
-      <c r="BM39" s="105"/>
-      <c r="BN39" s="105"/>
-      <c r="BO39" s="147"/>
-      <c r="BP39" s="105"/>
-      <c r="BQ39" s="107"/>
-      <c r="BR39" s="107"/>
-      <c r="BS39" s="107"/>
-      <c r="BT39" s="107"/>
-      <c r="BU39" s="107"/>
-      <c r="BV39" s="107"/>
-      <c r="BW39" s="107"/>
-      <c r="BX39" s="107"/>
-      <c r="BY39" s="107"/>
-      <c r="BZ39" s="105"/>
-      <c r="CA39" s="105"/>
-      <c r="CB39" s="105"/>
-      <c r="CC39" s="105"/>
-      <c r="CD39" s="105"/>
-      <c r="CE39" s="105"/>
-      <c r="CF39" s="105"/>
-      <c r="CG39" s="105"/>
-      <c r="CH39" s="105"/>
-      <c r="CI39" s="105"/>
-      <c r="CJ39" s="105"/>
-      <c r="CK39" s="105"/>
-      <c r="CL39" s="105"/>
-      <c r="CM39" s="105"/>
-      <c r="CN39" s="105"/>
-      <c r="CO39" s="105"/>
-      <c r="CP39" s="105"/>
-      <c r="CQ39" s="105"/>
-      <c r="CR39" s="105"/>
-      <c r="CS39" s="105"/>
-      <c r="CT39" s="105"/>
-      <c r="CU39" s="105"/>
-      <c r="CV39" s="109"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="104"/>
+      <c r="U39" s="104"/>
+      <c r="V39" s="104"/>
+      <c r="W39" s="104"/>
+      <c r="X39" s="104"/>
+      <c r="Y39" s="104"/>
+      <c r="Z39" s="104"/>
+      <c r="AA39" s="104"/>
+      <c r="AB39" s="104"/>
+      <c r="AC39" s="104"/>
+      <c r="AD39" s="104"/>
+      <c r="AE39" s="104"/>
+      <c r="AF39" s="104"/>
+      <c r="AG39" s="104"/>
+      <c r="AH39" s="104"/>
+      <c r="AI39" s="104"/>
+      <c r="AJ39" s="104"/>
+      <c r="AK39" s="104"/>
+      <c r="AL39" s="104"/>
+      <c r="AM39" s="104"/>
+      <c r="AN39" s="104"/>
+      <c r="AO39" s="104"/>
+      <c r="AP39" s="104"/>
+      <c r="AQ39" s="104"/>
+      <c r="AR39" s="104"/>
+      <c r="AS39" s="104"/>
+      <c r="AT39" s="104"/>
+      <c r="AU39" s="104"/>
+      <c r="AV39" s="104"/>
+      <c r="AW39" s="104"/>
+      <c r="AX39" s="104"/>
+      <c r="AY39" s="104"/>
+      <c r="AZ39" s="104"/>
+      <c r="BA39" s="104"/>
+      <c r="BB39" s="104"/>
+      <c r="BC39" s="104"/>
+      <c r="BD39" s="104"/>
+      <c r="BE39" s="104"/>
+      <c r="BF39" s="104"/>
+      <c r="BG39" s="104"/>
+      <c r="BH39" s="104"/>
+      <c r="BI39" s="104"/>
+      <c r="BJ39" s="104"/>
+      <c r="BK39" s="104"/>
+      <c r="BL39" s="104"/>
+      <c r="BM39" s="104"/>
+      <c r="BN39" s="104"/>
+      <c r="BO39" s="141"/>
+      <c r="BP39" s="104"/>
+      <c r="BQ39" s="104"/>
+      <c r="BR39" s="104"/>
+      <c r="BS39" s="104"/>
+      <c r="BT39" s="104"/>
+      <c r="BU39" s="104"/>
+      <c r="BV39" s="104"/>
+      <c r="BW39" s="104"/>
+      <c r="BX39" s="104"/>
+      <c r="BY39" s="104"/>
+      <c r="BZ39" s="104"/>
+      <c r="CA39" s="104"/>
+      <c r="CB39" s="104"/>
+      <c r="CC39" s="104"/>
+      <c r="CD39" s="104"/>
+      <c r="CE39" s="104"/>
+      <c r="CF39" s="104"/>
+      <c r="CG39" s="104"/>
+      <c r="CH39" s="104"/>
+      <c r="CI39" s="104"/>
+      <c r="CJ39" s="104"/>
+      <c r="CK39" s="104"/>
+      <c r="CL39" s="104"/>
+      <c r="CM39" s="104"/>
+      <c r="CN39" s="104"/>
+      <c r="CO39" s="104"/>
+      <c r="CP39" s="104"/>
+      <c r="CQ39" s="104"/>
+      <c r="CR39" s="104"/>
+      <c r="CS39" s="104"/>
+      <c r="CT39" s="104"/>
+      <c r="CU39" s="104"/>
+      <c r="CV39" s="108"/>
       <c r="CW39"/>
       <c r="CX39"/>
       <c r="CY39"/>
@@ -6784,108 +6738,108 @@
       <c r="FD39"/>
     </row>
     <row r="40" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="97" t="s">
+      <c r="A40" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="105"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="105"/>
-      <c r="V40" s="105"/>
-      <c r="W40" s="105"/>
-      <c r="X40" s="105"/>
-      <c r="Y40" s="105"/>
-      <c r="Z40" s="105"/>
-      <c r="AA40" s="105"/>
-      <c r="AB40" s="105"/>
-      <c r="AC40" s="105"/>
-      <c r="AD40" s="105"/>
-      <c r="AE40" s="105"/>
-      <c r="AF40" s="105"/>
-      <c r="AG40" s="105"/>
-      <c r="AH40" s="105"/>
-      <c r="AI40" s="105"/>
-      <c r="AJ40" s="105"/>
-      <c r="AK40" s="105"/>
-      <c r="AL40" s="105"/>
-      <c r="AM40" s="105"/>
-      <c r="AN40" s="105"/>
-      <c r="AO40" s="105"/>
-      <c r="AP40" s="105"/>
-      <c r="AQ40" s="105"/>
-      <c r="AR40" s="105"/>
-      <c r="AS40" s="105"/>
-      <c r="AT40" s="105"/>
-      <c r="AU40" s="105"/>
-      <c r="AV40" s="105"/>
-      <c r="AW40" s="105"/>
-      <c r="AX40" s="105"/>
-      <c r="AY40" s="105"/>
-      <c r="AZ40" s="105"/>
-      <c r="BA40" s="105"/>
-      <c r="BB40" s="105"/>
-      <c r="BC40" s="105"/>
-      <c r="BD40" s="105"/>
-      <c r="BE40" s="105"/>
-      <c r="BF40" s="105"/>
-      <c r="BG40" s="105"/>
-      <c r="BH40" s="105"/>
-      <c r="BI40" s="105"/>
-      <c r="BJ40" s="105"/>
-      <c r="BK40" s="105"/>
-      <c r="BL40" s="105"/>
-      <c r="BM40" s="105"/>
-      <c r="BN40" s="105"/>
-      <c r="BO40" s="146"/>
-      <c r="BP40" s="105"/>
-      <c r="BQ40" s="105"/>
-      <c r="BR40" s="105"/>
-      <c r="BS40" s="105"/>
-      <c r="BT40" s="105"/>
-      <c r="BU40" s="105"/>
-      <c r="BV40" s="105"/>
-      <c r="BW40" s="105"/>
-      <c r="BX40" s="105"/>
-      <c r="BY40" s="105"/>
-      <c r="BZ40" s="105"/>
-      <c r="CA40" s="105"/>
-      <c r="CB40" s="105"/>
-      <c r="CC40" s="105"/>
-      <c r="CD40" s="105"/>
-      <c r="CE40" s="105"/>
-      <c r="CF40" s="105"/>
-      <c r="CG40" s="105"/>
-      <c r="CH40" s="105"/>
-      <c r="CI40" s="105"/>
-      <c r="CJ40" s="105"/>
-      <c r="CK40" s="105"/>
-      <c r="CL40" s="105"/>
-      <c r="CM40" s="105"/>
-      <c r="CN40" s="105"/>
-      <c r="CO40" s="105"/>
-      <c r="CP40" s="105"/>
-      <c r="CQ40" s="105"/>
-      <c r="CR40" s="105"/>
-      <c r="CS40" s="105"/>
-      <c r="CT40" s="105"/>
-      <c r="CU40" s="105"/>
-      <c r="CV40" s="109"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
+      <c r="T40" s="104"/>
+      <c r="U40" s="104"/>
+      <c r="V40" s="104"/>
+      <c r="W40" s="104"/>
+      <c r="X40" s="104"/>
+      <c r="Y40" s="104"/>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="104"/>
+      <c r="AB40" s="104"/>
+      <c r="AC40" s="104"/>
+      <c r="AD40" s="104"/>
+      <c r="AE40" s="104"/>
+      <c r="AF40" s="104"/>
+      <c r="AG40" s="104"/>
+      <c r="AH40" s="104"/>
+      <c r="AI40" s="104"/>
+      <c r="AJ40" s="104"/>
+      <c r="AK40" s="104"/>
+      <c r="AL40" s="104"/>
+      <c r="AM40" s="104"/>
+      <c r="AN40" s="104"/>
+      <c r="AO40" s="104"/>
+      <c r="AP40" s="104"/>
+      <c r="AQ40" s="104"/>
+      <c r="AR40" s="104"/>
+      <c r="AS40" s="104"/>
+      <c r="AT40" s="104"/>
+      <c r="AU40" s="104"/>
+      <c r="AV40" s="104"/>
+      <c r="AW40" s="104"/>
+      <c r="AX40" s="104"/>
+      <c r="AY40" s="104"/>
+      <c r="AZ40" s="104"/>
+      <c r="BA40" s="104"/>
+      <c r="BB40" s="104"/>
+      <c r="BC40" s="104"/>
+      <c r="BD40" s="104"/>
+      <c r="BE40" s="104"/>
+      <c r="BF40" s="104"/>
+      <c r="BG40" s="104"/>
+      <c r="BH40" s="104"/>
+      <c r="BI40" s="104"/>
+      <c r="BJ40" s="104"/>
+      <c r="BK40" s="104"/>
+      <c r="BL40" s="104"/>
+      <c r="BM40" s="104"/>
+      <c r="BN40" s="104"/>
+      <c r="BO40" s="140"/>
+      <c r="BP40" s="104"/>
+      <c r="BQ40" s="104"/>
+      <c r="BR40" s="104"/>
+      <c r="BS40" s="104"/>
+      <c r="BT40" s="104"/>
+      <c r="BU40" s="104"/>
+      <c r="BV40" s="104"/>
+      <c r="BW40" s="104"/>
+      <c r="BX40" s="104"/>
+      <c r="BY40" s="104"/>
+      <c r="BZ40" s="104"/>
+      <c r="CA40" s="104"/>
+      <c r="CB40" s="104"/>
+      <c r="CC40" s="104"/>
+      <c r="CD40" s="104"/>
+      <c r="CE40" s="104"/>
+      <c r="CF40" s="104"/>
+      <c r="CG40" s="104"/>
+      <c r="CH40" s="104"/>
+      <c r="CI40" s="104"/>
+      <c r="CJ40" s="104"/>
+      <c r="CK40" s="104"/>
+      <c r="CL40" s="104"/>
+      <c r="CM40" s="104"/>
+      <c r="CN40" s="104"/>
+      <c r="CO40" s="104"/>
+      <c r="CP40" s="104"/>
+      <c r="CQ40" s="104"/>
+      <c r="CR40" s="104"/>
+      <c r="CS40" s="104"/>
+      <c r="CT40" s="104"/>
+      <c r="CU40" s="104"/>
+      <c r="CV40" s="108"/>
       <c r="CW40"/>
       <c r="CX40"/>
       <c r="CY40"/>
@@ -6948,124 +6902,124 @@
       <c r="FD40"/>
     </row>
     <row r="41" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="106"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="105"/>
-      <c r="S41" s="105"/>
-      <c r="T41" s="105"/>
-      <c r="U41" s="105"/>
-      <c r="V41" s="105"/>
-      <c r="W41" s="105"/>
-      <c r="X41" s="105"/>
-      <c r="Y41" s="105"/>
-      <c r="Z41" s="105"/>
-      <c r="AA41" s="105"/>
-      <c r="AB41" s="105"/>
-      <c r="AC41" s="105"/>
-      <c r="AD41" s="105"/>
-      <c r="AE41" s="105"/>
-      <c r="AF41" s="105"/>
-      <c r="AG41" s="105"/>
-      <c r="AH41" s="105"/>
-      <c r="AI41" s="105"/>
-      <c r="AJ41" s="105"/>
-      <c r="AK41" s="105"/>
-      <c r="AL41" s="105"/>
-      <c r="AM41" s="105"/>
-      <c r="AN41" s="105"/>
-      <c r="AO41" s="105"/>
-      <c r="AP41" s="105"/>
-      <c r="AQ41" s="105"/>
-      <c r="AR41" s="105"/>
-      <c r="AS41" s="105"/>
-      <c r="AT41" s="105"/>
-      <c r="AU41" s="105"/>
-      <c r="AV41" s="105"/>
-      <c r="AW41" s="105"/>
-      <c r="AX41" s="105"/>
-      <c r="AY41" s="105"/>
-      <c r="AZ41" s="105"/>
-      <c r="BA41" s="105"/>
-      <c r="BB41" s="105"/>
-      <c r="BC41" s="105"/>
-      <c r="BD41" s="105"/>
-      <c r="BE41" s="105"/>
-      <c r="BF41" s="105"/>
-      <c r="BG41" s="105"/>
-      <c r="BH41" s="105"/>
-      <c r="BI41" s="105"/>
-      <c r="BJ41" s="105"/>
-      <c r="BK41" s="105"/>
-      <c r="BL41" s="105"/>
-      <c r="BM41" s="105"/>
-      <c r="BN41" s="105"/>
-      <c r="BO41" s="105"/>
-      <c r="BP41" s="146"/>
-      <c r="BQ41" s="147" t="s">
+      <c r="B41" s="105"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="104"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="104"/>
+      <c r="X41" s="104"/>
+      <c r="Y41" s="104"/>
+      <c r="Z41" s="104"/>
+      <c r="AA41" s="104"/>
+      <c r="AB41" s="104"/>
+      <c r="AC41" s="104"/>
+      <c r="AD41" s="104"/>
+      <c r="AE41" s="104"/>
+      <c r="AF41" s="104"/>
+      <c r="AG41" s="104"/>
+      <c r="AH41" s="104"/>
+      <c r="AI41" s="104"/>
+      <c r="AJ41" s="104"/>
+      <c r="AK41" s="104"/>
+      <c r="AL41" s="104"/>
+      <c r="AM41" s="104"/>
+      <c r="AN41" s="104"/>
+      <c r="AO41" s="104"/>
+      <c r="AP41" s="104"/>
+      <c r="AQ41" s="104"/>
+      <c r="AR41" s="104"/>
+      <c r="AS41" s="104"/>
+      <c r="AT41" s="104"/>
+      <c r="AU41" s="104"/>
+      <c r="AV41" s="104"/>
+      <c r="AW41" s="104"/>
+      <c r="AX41" s="104"/>
+      <c r="AY41" s="104"/>
+      <c r="AZ41" s="104"/>
+      <c r="BA41" s="104"/>
+      <c r="BB41" s="104"/>
+      <c r="BC41" s="104"/>
+      <c r="BD41" s="104"/>
+      <c r="BE41" s="104"/>
+      <c r="BF41" s="104"/>
+      <c r="BG41" s="104"/>
+      <c r="BH41" s="104"/>
+      <c r="BI41" s="104"/>
+      <c r="BJ41" s="104"/>
+      <c r="BK41" s="104"/>
+      <c r="BL41" s="104"/>
+      <c r="BM41" s="104"/>
+      <c r="BN41" s="104"/>
+      <c r="BO41" s="104"/>
+      <c r="BP41" s="140"/>
+      <c r="BQ41" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="BR41" s="147" t="s">
+      <c r="BR41" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="BS41" s="147" t="s">
+      <c r="BS41" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="BT41" s="147" t="s">
+      <c r="BT41" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="BU41" s="147" t="s">
+      <c r="BU41" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="BV41" s="147" t="s">
+      <c r="BV41" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="BW41" s="147" t="s">
+      <c r="BW41" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="BX41" s="147" t="s">
+      <c r="BX41" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="BY41" s="105"/>
-      <c r="BZ41" s="105"/>
-      <c r="CA41" s="105"/>
-      <c r="CB41" s="105"/>
-      <c r="CC41" s="105"/>
-      <c r="CD41" s="105"/>
-      <c r="CE41" s="105"/>
-      <c r="CF41" s="105"/>
-      <c r="CG41" s="105"/>
-      <c r="CH41" s="105"/>
-      <c r="CI41" s="105"/>
-      <c r="CJ41" s="105"/>
-      <c r="CK41" s="105"/>
-      <c r="CL41" s="105"/>
-      <c r="CM41" s="105"/>
-      <c r="CN41" s="105"/>
-      <c r="CO41" s="105"/>
-      <c r="CP41" s="105"/>
-      <c r="CQ41" s="105"/>
-      <c r="CR41" s="105"/>
-      <c r="CS41" s="105"/>
-      <c r="CT41" s="105"/>
-      <c r="CU41" s="105"/>
-      <c r="CV41" s="109"/>
+      <c r="BY41" s="104"/>
+      <c r="BZ41" s="104"/>
+      <c r="CA41" s="104"/>
+      <c r="CB41" s="104"/>
+      <c r="CC41" s="104"/>
+      <c r="CD41" s="104"/>
+      <c r="CE41" s="104"/>
+      <c r="CF41" s="104"/>
+      <c r="CG41" s="104"/>
+      <c r="CH41" s="104"/>
+      <c r="CI41" s="104"/>
+      <c r="CJ41" s="104"/>
+      <c r="CK41" s="104"/>
+      <c r="CL41" s="104"/>
+      <c r="CM41" s="104"/>
+      <c r="CN41" s="104"/>
+      <c r="CO41" s="104"/>
+      <c r="CP41" s="104"/>
+      <c r="CQ41" s="104"/>
+      <c r="CR41" s="104"/>
+      <c r="CS41" s="104"/>
+      <c r="CT41" s="104"/>
+      <c r="CU41" s="104"/>
+      <c r="CV41" s="108"/>
       <c r="CW41"/>
       <c r="CX41"/>
       <c r="CY41"/>
@@ -7128,108 +7082,108 @@
       <c r="FD41"/>
     </row>
     <row r="42" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
-      <c r="R42" s="105"/>
-      <c r="S42" s="105"/>
-      <c r="T42" s="105"/>
-      <c r="U42" s="105"/>
-      <c r="V42" s="105"/>
-      <c r="W42" s="105"/>
-      <c r="X42" s="105"/>
-      <c r="Y42" s="105"/>
-      <c r="Z42" s="105"/>
-      <c r="AA42" s="105"/>
-      <c r="AB42" s="105"/>
-      <c r="AC42" s="105"/>
-      <c r="AD42" s="105"/>
-      <c r="AE42" s="105"/>
-      <c r="AF42" s="105"/>
-      <c r="AG42" s="105"/>
-      <c r="AH42" s="105"/>
-      <c r="AI42" s="105"/>
-      <c r="AJ42" s="105"/>
-      <c r="AK42" s="105"/>
-      <c r="AL42" s="105"/>
-      <c r="AM42" s="105"/>
-      <c r="AN42" s="105"/>
-      <c r="AO42" s="105"/>
-      <c r="AP42" s="105"/>
-      <c r="AQ42" s="105"/>
-      <c r="AR42" s="105"/>
-      <c r="AS42" s="105"/>
-      <c r="AT42" s="105"/>
-      <c r="AU42" s="105"/>
-      <c r="AV42" s="105"/>
-      <c r="AW42" s="105"/>
-      <c r="AX42" s="105"/>
-      <c r="AY42" s="105"/>
-      <c r="AZ42" s="105"/>
-      <c r="BA42" s="105"/>
-      <c r="BB42" s="105"/>
-      <c r="BC42" s="105"/>
-      <c r="BD42" s="105"/>
-      <c r="BE42" s="105"/>
-      <c r="BF42" s="105"/>
-      <c r="BG42" s="105"/>
-      <c r="BH42" s="105"/>
-      <c r="BI42" s="105"/>
-      <c r="BJ42" s="105"/>
-      <c r="BK42" s="105"/>
-      <c r="BL42" s="105"/>
-      <c r="BM42" s="105"/>
-      <c r="BN42" s="105"/>
-      <c r="BO42" s="105"/>
-      <c r="BP42" s="105"/>
-      <c r="BQ42" s="146"/>
-      <c r="BR42" s="146"/>
-      <c r="BS42" s="146"/>
-      <c r="BT42" s="147"/>
-      <c r="BU42" s="147"/>
-      <c r="BV42" s="147"/>
-      <c r="BW42" s="147"/>
-      <c r="BX42" s="147"/>
-      <c r="BY42" s="105"/>
-      <c r="BZ42" s="105"/>
-      <c r="CA42" s="105"/>
-      <c r="CB42" s="105"/>
-      <c r="CC42" s="105"/>
-      <c r="CD42" s="105"/>
-      <c r="CE42" s="105"/>
-      <c r="CF42" s="105"/>
-      <c r="CG42" s="105"/>
-      <c r="CH42" s="105"/>
-      <c r="CI42" s="105"/>
-      <c r="CJ42" s="105"/>
-      <c r="CK42" s="105"/>
-      <c r="CL42" s="105"/>
-      <c r="CM42" s="105"/>
-      <c r="CN42" s="105"/>
-      <c r="CO42" s="105"/>
-      <c r="CP42" s="105"/>
-      <c r="CQ42" s="105"/>
-      <c r="CR42" s="105"/>
-      <c r="CS42" s="105"/>
-      <c r="CT42" s="105"/>
-      <c r="CU42" s="105"/>
-      <c r="CV42" s="109"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="104"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="104"/>
+      <c r="AD42" s="104"/>
+      <c r="AE42" s="104"/>
+      <c r="AF42" s="104"/>
+      <c r="AG42" s="104"/>
+      <c r="AH42" s="104"/>
+      <c r="AI42" s="104"/>
+      <c r="AJ42" s="104"/>
+      <c r="AK42" s="104"/>
+      <c r="AL42" s="104"/>
+      <c r="AM42" s="104"/>
+      <c r="AN42" s="104"/>
+      <c r="AO42" s="104"/>
+      <c r="AP42" s="104"/>
+      <c r="AQ42" s="104"/>
+      <c r="AR42" s="104"/>
+      <c r="AS42" s="104"/>
+      <c r="AT42" s="104"/>
+      <c r="AU42" s="104"/>
+      <c r="AV42" s="104"/>
+      <c r="AW42" s="104"/>
+      <c r="AX42" s="104"/>
+      <c r="AY42" s="104"/>
+      <c r="AZ42" s="104"/>
+      <c r="BA42" s="104"/>
+      <c r="BB42" s="104"/>
+      <c r="BC42" s="104"/>
+      <c r="BD42" s="104"/>
+      <c r="BE42" s="104"/>
+      <c r="BF42" s="104"/>
+      <c r="BG42" s="104"/>
+      <c r="BH42" s="104"/>
+      <c r="BI42" s="104"/>
+      <c r="BJ42" s="104"/>
+      <c r="BK42" s="104"/>
+      <c r="BL42" s="104"/>
+      <c r="BM42" s="104"/>
+      <c r="BN42" s="104"/>
+      <c r="BO42" s="104"/>
+      <c r="BP42" s="104"/>
+      <c r="BQ42" s="140"/>
+      <c r="BR42" s="140"/>
+      <c r="BS42" s="140"/>
+      <c r="BT42" s="141"/>
+      <c r="BU42" s="141"/>
+      <c r="BV42" s="141"/>
+      <c r="BW42" s="141"/>
+      <c r="BX42" s="141"/>
+      <c r="BY42" s="104"/>
+      <c r="BZ42" s="104"/>
+      <c r="CA42" s="104"/>
+      <c r="CB42" s="104"/>
+      <c r="CC42" s="104"/>
+      <c r="CD42" s="104"/>
+      <c r="CE42" s="104"/>
+      <c r="CF42" s="104"/>
+      <c r="CG42" s="104"/>
+      <c r="CH42" s="104"/>
+      <c r="CI42" s="104"/>
+      <c r="CJ42" s="104"/>
+      <c r="CK42" s="104"/>
+      <c r="CL42" s="104"/>
+      <c r="CM42" s="104"/>
+      <c r="CN42" s="104"/>
+      <c r="CO42" s="104"/>
+      <c r="CP42" s="104"/>
+      <c r="CQ42" s="104"/>
+      <c r="CR42" s="104"/>
+      <c r="CS42" s="104"/>
+      <c r="CT42" s="104"/>
+      <c r="CU42" s="104"/>
+      <c r="CV42" s="108"/>
       <c r="CW42"/>
       <c r="CX42"/>
       <c r="CY42"/>
@@ -7292,108 +7246,108 @@
       <c r="FD42"/>
     </row>
     <row r="43" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="105"/>
-      <c r="R43" s="105"/>
-      <c r="S43" s="105"/>
-      <c r="T43" s="105"/>
-      <c r="U43" s="105"/>
-      <c r="V43" s="105"/>
-      <c r="W43" s="105"/>
-      <c r="X43" s="105"/>
-      <c r="Y43" s="105"/>
-      <c r="Z43" s="105"/>
-      <c r="AA43" s="105"/>
-      <c r="AB43" s="105"/>
-      <c r="AC43" s="105"/>
-      <c r="AD43" s="105"/>
-      <c r="AE43" s="105"/>
-      <c r="AF43" s="105"/>
-      <c r="AG43" s="105"/>
-      <c r="AH43" s="105"/>
-      <c r="AI43" s="105"/>
-      <c r="AJ43" s="105"/>
-      <c r="AK43" s="105"/>
-      <c r="AL43" s="105"/>
-      <c r="AM43" s="105"/>
-      <c r="AN43" s="105"/>
-      <c r="AO43" s="105"/>
-      <c r="AP43" s="105"/>
-      <c r="AQ43" s="105"/>
-      <c r="AR43" s="105"/>
-      <c r="AS43" s="105"/>
-      <c r="AT43" s="105"/>
-      <c r="AU43" s="105"/>
-      <c r="AV43" s="105"/>
-      <c r="AW43" s="105"/>
-      <c r="AX43" s="105"/>
-      <c r="AY43" s="105"/>
-      <c r="AZ43" s="105"/>
-      <c r="BA43" s="105"/>
-      <c r="BB43" s="105"/>
-      <c r="BC43" s="105"/>
-      <c r="BD43" s="105"/>
-      <c r="BE43" s="105"/>
-      <c r="BF43" s="105"/>
-      <c r="BG43" s="105"/>
-      <c r="BH43" s="105"/>
-      <c r="BI43" s="105"/>
-      <c r="BJ43" s="105"/>
-      <c r="BK43" s="105"/>
-      <c r="BL43" s="105"/>
-      <c r="BM43" s="105"/>
-      <c r="BN43" s="105"/>
-      <c r="BO43" s="105"/>
-      <c r="BP43" s="105"/>
-      <c r="BQ43" s="146"/>
-      <c r="BR43" s="146"/>
-      <c r="BS43" s="146"/>
-      <c r="BT43" s="147"/>
-      <c r="BU43" s="147"/>
-      <c r="BV43" s="147"/>
-      <c r="BW43" s="147"/>
-      <c r="BX43" s="147"/>
-      <c r="BY43" s="105"/>
-      <c r="BZ43" s="105"/>
-      <c r="CA43" s="105"/>
-      <c r="CB43" s="105"/>
-      <c r="CC43" s="105"/>
-      <c r="CD43" s="105"/>
-      <c r="CE43" s="105"/>
-      <c r="CF43" s="105"/>
-      <c r="CG43" s="105"/>
-      <c r="CH43" s="105"/>
-      <c r="CI43" s="105"/>
-      <c r="CJ43" s="105"/>
-      <c r="CK43" s="105"/>
-      <c r="CL43" s="105"/>
-      <c r="CM43" s="105"/>
-      <c r="CN43" s="105"/>
-      <c r="CO43" s="105"/>
-      <c r="CP43" s="105"/>
-      <c r="CQ43" s="105"/>
-      <c r="CR43" s="105"/>
-      <c r="CS43" s="105"/>
-      <c r="CT43" s="105"/>
-      <c r="CU43" s="105"/>
-      <c r="CV43" s="109"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="104"/>
+      <c r="T43" s="104"/>
+      <c r="U43" s="104"/>
+      <c r="V43" s="104"/>
+      <c r="W43" s="104"/>
+      <c r="X43" s="104"/>
+      <c r="Y43" s="104"/>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="104"/>
+      <c r="AB43" s="104"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="104"/>
+      <c r="AE43" s="104"/>
+      <c r="AF43" s="104"/>
+      <c r="AG43" s="104"/>
+      <c r="AH43" s="104"/>
+      <c r="AI43" s="104"/>
+      <c r="AJ43" s="104"/>
+      <c r="AK43" s="104"/>
+      <c r="AL43" s="104"/>
+      <c r="AM43" s="104"/>
+      <c r="AN43" s="104"/>
+      <c r="AO43" s="104"/>
+      <c r="AP43" s="104"/>
+      <c r="AQ43" s="104"/>
+      <c r="AR43" s="104"/>
+      <c r="AS43" s="104"/>
+      <c r="AT43" s="104"/>
+      <c r="AU43" s="104"/>
+      <c r="AV43" s="104"/>
+      <c r="AW43" s="104"/>
+      <c r="AX43" s="104"/>
+      <c r="AY43" s="104"/>
+      <c r="AZ43" s="104"/>
+      <c r="BA43" s="104"/>
+      <c r="BB43" s="104"/>
+      <c r="BC43" s="104"/>
+      <c r="BD43" s="104"/>
+      <c r="BE43" s="104"/>
+      <c r="BF43" s="104"/>
+      <c r="BG43" s="104"/>
+      <c r="BH43" s="104"/>
+      <c r="BI43" s="104"/>
+      <c r="BJ43" s="104"/>
+      <c r="BK43" s="104"/>
+      <c r="BL43" s="104"/>
+      <c r="BM43" s="104"/>
+      <c r="BN43" s="104"/>
+      <c r="BO43" s="104"/>
+      <c r="BP43" s="104"/>
+      <c r="BQ43" s="140"/>
+      <c r="BR43" s="140"/>
+      <c r="BS43" s="140"/>
+      <c r="BT43" s="141"/>
+      <c r="BU43" s="141"/>
+      <c r="BV43" s="141"/>
+      <c r="BW43" s="141"/>
+      <c r="BX43" s="141"/>
+      <c r="BY43" s="104"/>
+      <c r="BZ43" s="104"/>
+      <c r="CA43" s="104"/>
+      <c r="CB43" s="104"/>
+      <c r="CC43" s="104"/>
+      <c r="CD43" s="104"/>
+      <c r="CE43" s="104"/>
+      <c r="CF43" s="104"/>
+      <c r="CG43" s="104"/>
+      <c r="CH43" s="104"/>
+      <c r="CI43" s="104"/>
+      <c r="CJ43" s="104"/>
+      <c r="CK43" s="104"/>
+      <c r="CL43" s="104"/>
+      <c r="CM43" s="104"/>
+      <c r="CN43" s="104"/>
+      <c r="CO43" s="104"/>
+      <c r="CP43" s="104"/>
+      <c r="CQ43" s="104"/>
+      <c r="CR43" s="104"/>
+      <c r="CS43" s="104"/>
+      <c r="CT43" s="104"/>
+      <c r="CU43" s="104"/>
+      <c r="CV43" s="108"/>
       <c r="CW43"/>
       <c r="CX43"/>
       <c r="CY43"/>
@@ -7456,108 +7410,108 @@
       <c r="FD43"/>
     </row>
     <row r="44" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
-      <c r="O44" s="105"/>
-      <c r="P44" s="105"/>
-      <c r="Q44" s="105"/>
-      <c r="R44" s="105"/>
-      <c r="S44" s="105"/>
-      <c r="T44" s="105"/>
-      <c r="U44" s="105"/>
-      <c r="V44" s="105"/>
-      <c r="W44" s="105"/>
-      <c r="X44" s="105"/>
-      <c r="Y44" s="105"/>
-      <c r="Z44" s="105"/>
-      <c r="AA44" s="105"/>
-      <c r="AB44" s="105"/>
-      <c r="AC44" s="105"/>
-      <c r="AD44" s="105"/>
-      <c r="AE44" s="105"/>
-      <c r="AF44" s="105"/>
-      <c r="AG44" s="105"/>
-      <c r="AH44" s="105"/>
-      <c r="AI44" s="105"/>
-      <c r="AJ44" s="105"/>
-      <c r="AK44" s="105"/>
-      <c r="AL44" s="105"/>
-      <c r="AM44" s="105"/>
-      <c r="AN44" s="105"/>
-      <c r="AO44" s="105"/>
-      <c r="AP44" s="105"/>
-      <c r="AQ44" s="105"/>
-      <c r="AR44" s="105"/>
-      <c r="AS44" s="105"/>
-      <c r="AT44" s="105"/>
-      <c r="AU44" s="105"/>
-      <c r="AV44" s="105"/>
-      <c r="AW44" s="105"/>
-      <c r="AX44" s="105"/>
-      <c r="AY44" s="105"/>
-      <c r="AZ44" s="105"/>
-      <c r="BA44" s="105"/>
-      <c r="BB44" s="105"/>
-      <c r="BC44" s="105"/>
-      <c r="BD44" s="105"/>
-      <c r="BE44" s="105"/>
-      <c r="BF44" s="105"/>
-      <c r="BG44" s="105"/>
-      <c r="BH44" s="105"/>
-      <c r="BI44" s="105"/>
-      <c r="BJ44" s="105"/>
-      <c r="BK44" s="105"/>
-      <c r="BL44" s="105"/>
-      <c r="BM44" s="105"/>
-      <c r="BN44" s="105"/>
-      <c r="BO44" s="105"/>
-      <c r="BP44" s="105"/>
-      <c r="BQ44" s="146"/>
-      <c r="BR44" s="146"/>
-      <c r="BS44" s="146"/>
-      <c r="BT44" s="147"/>
-      <c r="BU44" s="147"/>
-      <c r="BV44" s="147"/>
-      <c r="BW44" s="147"/>
-      <c r="BX44" s="147"/>
-      <c r="BY44" s="105"/>
-      <c r="BZ44" s="105"/>
-      <c r="CA44" s="105"/>
-      <c r="CB44" s="105"/>
-      <c r="CC44" s="105"/>
-      <c r="CD44" s="105"/>
-      <c r="CE44" s="105"/>
-      <c r="CF44" s="105"/>
-      <c r="CG44" s="105"/>
-      <c r="CH44" s="105"/>
-      <c r="CI44" s="105"/>
-      <c r="CJ44" s="105"/>
-      <c r="CK44" s="105"/>
-      <c r="CL44" s="105"/>
-      <c r="CM44" s="105"/>
-      <c r="CN44" s="105"/>
-      <c r="CO44" s="105"/>
-      <c r="CP44" s="105"/>
-      <c r="CQ44" s="105"/>
-      <c r="CR44" s="105"/>
-      <c r="CS44" s="105"/>
-      <c r="CT44" s="105"/>
-      <c r="CU44" s="105"/>
-      <c r="CV44" s="109"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="104"/>
+      <c r="T44" s="104"/>
+      <c r="U44" s="104"/>
+      <c r="V44" s="104"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="104"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="104"/>
+      <c r="AC44" s="104"/>
+      <c r="AD44" s="104"/>
+      <c r="AE44" s="104"/>
+      <c r="AF44" s="104"/>
+      <c r="AG44" s="104"/>
+      <c r="AH44" s="104"/>
+      <c r="AI44" s="104"/>
+      <c r="AJ44" s="104"/>
+      <c r="AK44" s="104"/>
+      <c r="AL44" s="104"/>
+      <c r="AM44" s="104"/>
+      <c r="AN44" s="104"/>
+      <c r="AO44" s="104"/>
+      <c r="AP44" s="104"/>
+      <c r="AQ44" s="104"/>
+      <c r="AR44" s="104"/>
+      <c r="AS44" s="104"/>
+      <c r="AT44" s="104"/>
+      <c r="AU44" s="104"/>
+      <c r="AV44" s="104"/>
+      <c r="AW44" s="104"/>
+      <c r="AX44" s="104"/>
+      <c r="AY44" s="104"/>
+      <c r="AZ44" s="104"/>
+      <c r="BA44" s="104"/>
+      <c r="BB44" s="104"/>
+      <c r="BC44" s="104"/>
+      <c r="BD44" s="104"/>
+      <c r="BE44" s="104"/>
+      <c r="BF44" s="104"/>
+      <c r="BG44" s="104"/>
+      <c r="BH44" s="104"/>
+      <c r="BI44" s="104"/>
+      <c r="BJ44" s="104"/>
+      <c r="BK44" s="104"/>
+      <c r="BL44" s="104"/>
+      <c r="BM44" s="104"/>
+      <c r="BN44" s="104"/>
+      <c r="BO44" s="104"/>
+      <c r="BP44" s="104"/>
+      <c r="BQ44" s="140"/>
+      <c r="BR44" s="140"/>
+      <c r="BS44" s="140"/>
+      <c r="BT44" s="141"/>
+      <c r="BU44" s="141"/>
+      <c r="BV44" s="141"/>
+      <c r="BW44" s="141"/>
+      <c r="BX44" s="141"/>
+      <c r="BY44" s="104"/>
+      <c r="BZ44" s="104"/>
+      <c r="CA44" s="104"/>
+      <c r="CB44" s="104"/>
+      <c r="CC44" s="104"/>
+      <c r="CD44" s="104"/>
+      <c r="CE44" s="104"/>
+      <c r="CF44" s="104"/>
+      <c r="CG44" s="104"/>
+      <c r="CH44" s="104"/>
+      <c r="CI44" s="104"/>
+      <c r="CJ44" s="104"/>
+      <c r="CK44" s="104"/>
+      <c r="CL44" s="104"/>
+      <c r="CM44" s="104"/>
+      <c r="CN44" s="104"/>
+      <c r="CO44" s="104"/>
+      <c r="CP44" s="104"/>
+      <c r="CQ44" s="104"/>
+      <c r="CR44" s="104"/>
+      <c r="CS44" s="104"/>
+      <c r="CT44" s="104"/>
+      <c r="CU44" s="104"/>
+      <c r="CV44" s="108"/>
       <c r="CW44"/>
       <c r="CX44"/>
       <c r="CY44"/>
@@ -7620,108 +7574,108 @@
       <c r="FD44"/>
     </row>
     <row r="45" spans="1:160" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="106"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
-      <c r="O45" s="105"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="105"/>
-      <c r="R45" s="105"/>
-      <c r="S45" s="105"/>
-      <c r="T45" s="105"/>
-      <c r="U45" s="105"/>
-      <c r="V45" s="105"/>
-      <c r="W45" s="105"/>
-      <c r="X45" s="105"/>
-      <c r="Y45" s="105"/>
-      <c r="Z45" s="105"/>
-      <c r="AA45" s="105"/>
-      <c r="AB45" s="105"/>
-      <c r="AC45" s="105"/>
-      <c r="AD45" s="105"/>
-      <c r="AE45" s="105"/>
-      <c r="AF45" s="105"/>
-      <c r="AG45" s="105"/>
-      <c r="AH45" s="105"/>
-      <c r="AI45" s="105"/>
-      <c r="AJ45" s="105"/>
-      <c r="AK45" s="105"/>
-      <c r="AL45" s="105"/>
-      <c r="AM45" s="105"/>
-      <c r="AN45" s="105"/>
-      <c r="AO45" s="105"/>
-      <c r="AP45" s="105"/>
-      <c r="AQ45" s="105"/>
-      <c r="AR45" s="105"/>
-      <c r="AS45" s="105"/>
-      <c r="AT45" s="105"/>
-      <c r="AU45" s="105"/>
-      <c r="AV45" s="105"/>
-      <c r="AW45" s="105"/>
-      <c r="AX45" s="105"/>
-      <c r="AY45" s="105"/>
-      <c r="AZ45" s="105"/>
-      <c r="BA45" s="105"/>
-      <c r="BB45" s="105"/>
-      <c r="BC45" s="105"/>
-      <c r="BD45" s="105"/>
-      <c r="BE45" s="105"/>
-      <c r="BF45" s="105"/>
-      <c r="BG45" s="105"/>
-      <c r="BH45" s="105"/>
-      <c r="BI45" s="105"/>
-      <c r="BJ45" s="105"/>
-      <c r="BK45" s="105"/>
-      <c r="BL45" s="105"/>
-      <c r="BM45" s="105"/>
-      <c r="BN45" s="105"/>
-      <c r="BO45" s="105"/>
-      <c r="BP45" s="105"/>
-      <c r="BQ45" s="146"/>
-      <c r="BR45" s="146"/>
-      <c r="BS45" s="146"/>
-      <c r="BT45" s="147"/>
-      <c r="BU45" s="147"/>
-      <c r="BV45" s="147"/>
-      <c r="BW45" s="147"/>
-      <c r="BX45" s="147"/>
-      <c r="BY45" s="105"/>
-      <c r="BZ45" s="105"/>
-      <c r="CA45" s="105"/>
-      <c r="CB45" s="105"/>
-      <c r="CC45" s="105"/>
-      <c r="CD45" s="105"/>
-      <c r="CE45" s="105"/>
-      <c r="CF45" s="105"/>
-      <c r="CG45" s="105"/>
-      <c r="CH45" s="105"/>
-      <c r="CI45" s="105"/>
-      <c r="CJ45" s="105"/>
-      <c r="CK45" s="105"/>
-      <c r="CL45" s="105"/>
-      <c r="CM45" s="105"/>
-      <c r="CN45" s="105"/>
-      <c r="CO45" s="105"/>
-      <c r="CP45" s="105"/>
-      <c r="CQ45" s="105"/>
-      <c r="CR45" s="105"/>
-      <c r="CS45" s="105"/>
-      <c r="CT45" s="105"/>
-      <c r="CU45" s="105"/>
-      <c r="CV45" s="109"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="104"/>
+      <c r="AF45" s="104"/>
+      <c r="AG45" s="104"/>
+      <c r="AH45" s="104"/>
+      <c r="AI45" s="104"/>
+      <c r="AJ45" s="104"/>
+      <c r="AK45" s="104"/>
+      <c r="AL45" s="104"/>
+      <c r="AM45" s="104"/>
+      <c r="AN45" s="104"/>
+      <c r="AO45" s="104"/>
+      <c r="AP45" s="104"/>
+      <c r="AQ45" s="104"/>
+      <c r="AR45" s="104"/>
+      <c r="AS45" s="104"/>
+      <c r="AT45" s="104"/>
+      <c r="AU45" s="104"/>
+      <c r="AV45" s="104"/>
+      <c r="AW45" s="104"/>
+      <c r="AX45" s="104"/>
+      <c r="AY45" s="104"/>
+      <c r="AZ45" s="104"/>
+      <c r="BA45" s="104"/>
+      <c r="BB45" s="104"/>
+      <c r="BC45" s="104"/>
+      <c r="BD45" s="104"/>
+      <c r="BE45" s="104"/>
+      <c r="BF45" s="104"/>
+      <c r="BG45" s="104"/>
+      <c r="BH45" s="104"/>
+      <c r="BI45" s="104"/>
+      <c r="BJ45" s="104"/>
+      <c r="BK45" s="104"/>
+      <c r="BL45" s="104"/>
+      <c r="BM45" s="104"/>
+      <c r="BN45" s="104"/>
+      <c r="BO45" s="104"/>
+      <c r="BP45" s="104"/>
+      <c r="BQ45" s="140"/>
+      <c r="BR45" s="140"/>
+      <c r="BS45" s="140"/>
+      <c r="BT45" s="141"/>
+      <c r="BU45" s="141"/>
+      <c r="BV45" s="141"/>
+      <c r="BW45" s="141"/>
+      <c r="BX45" s="141"/>
+      <c r="BY45" s="104"/>
+      <c r="BZ45" s="104"/>
+      <c r="CA45" s="104"/>
+      <c r="CB45" s="104"/>
+      <c r="CC45" s="104"/>
+      <c r="CD45" s="104"/>
+      <c r="CE45" s="104"/>
+      <c r="CF45" s="104"/>
+      <c r="CG45" s="104"/>
+      <c r="CH45" s="104"/>
+      <c r="CI45" s="104"/>
+      <c r="CJ45" s="104"/>
+      <c r="CK45" s="104"/>
+      <c r="CL45" s="104"/>
+      <c r="CM45" s="104"/>
+      <c r="CN45" s="104"/>
+      <c r="CO45" s="104"/>
+      <c r="CP45" s="104"/>
+      <c r="CQ45" s="104"/>
+      <c r="CR45" s="104"/>
+      <c r="CS45" s="104"/>
+      <c r="CT45" s="104"/>
+      <c r="CU45" s="104"/>
+      <c r="CV45" s="108"/>
       <c r="CW45"/>
       <c r="CX45"/>
       <c r="CY45"/>
@@ -7784,130 +7738,130 @@
       <c r="FD45"/>
     </row>
     <row r="46" spans="1:160" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="98" t="s">
+      <c r="A46" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="99" t="s">
+      <c r="B46" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
-      <c r="X46" s="100"/>
-      <c r="Y46" s="100"/>
-      <c r="Z46" s="100"/>
-      <c r="AA46" s="100"/>
-      <c r="AB46" s="100"/>
-      <c r="AC46" s="100"/>
-      <c r="AD46" s="100"/>
-      <c r="AE46" s="100"/>
-      <c r="AF46" s="100"/>
-      <c r="AG46" s="100"/>
-      <c r="AH46" s="100"/>
-      <c r="AI46" s="100"/>
-      <c r="AJ46" s="100"/>
-      <c r="AK46" s="100"/>
-      <c r="AL46" s="100"/>
-      <c r="AM46" s="100"/>
-      <c r="AN46" s="100"/>
-      <c r="AO46" s="100"/>
-      <c r="AP46" s="100"/>
-      <c r="AQ46" s="100"/>
-      <c r="AR46" s="100"/>
-      <c r="AS46" s="100"/>
-      <c r="AT46" s="100"/>
-      <c r="AU46" s="100"/>
-      <c r="AV46" s="100"/>
-      <c r="AW46" s="100"/>
-      <c r="AX46" s="100"/>
-      <c r="AY46" s="100"/>
-      <c r="AZ46" s="100"/>
-      <c r="BA46" s="100"/>
-      <c r="BB46" s="100"/>
-      <c r="BC46" s="100"/>
-      <c r="BD46" s="100"/>
-      <c r="BE46" s="100"/>
-      <c r="BF46" s="100"/>
-      <c r="BG46" s="100"/>
-      <c r="BH46" s="100"/>
-      <c r="BI46" s="100"/>
-      <c r="BJ46" s="100"/>
-      <c r="BK46" s="100"/>
-      <c r="BL46" s="100"/>
-      <c r="BM46" s="100"/>
-      <c r="BN46" s="100"/>
-      <c r="BO46" s="100"/>
-      <c r="BP46" s="100"/>
-      <c r="BQ46" s="100"/>
-      <c r="BR46" s="100"/>
-      <c r="BS46" s="100"/>
-      <c r="BT46" s="100"/>
-      <c r="BU46" s="100"/>
-      <c r="BV46" s="100"/>
-      <c r="BW46" s="101"/>
-      <c r="BX46" s="100"/>
-      <c r="BY46" s="145" t="s">
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="99"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="99"/>
+      <c r="R46" s="99"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="99"/>
+      <c r="V46" s="99"/>
+      <c r="W46" s="99"/>
+      <c r="X46" s="99"/>
+      <c r="Y46" s="99"/>
+      <c r="Z46" s="99"/>
+      <c r="AA46" s="99"/>
+      <c r="AB46" s="99"/>
+      <c r="AC46" s="99"/>
+      <c r="AD46" s="99"/>
+      <c r="AE46" s="99"/>
+      <c r="AF46" s="99"/>
+      <c r="AG46" s="99"/>
+      <c r="AH46" s="99"/>
+      <c r="AI46" s="99"/>
+      <c r="AJ46" s="99"/>
+      <c r="AK46" s="99"/>
+      <c r="AL46" s="99"/>
+      <c r="AM46" s="99"/>
+      <c r="AN46" s="99"/>
+      <c r="AO46" s="99"/>
+      <c r="AP46" s="99"/>
+      <c r="AQ46" s="99"/>
+      <c r="AR46" s="99"/>
+      <c r="AS46" s="99"/>
+      <c r="AT46" s="99"/>
+      <c r="AU46" s="99"/>
+      <c r="AV46" s="99"/>
+      <c r="AW46" s="99"/>
+      <c r="AX46" s="99"/>
+      <c r="AY46" s="99"/>
+      <c r="AZ46" s="99"/>
+      <c r="BA46" s="99"/>
+      <c r="BB46" s="99"/>
+      <c r="BC46" s="99"/>
+      <c r="BD46" s="99"/>
+      <c r="BE46" s="99"/>
+      <c r="BF46" s="99"/>
+      <c r="BG46" s="99"/>
+      <c r="BH46" s="99"/>
+      <c r="BI46" s="99"/>
+      <c r="BJ46" s="99"/>
+      <c r="BK46" s="99"/>
+      <c r="BL46" s="99"/>
+      <c r="BM46" s="99"/>
+      <c r="BN46" s="99"/>
+      <c r="BO46" s="99"/>
+      <c r="BP46" s="99"/>
+      <c r="BQ46" s="99"/>
+      <c r="BR46" s="99"/>
+      <c r="BS46" s="99"/>
+      <c r="BT46" s="99"/>
+      <c r="BU46" s="99"/>
+      <c r="BV46" s="99"/>
+      <c r="BW46" s="100"/>
+      <c r="BX46" s="99"/>
+      <c r="BY46" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="BZ46" s="145" t="s">
+      <c r="BZ46" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="CA46" s="133" t="s">
+      <c r="CA46" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="CB46" s="134" t="s">
+      <c r="CB46" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="CC46" s="134" t="s">
+      <c r="CC46" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="CD46" s="134" t="s">
+      <c r="CD46" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="CE46" s="134" t="s">
+      <c r="CE46" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="CF46" s="134" t="s">
+      <c r="CF46" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="CG46" s="134" t="s">
+      <c r="CG46" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="CH46" s="134" t="s">
+      <c r="CH46" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="CI46" s="100"/>
-      <c r="CJ46" s="100"/>
-      <c r="CK46" s="100"/>
-      <c r="CL46" s="100"/>
-      <c r="CM46" s="100"/>
-      <c r="CN46" s="100"/>
-      <c r="CO46" s="100"/>
-      <c r="CP46" s="100"/>
-      <c r="CQ46" s="100"/>
-      <c r="CR46" s="100"/>
-      <c r="CS46" s="100"/>
-      <c r="CT46" s="100"/>
-      <c r="CU46" s="100"/>
-      <c r="CV46" s="110"/>
+      <c r="CI46" s="99"/>
+      <c r="CJ46" s="99"/>
+      <c r="CK46" s="99"/>
+      <c r="CL46" s="99"/>
+      <c r="CM46" s="99"/>
+      <c r="CN46" s="99"/>
+      <c r="CO46" s="99"/>
+      <c r="CP46" s="99"/>
+      <c r="CQ46" s="99"/>
+      <c r="CR46" s="99"/>
+      <c r="CS46" s="99"/>
+      <c r="CT46" s="99"/>
+      <c r="CU46" s="99"/>
+      <c r="CV46" s="109"/>
       <c r="CW46"/>
       <c r="CX46"/>
       <c r="CY46"/>
@@ -7973,8 +7927,8 @@
       <c r="A47" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="CV47" s="56"/>
+      <c r="B47" s="54"/>
+      <c r="CV47" s="55"/>
       <c r="CW47"/>
       <c r="CX47"/>
       <c r="CY47"/>
@@ -8040,7 +7994,7 @@
       <c r="A48" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -8124,17 +8078,17 @@
       <c r="CE48" s="14"/>
       <c r="CF48" s="14"/>
       <c r="CG48" s="14"/>
-      <c r="CH48" s="121"/>
-      <c r="CI48" s="148"/>
-      <c r="CJ48" s="148"/>
-      <c r="CK48" s="148"/>
-      <c r="CL48" s="149" t="s">
+      <c r="CH48" s="119"/>
+      <c r="CI48" s="142"/>
+      <c r="CJ48" s="142"/>
+      <c r="CK48" s="142"/>
+      <c r="CL48" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="CM48" s="149" t="s">
+      <c r="CM48" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="CN48" s="149" t="s">
+      <c r="CN48" s="143" t="s">
         <v>79</v>
       </c>
       <c r="CO48" s="14"/>
@@ -8144,7 +8098,7 @@
       <c r="CS48" s="14"/>
       <c r="CT48" s="14"/>
       <c r="CU48" s="14"/>
-      <c r="CV48" s="58"/>
+      <c r="CV48" s="57"/>
       <c r="CW48"/>
       <c r="CX48"/>
       <c r="CY48"/>
@@ -8207,10 +8161,10 @@
       <c r="FD48"/>
     </row>
     <row r="49" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="57"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -8295,9 +8249,9 @@
       <c r="CF49" s="14"/>
       <c r="CG49" s="14"/>
       <c r="CH49" s="14"/>
-      <c r="CI49" s="121"/>
-      <c r="CJ49" s="121"/>
-      <c r="CK49" s="121"/>
+      <c r="CI49" s="119"/>
+      <c r="CJ49" s="119"/>
+      <c r="CK49" s="119"/>
       <c r="CL49" s="14"/>
       <c r="CM49" s="14"/>
       <c r="CN49" s="14"/>
@@ -8308,7 +8262,7 @@
       <c r="CS49" s="14"/>
       <c r="CT49" s="14"/>
       <c r="CU49" s="14"/>
-      <c r="CV49" s="58"/>
+      <c r="CV49" s="57"/>
       <c r="CW49"/>
       <c r="CX49"/>
       <c r="CY49"/>
@@ -8374,7 +8328,7 @@
       <c r="A50" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="57"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -8459,12 +8413,12 @@
       <c r="CF50" s="14"/>
       <c r="CG50" s="14"/>
       <c r="CH50" s="14"/>
-      <c r="CI50" s="121"/>
-      <c r="CJ50" s="121"/>
-      <c r="CK50" s="121"/>
-      <c r="CL50" s="149"/>
-      <c r="CM50" s="149"/>
-      <c r="CN50" s="149"/>
+      <c r="CI50" s="119"/>
+      <c r="CJ50" s="119"/>
+      <c r="CK50" s="119"/>
+      <c r="CL50" s="143"/>
+      <c r="CM50" s="143"/>
+      <c r="CN50" s="143"/>
       <c r="CO50" s="14"/>
       <c r="CP50" s="14"/>
       <c r="CQ50" s="14"/>
@@ -8472,7 +8426,7 @@
       <c r="CS50" s="14"/>
       <c r="CT50" s="14"/>
       <c r="CU50" s="14"/>
-      <c r="CV50" s="58"/>
+      <c r="CV50" s="57"/>
       <c r="CW50"/>
       <c r="CX50"/>
       <c r="CY50"/>
@@ -8535,10 +8489,10 @@
       <c r="FD50"/>
     </row>
     <row r="51" spans="1:160" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="111" t="s">
+      <c r="A51" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="57"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -8623,9 +8577,9 @@
       <c r="CF51" s="14"/>
       <c r="CG51" s="14"/>
       <c r="CH51" s="14"/>
-      <c r="CI51" s="121"/>
-      <c r="CJ51" s="121"/>
-      <c r="CK51" s="121"/>
+      <c r="CI51" s="119"/>
+      <c r="CJ51" s="119"/>
+      <c r="CK51" s="119"/>
       <c r="CL51" s="14"/>
       <c r="CM51" s="14"/>
       <c r="CN51" s="14"/>
@@ -8636,7 +8590,7 @@
       <c r="CS51" s="14"/>
       <c r="CT51" s="14"/>
       <c r="CU51" s="14"/>
-      <c r="CV51" s="58"/>
+      <c r="CV51" s="57"/>
       <c r="CW51"/>
       <c r="CX51"/>
       <c r="CY51"/>
@@ -8702,7 +8656,7 @@
       <c r="A52" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="57"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -8787,12 +8741,12 @@
       <c r="CF52" s="14"/>
       <c r="CG52" s="14"/>
       <c r="CH52" s="14"/>
-      <c r="CI52" s="121"/>
-      <c r="CJ52" s="121"/>
-      <c r="CK52" s="121"/>
-      <c r="CL52" s="149"/>
-      <c r="CM52" s="149"/>
-      <c r="CN52" s="149"/>
+      <c r="CI52" s="119"/>
+      <c r="CJ52" s="119"/>
+      <c r="CK52" s="119"/>
+      <c r="CL52" s="143"/>
+      <c r="CM52" s="143"/>
+      <c r="CN52" s="143"/>
       <c r="CO52" s="14"/>
       <c r="CP52" s="14"/>
       <c r="CQ52" s="14"/>
@@ -8800,7 +8754,7 @@
       <c r="CS52" s="14"/>
       <c r="CT52" s="14"/>
       <c r="CU52" s="14"/>
-      <c r="CV52" s="58"/>
+      <c r="CV52" s="57"/>
       <c r="CW52"/>
       <c r="CX52"/>
       <c r="CY52"/>
@@ -8866,7 +8820,7 @@
       <c r="A53" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="34"/>
@@ -8956,29 +8910,29 @@
       <c r="CI53" s="34"/>
       <c r="CJ53" s="34"/>
       <c r="CK53" s="34"/>
-      <c r="CL53" s="135"/>
-      <c r="CM53" s="135"/>
-      <c r="CN53" s="135"/>
-      <c r="CO53" s="130" t="s">
+      <c r="CL53" s="133"/>
+      <c r="CM53" s="133"/>
+      <c r="CN53" s="133"/>
+      <c r="CO53" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="CP53" s="130" t="s">
+      <c r="CP53" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="CQ53" s="130" t="s">
+      <c r="CQ53" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="CR53" s="130" t="s">
+      <c r="CR53" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="CS53" s="130" t="s">
+      <c r="CS53" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="CT53" s="130" t="s">
+      <c r="CT53" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="CU53" s="130"/>
-      <c r="CV53" s="131"/>
+      <c r="CU53" s="128"/>
+      <c r="CV53" s="129"/>
       <c r="CW53"/>
       <c r="CX53"/>
       <c r="CY53"/>
@@ -9041,11 +8995,11 @@
       <c r="FD53"/>
     </row>
     <row r="54" spans="1:160" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="60"/>
-      <c r="CV54" s="70"/>
+      <c r="B54" s="59"/>
+      <c r="CV54" s="69"/>
       <c r="CW54"/>
       <c r="CX54"/>
       <c r="CY54"/>
@@ -9109,18 +9063,18 @@
     </row>
     <row r="55" spans="1:160" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
-      <c r="B55" s="61"/>
-      <c r="G55" s="66"/>
-      <c r="Q55" s="66"/>
-      <c r="X55" s="66"/>
-      <c r="AC55" s="66"/>
-      <c r="AR55" s="66"/>
-      <c r="BI55" s="66"/>
-      <c r="BN55" s="66"/>
-      <c r="BW55" s="66"/>
-      <c r="CL55" s="66"/>
-      <c r="CT55" s="66"/>
-      <c r="CV55" s="62"/>
+      <c r="B55" s="60"/>
+      <c r="G55" s="65"/>
+      <c r="Q55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="AC55" s="65"/>
+      <c r="AR55" s="65"/>
+      <c r="BI55" s="65"/>
+      <c r="BN55" s="65"/>
+      <c r="BW55" s="65"/>
+      <c r="CL55" s="65"/>
+      <c r="CT55" s="65"/>
+      <c r="CV55" s="61"/>
       <c r="CW55"/>
       <c r="CX55"/>
       <c r="CY55"/>
